--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vnode2.labos.polymtl.ca\usagers-vn2\g\gaboub\profiles\Desktop\labs\INF4705\tp2\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gravu_000\Documents\GitHub\INF4705\tp2\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="analyse_1" localSheetId="0">Feuil1!$A$1:$G$212</definedName>
+    <definedName name="analyse_1" localSheetId="0">Feuil1!$A$1:$G$224</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -875,21 +875,21 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1198,32 +1198,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U233"/>
+  <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1242,11 +1244,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>11954788</v>
       </c>
       <c r="C2">
@@ -1264,27 +1266,27 @@
       <c r="G2">
         <v>6818</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="7" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>13919429</v>
       </c>
       <c r="C3">
@@ -1302,31 +1304,31 @@
       <c r="G3">
         <v>11972</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>15154423</v>
       </c>
       <c r="C4">
@@ -1344,27 +1346,39 @@
       <c r="G4">
         <v>18184</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P4" s="5">
-        <v>21040128.600000001</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="5">
-        <v>8981213302.1000004</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="5">
-        <v>1629850.2</v>
-      </c>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J4" s="10">
+        <f>AVERAGE(B2:B11)</f>
+        <v>19172238.100000001</v>
+      </c>
+      <c r="K4" s="10">
+        <f>AVERAGE(C2:C11)</f>
+        <v>27813.4</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:O4" si="0">AVERAGE(D2:D11)</f>
+        <v>1109475116.3</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>36469.1</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="0"/>
+        <v>220425568.90000001</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="0"/>
+        <v>32469.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>18967141</v>
       </c>
       <c r="C5">
@@ -1382,27 +1396,39 @@
       <c r="G5">
         <v>24990</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P5" s="5">
-        <v>19059137.5</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="5">
-        <v>943957668.79999995</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="5">
-        <v>1637601.1</v>
-      </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J5" s="10">
+        <f>AVERAGE(B13:B22)</f>
+        <v>17082813</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" ref="K5:O5" si="1">AVERAGE(C13:C22)</f>
+        <v>2878.4</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="1"/>
+        <v>147733924.90000001</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="1"/>
+        <v>3724.7</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="1"/>
+        <v>204205342</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="1"/>
+        <v>3335.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>15683939</v>
       </c>
       <c r="C6">
@@ -1420,27 +1446,39 @@
       <c r="G6">
         <v>29798</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P6" s="5">
-        <v>20592371.100000001</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="5">
-        <v>125182202.7</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="5">
-        <v>1650487.7</v>
-      </c>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J6" s="10">
+        <f>AVERAGE(B24:B33)</f>
+        <v>19567361.199999999</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" ref="K6:O6" si="2">AVERAGE(C24:C33)</f>
+        <v>313.89999999999998</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="2"/>
+        <v>49826671.100000001</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="2"/>
+        <v>187573442.09999999</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="2"/>
+        <v>360.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>20749887</v>
       </c>
       <c r="C7">
@@ -1458,27 +1496,39 @@
       <c r="G7">
         <v>35324</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="P7" s="5">
-        <v>2484048.2000000002</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="5">
-        <v>118608061.3</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="5">
-        <v>1498966.4</v>
-      </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J7" s="10">
+        <f>AVERAGE(B35:B44)</f>
+        <v>1929205</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" ref="K7:O7" si="3">AVERAGE(C35:C44)</f>
+        <v>2859.5</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="3"/>
+        <v>52673413.100000001</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="3"/>
+        <v>3675.7</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="3"/>
+        <v>24649228.399999999</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="3"/>
+        <v>3420.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>21899075</v>
       </c>
       <c r="C8">
@@ -1496,27 +1546,39 @@
       <c r="G8">
         <v>40463</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P8" s="5">
-        <v>2480475.888888889</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="5">
-        <v>22906905.222222224</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="5">
-        <v>1499546.888888889</v>
-      </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J8" s="10">
+        <f>AVERAGE(B46:B54)</f>
+        <v>1942892.2222222222</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" ref="K8:O8" si="4">AVERAGE(C46:C54)</f>
+        <v>315.66666666666669</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="4"/>
+        <v>17472890.666666668</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="4"/>
+        <v>403.66666666666669</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="4"/>
+        <v>25056521.111111112</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="4"/>
+        <v>369.88888888888891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>26851703</v>
       </c>
       <c r="C9">
@@ -1534,27 +1596,39 @@
       <c r="G9">
         <v>45928</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="P9" s="5">
-        <v>2273572.6666666665</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="5">
-        <v>3733920.222222222</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="5">
-        <v>1498708.3333333333</v>
-      </c>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J9" s="10">
+        <f>AVERAGE(B56:B64)</f>
+        <v>1748640.888888889</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" ref="K9:O9" si="5">AVERAGE(C56:C64)</f>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="5"/>
+        <v>1926012.888888889</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="5"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="5"/>
+        <v>17216338.222222224</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>22497673</v>
       </c>
       <c r="C10">
@@ -1572,27 +1646,39 @@
       <c r="G10">
         <v>53381</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P10" s="5">
-        <v>1452822.6296296297</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="5">
-        <v>8332302.3580246912</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="5">
-        <v>1444978.0370370368</v>
-      </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J10" s="10">
+        <f>AVERAGE(B66:B73)</f>
+        <v>910659.875</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" ref="K10:O10" si="6">AVERAGE(C66:C73)</f>
+        <v>1004.75</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="6"/>
+        <v>9498412.5</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="6"/>
+        <v>1106.125</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="6"/>
+        <v>1939351.75</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="6"/>
+        <v>1069.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>24044323</v>
       </c>
       <c r="C11">
@@ -1610,38 +1696,50 @@
       <c r="G11">
         <v>57835</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="P11" s="5">
-        <v>1404320.2</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="5">
-        <v>1710751.1</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="5">
-        <v>1443264.1</v>
-      </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="J11" s="10">
+        <f>AVERAGE(B75:B84)</f>
+        <v>955876.9</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" ref="K11:O11" si="7">AVERAGE(C75:C84)</f>
+        <v>89.1</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="7"/>
+        <v>918119.5</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="7"/>
+        <v>108.2</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="7"/>
+        <v>1929649.1</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="7"/>
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
       <c r="F12"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>7288894</v>
       </c>
       <c r="C13">
@@ -1659,27 +1757,39 @@
       <c r="G13">
         <v>664</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="P13" s="5">
-        <v>1408947.3333333333</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="5">
-        <v>1026942</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="5">
-        <v>1440823.2222222222</v>
-      </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J13" s="10">
+        <f>AVERAGE(B86:B94)</f>
+        <v>914120.77777777775</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" ref="K13:O13" si="8">AVERAGE(C86:C94)</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="8"/>
+        <v>612259.77777777775</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="8"/>
+        <v>13.111111111111111</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="8"/>
+        <v>1918262.5555555555</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="8"/>
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>9430403</v>
       </c>
       <c r="C14">
@@ -1697,27 +1807,39 @@
       <c r="G14">
         <v>1254</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="P14" s="5">
-        <v>4096655.3333333335</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="5">
-        <v>401371624.1111111</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="5">
-        <v>1514963.3333333333</v>
-      </c>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J14" s="10">
+        <f>AVERAGE(B96:B104)</f>
+        <v>3114161.5555555555</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" ref="K14:O14" si="9">AVERAGE(C96:C104)</f>
+        <v>5891.1111111111113</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="9"/>
+        <v>77868910.222222224</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="9"/>
+        <v>7610.7777777777774</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="9"/>
+        <v>46580486.666666664</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="9"/>
+        <v>6884.2222222222226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>11140088</v>
       </c>
       <c r="C15">
@@ -1735,27 +1857,39 @@
       <c r="G15">
         <v>1793</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P15" s="5">
-        <v>3939915</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="5">
-        <v>61406722.100000001</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="5">
-        <v>1522810.6</v>
-      </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J15" s="10">
+        <f>AVERAGE(B106:B115)</f>
+        <v>2918555.8</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" ref="K15:O15" si="10">AVERAGE(C106:C115)</f>
+        <v>574.9</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="10"/>
+        <v>41854789.799999997</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="10"/>
+        <v>741</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="10"/>
+        <v>45450803.700000003</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="10"/>
+        <v>678.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>16757983</v>
       </c>
       <c r="C16">
@@ -1773,27 +1907,39 @@
       <c r="G16">
         <v>2426</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="5">
-        <v>3587530.2</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="5">
-        <v>10882238.300000001</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="5">
-        <v>1528419.7</v>
-      </c>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J16" s="10">
+        <f>AVERAGE(B117:B126)</f>
+        <v>2724902.2</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" ref="K16:O16" si="11">AVERAGE(C117:C126)</f>
+        <v>62.5</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="11"/>
+        <v>9278231.3000000007</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="11"/>
+        <v>83.8</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="11"/>
+        <v>38532225.799999997</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="11"/>
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>19505620</v>
       </c>
       <c r="C17">
@@ -1811,27 +1957,39 @@
       <c r="G17">
         <v>3015</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="P17" s="5">
-        <v>1494268</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="5">
-        <v>15648957.111111112</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="5">
-        <v>1474622.5555555555</v>
-      </c>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J17" s="10">
+        <f>AVERAGE(B128:B136)</f>
+        <v>1002141.7777777778</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" ref="K17:O17" si="12">AVERAGE(C128:C136)</f>
+        <v>967.11111111111109</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="12"/>
+        <v>12751036</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="12"/>
+        <v>1235.5555555555557</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="12"/>
+        <v>3018903.4444444445</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="12"/>
+        <v>1101.7777777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>22458934</v>
       </c>
       <c r="C18">
@@ -1849,27 +2007,39 @@
       <c r="G18">
         <v>3645</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="P18" s="5">
-        <v>1545975.6</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="5">
-        <v>2564677.7000000002</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="5">
-        <v>1458746.1</v>
-      </c>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J18" s="10">
+        <f>AVERAGE(B138:B147)</f>
+        <v>1008420.7</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" ref="K18:O18" si="13">AVERAGE(C138:C147)</f>
+        <v>99.2</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="13"/>
+        <v>1267146.3</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="13"/>
+        <v>119.9</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="13"/>
+        <v>2839615.4</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="13"/>
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>19086070</v>
       </c>
       <c r="C19">
@@ -1887,27 +2057,39 @@
       <c r="G19">
         <v>4150</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="P19" s="5">
-        <v>1410149</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="5">
-        <v>1145664.8999999999</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="5">
-        <v>1455485</v>
-      </c>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J19" s="10">
+        <f>AVERAGE(B149:B158)</f>
+        <v>945117.3</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" ref="K19:O19" si="14">AVERAGE(C149:C158)</f>
+        <v>11.7</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="14"/>
+        <v>665377.19999999995</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="14"/>
+        <v>13.9</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="14"/>
+        <v>2807340.3</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>21027484</v>
       </c>
       <c r="C20">
@@ -1925,27 +2107,39 @@
       <c r="G20">
         <v>4927</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="P20" s="5">
-        <v>10295009.800000001</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="5">
-        <v>2245010359</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="5">
-        <v>1632575.9</v>
-      </c>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J20" s="10">
+        <f>AVERAGE(B160:B169)</f>
+        <v>12165247.300000001</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" ref="K20:O20" si="15">AVERAGE(C160:C169)</f>
+        <v>13751.8</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="15"/>
+        <v>309694953.39999998</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="15"/>
+        <v>18027.2</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="15"/>
+        <v>114938772</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="15"/>
+        <v>16239.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>21876955</v>
       </c>
       <c r="C21">
@@ -1963,27 +2157,39 @@
       <c r="G21">
         <v>5469</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P21" s="5">
-        <v>9690775.5</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="5">
-        <v>258050786.40000001</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="5">
-        <v>1609307.2</v>
-      </c>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J21" s="10">
+        <f>AVERAGE(B171:B180)</f>
+        <v>11623733.800000001</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" ref="K21:O21" si="16">AVERAGE(C171:C180)</f>
+        <v>1429.5</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="16"/>
+        <v>64749464.799999997</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="16"/>
+        <v>1858.8</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="16"/>
+        <v>104298181.7</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="16"/>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>22255699</v>
       </c>
       <c r="C22">
@@ -2001,38 +2207,50 @@
       <c r="G22">
         <v>6014</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="P22" s="5">
-        <v>9570222.5999999996</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="5">
-        <v>44896964</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="5">
-        <v>1618883.6</v>
-      </c>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="J22" s="10">
+        <f>AVERAGE(B182:B191)</f>
+        <v>10681418.4</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" ref="K22:O22" si="17">AVERAGE(C182:C191)</f>
+        <v>153.80000000000001</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="17"/>
+        <v>34899595.200000003</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="17"/>
+        <v>209.5</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="17"/>
+        <v>98601858.200000003</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="17"/>
+        <v>181.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
       <c r="F23"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>11102475</v>
       </c>
       <c r="C24">
@@ -2050,27 +2268,39 @@
       <c r="G24">
         <v>67</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="P24" s="5">
-        <v>1937282.2</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="5">
-        <v>46490937.299999997</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="5">
-        <v>1487436.3</v>
-      </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J24" s="10">
+        <f>AVERAGE(B193:B202)</f>
+        <v>1434623</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" ref="K24:O24" si="18">AVERAGE(C193:C202)</f>
+        <v>1629.1</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="18"/>
+        <v>34640787.899999999</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="18"/>
+        <v>1967.6</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="18"/>
+        <v>8918489.3000000007</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="18"/>
+        <v>1772.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>12950401</v>
       </c>
       <c r="C25">
@@ -2088,27 +2318,39 @@
       <c r="G25">
         <v>132</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="P25" s="5">
-        <v>1851183.2</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="5">
-        <v>8439718.6999999993</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="5">
-        <v>1509575.6</v>
-      </c>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J25" s="10">
+        <f>AVERAGE(B204:B213)</f>
+        <v>1391121.4</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" ref="K25:O25" si="19">AVERAGE(C204:C213)</f>
+        <v>162.80000000000001</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="19"/>
+        <v>5370102.2000000002</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="19"/>
+        <v>203.6</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="19"/>
+        <v>8974565.3000000007</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="19"/>
+        <v>188.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>14598485</v>
       </c>
       <c r="C26">
@@ -2126,27 +2368,39 @@
       <c r="G26">
         <v>191</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="P26" s="5">
-        <v>1704669.8</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="5">
-        <v>1674618.9</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="5">
-        <v>1485427.1</v>
-      </c>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J26" s="10">
+        <f>AVERAGE(B215:B224)</f>
+        <v>1271427.5</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" ref="K26:O26" si="20">AVERAGE(C215:C224)</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="20"/>
+        <v>994701.6</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="20"/>
+        <v>22.6</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="20"/>
+        <v>7236047.0999999996</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="20"/>
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>16766151</v>
       </c>
       <c r="C27">
@@ -2165,11 +2419,11 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>16302254</v>
       </c>
       <c r="C28">
@@ -2188,11 +2442,11 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>23099894</v>
       </c>
       <c r="C29">
@@ -2211,11 +2465,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>28347140</v>
       </c>
       <c r="C30">
@@ -2234,11 +2488,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>27344039</v>
       </c>
       <c r="C31">
@@ -2257,11 +2511,11 @@
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>22483539</v>
       </c>
       <c r="C32">
@@ -2284,7 +2538,7 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>22679234</v>
       </c>
       <c r="C33">
@@ -2304,14 +2558,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="F34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>1971355</v>
       </c>
       <c r="C35">
@@ -2334,7 +2588,7 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>1665255</v>
       </c>
       <c r="C36">
@@ -2357,7 +2611,7 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>1865288</v>
       </c>
       <c r="C37">
@@ -2380,7 +2634,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>1726668</v>
       </c>
       <c r="C38">
@@ -2403,7 +2657,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>1921849</v>
       </c>
       <c r="C39">
@@ -2426,7 +2680,7 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>2016421</v>
       </c>
       <c r="C40">
@@ -2449,7 +2703,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>1768228</v>
       </c>
       <c r="C41">
@@ -2472,7 +2726,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>2072674</v>
       </c>
       <c r="C42">
@@ -2495,7 +2749,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>2209472</v>
       </c>
       <c r="C43">
@@ -2518,7 +2772,7 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>2074840</v>
       </c>
       <c r="C44">
@@ -2538,14 +2792,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+      <c r="B45" s="1"/>
       <c r="F45"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>1690696</v>
       </c>
       <c r="C46">
@@ -2568,7 +2822,7 @@
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>1796318</v>
       </c>
       <c r="C47">
@@ -2591,7 +2845,7 @@
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>1640483</v>
       </c>
       <c r="C48">
@@ -2614,7 +2868,7 @@
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>1874722</v>
       </c>
       <c r="C49">
@@ -2637,7 +2891,7 @@
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>1800866</v>
       </c>
       <c r="C50">
@@ -2660,7 +2914,7 @@
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>2157888</v>
       </c>
       <c r="C51">
@@ -2683,7 +2937,7 @@
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>2177738</v>
       </c>
       <c r="C52">
@@ -2706,7 +2960,7 @@
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>1899645</v>
       </c>
       <c r="C53">
@@ -2729,7 +2983,7 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>2447674</v>
       </c>
       <c r="C54">
@@ -2749,14 +3003,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+      <c r="B55" s="1"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>1523387</v>
       </c>
       <c r="C56">
@@ -2779,7 +3033,7 @@
       <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>1554357</v>
       </c>
       <c r="C57">
@@ -2802,7 +3056,7 @@
       <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>1576844</v>
       </c>
       <c r="C58">
@@ -2825,7 +3079,7 @@
       <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>1748661</v>
       </c>
       <c r="C59">
@@ -2848,7 +3102,7 @@
       <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>1757654</v>
       </c>
       <c r="C60">
@@ -2871,7 +3125,7 @@
       <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>1861782</v>
       </c>
       <c r="C61">
@@ -2894,7 +3148,7 @@
       <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>1875139</v>
       </c>
       <c r="C62">
@@ -2917,7 +3171,7 @@
       <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>1899472</v>
       </c>
       <c r="C63">
@@ -2940,7 +3194,7 @@
       <c r="A64" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>1940472</v>
       </c>
       <c r="C64">
@@ -2960,14 +3214,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
+      <c r="B65" s="1"/>
       <c r="F65"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>819154</v>
       </c>
       <c r="C66">
@@ -2990,7 +3244,7 @@
       <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>1043003</v>
       </c>
       <c r="C67">
@@ -3013,7 +3267,7 @@
       <c r="A68" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>893419</v>
       </c>
       <c r="C68">
@@ -3036,7 +3290,7 @@
       <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>858329</v>
       </c>
       <c r="C69">
@@ -3059,7 +3313,7 @@
       <c r="A70" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>876933</v>
       </c>
       <c r="C70">
@@ -3082,7 +3336,7 @@
       <c r="A71" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>867943</v>
       </c>
       <c r="C71">
@@ -3105,7 +3359,7 @@
       <c r="A72" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>1053505</v>
       </c>
       <c r="C72">
@@ -3128,7 +3382,7 @@
       <c r="A73" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>872993</v>
       </c>
       <c r="C73">
@@ -3148,14 +3402,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
+      <c r="B74" s="1"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>982282</v>
       </c>
       <c r="C75">
@@ -3178,7 +3432,7 @@
       <c r="A76" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>1005587</v>
       </c>
       <c r="C76">
@@ -3201,7 +3455,7 @@
       <c r="A77" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>912344</v>
       </c>
       <c r="C77">
@@ -3224,7 +3478,7 @@
       <c r="A78" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>1135083</v>
       </c>
       <c r="C78">
@@ -3247,7 +3501,7 @@
       <c r="A79" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>918989</v>
       </c>
       <c r="C79">
@@ -3270,7 +3524,7 @@
       <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>1019747</v>
       </c>
       <c r="C80">
@@ -3293,7 +3547,7 @@
       <c r="A81" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>871361</v>
       </c>
       <c r="C81">
@@ -3316,7 +3570,7 @@
       <c r="A82" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>945137</v>
       </c>
       <c r="C82">
@@ -3339,7 +3593,7 @@
       <c r="A83" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>840004</v>
       </c>
       <c r="C83">
@@ -3362,7 +3616,7 @@
       <c r="A84" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>928235</v>
       </c>
       <c r="C84">
@@ -3382,14 +3636,14 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
+      <c r="B85" s="1"/>
       <c r="F85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>904539</v>
       </c>
       <c r="C86">
@@ -3412,7 +3666,7 @@
       <c r="A87" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>902119</v>
       </c>
       <c r="C87">
@@ -3435,7 +3689,7 @@
       <c r="A88" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>1001931</v>
       </c>
       <c r="C88">
@@ -3458,7 +3712,7 @@
       <c r="A89" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>898217</v>
       </c>
       <c r="C89">
@@ -3481,7 +3735,7 @@
       <c r="A90" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>863704</v>
       </c>
       <c r="C90">
@@ -3504,7 +3758,7 @@
       <c r="A91" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>898399</v>
       </c>
       <c r="C91">
@@ -3527,7 +3781,7 @@
       <c r="A92" t="s">
         <v>86</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>934139</v>
       </c>
       <c r="C92">
@@ -3550,7 +3804,7 @@
       <c r="A93" t="s">
         <v>87</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>881706</v>
       </c>
       <c r="C93">
@@ -3573,7 +3827,7 @@
       <c r="A94" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>942333</v>
       </c>
       <c r="C94">
@@ -3593,1058 +3847,963 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="2">
-        <v>2340255</v>
-      </c>
-      <c r="C95">
-        <v>1143</v>
-      </c>
-      <c r="D95">
-        <v>43343541</v>
-      </c>
-      <c r="E95">
-        <v>1777</v>
-      </c>
-      <c r="F95">
-        <v>23577221</v>
-      </c>
-      <c r="G95">
-        <v>1430</v>
-      </c>
+      <c r="B95" s="1"/>
+      <c r="F95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>90</v>
-      </c>
-      <c r="B96" s="2">
-        <v>2454142</v>
+        <v>89</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2340255</v>
       </c>
       <c r="C96">
-        <v>2099</v>
+        <v>1143</v>
       </c>
       <c r="D96">
-        <v>52156705</v>
+        <v>43343541</v>
       </c>
       <c r="E96">
-        <v>2984</v>
+        <v>1777</v>
       </c>
       <c r="F96">
-        <v>32651504</v>
+        <v>23577221</v>
       </c>
       <c r="G96">
-        <v>2409</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="2">
-        <v>3026143</v>
+        <v>90</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2454142</v>
       </c>
       <c r="C97">
-        <v>4520</v>
+        <v>2099</v>
       </c>
       <c r="D97">
-        <v>66665654</v>
+        <v>52156705</v>
       </c>
       <c r="E97">
-        <v>6029</v>
+        <v>2984</v>
       </c>
       <c r="F97">
-        <v>39672468</v>
+        <v>32651504</v>
       </c>
       <c r="G97">
-        <v>5199</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="2">
-        <v>3080946</v>
+        <v>91</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3026143</v>
       </c>
       <c r="C98">
-        <v>5290</v>
+        <v>4520</v>
       </c>
       <c r="D98">
-        <v>70428372</v>
+        <v>66665654</v>
       </c>
       <c r="E98">
-        <v>6791</v>
+        <v>6029</v>
       </c>
       <c r="F98">
-        <v>41700983</v>
+        <v>39672468</v>
       </c>
       <c r="G98">
-        <v>5971</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="2">
-        <v>2983333</v>
+        <v>92</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3080946</v>
       </c>
       <c r="C99">
-        <v>6081</v>
+        <v>5290</v>
       </c>
       <c r="D99">
-        <v>78049061</v>
+        <v>70428372</v>
       </c>
       <c r="E99">
-        <v>8092</v>
+        <v>6791</v>
       </c>
       <c r="F99">
-        <v>49599534</v>
+        <v>41700983</v>
       </c>
       <c r="G99">
-        <v>7186</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="2">
-        <v>3209562</v>
+        <v>93</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2983333</v>
       </c>
       <c r="C100">
-        <v>6749</v>
+        <v>6081</v>
       </c>
       <c r="D100">
-        <v>86934008</v>
+        <v>78049061</v>
       </c>
       <c r="E100">
-        <v>9156</v>
+        <v>8092</v>
       </c>
       <c r="F100">
-        <v>60741378</v>
+        <v>49599534</v>
       </c>
       <c r="G100">
-        <v>8679</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
-      </c>
-      <c r="B101" s="2">
-        <v>3074724</v>
+        <v>94</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3209562</v>
       </c>
       <c r="C101">
-        <v>7842</v>
+        <v>6749</v>
       </c>
       <c r="D101">
-        <v>91091803</v>
+        <v>86934008</v>
       </c>
       <c r="E101">
-        <v>9984</v>
+        <v>9156</v>
       </c>
       <c r="F101">
-        <v>48568084</v>
+        <v>60741378</v>
       </c>
       <c r="G101">
-        <v>9112</v>
+        <v>8679</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="2">
-        <v>3619971</v>
+        <v>95</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3074724</v>
       </c>
       <c r="C102">
-        <v>9641</v>
+        <v>7842</v>
       </c>
       <c r="D102">
-        <v>105653745</v>
+        <v>91091803</v>
       </c>
       <c r="E102">
-        <v>11835</v>
+        <v>9984</v>
       </c>
       <c r="F102">
-        <v>49971358</v>
+        <v>48568084</v>
       </c>
       <c r="G102">
-        <v>10788</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" s="2">
-        <v>4238378</v>
+        <v>96</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3619971</v>
       </c>
       <c r="C103">
-        <v>9655</v>
+        <v>9641</v>
       </c>
       <c r="D103">
-        <v>106497303</v>
+        <v>105653745</v>
       </c>
       <c r="E103">
-        <v>11849</v>
+        <v>11835</v>
       </c>
       <c r="F103">
-        <v>72741850</v>
+        <v>49971358</v>
       </c>
       <c r="G103">
-        <v>11184</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
-      </c>
-      <c r="B104" s="2">
-        <v>2285632</v>
+        <v>97</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4238378</v>
       </c>
       <c r="C104">
-        <v>114</v>
+        <v>9655</v>
       </c>
       <c r="D104">
-        <v>13055578</v>
+        <v>106497303</v>
       </c>
       <c r="E104">
-        <v>172</v>
+        <v>11849</v>
       </c>
       <c r="F104">
-        <v>37218313</v>
+        <v>72741850</v>
       </c>
       <c r="G104">
-        <v>158</v>
+        <v>11184</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="2">
-        <v>2345441</v>
-      </c>
-      <c r="C105">
-        <v>188</v>
-      </c>
-      <c r="D105">
-        <v>24682879</v>
-      </c>
-      <c r="E105">
-        <v>309</v>
-      </c>
-      <c r="F105">
-        <v>33155893</v>
-      </c>
-      <c r="G105">
-        <v>255</v>
-      </c>
+      <c r="B105" s="1"/>
+      <c r="F105"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="2">
-        <v>2591269</v>
+        <v>98</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2285632</v>
       </c>
       <c r="C106">
-        <v>318</v>
+        <v>114</v>
       </c>
       <c r="D106">
-        <v>31158457</v>
+        <v>13055578</v>
       </c>
       <c r="E106">
-        <v>426</v>
+        <v>172</v>
       </c>
       <c r="F106">
-        <v>35542929</v>
+        <v>37218313</v>
       </c>
       <c r="G106">
-        <v>363</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
-      </c>
-      <c r="B107" s="2">
-        <v>2679304</v>
+        <v>99</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2345441</v>
       </c>
       <c r="C107">
-        <v>405</v>
+        <v>188</v>
       </c>
       <c r="D107">
-        <v>44812414</v>
+        <v>24682879</v>
       </c>
       <c r="E107">
-        <v>597</v>
+        <v>309</v>
       </c>
       <c r="F107">
-        <v>47066241</v>
+        <v>33155893</v>
       </c>
       <c r="G107">
-        <v>521</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="2">
-        <v>2757463</v>
+        <v>100</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2591269</v>
       </c>
       <c r="C108">
-        <v>520</v>
+        <v>318</v>
       </c>
       <c r="D108">
-        <v>50176659</v>
+        <v>31158457</v>
       </c>
       <c r="E108">
-        <v>675</v>
+        <v>426</v>
       </c>
       <c r="F108">
-        <v>42299166</v>
+        <v>35542929</v>
       </c>
       <c r="G108">
-        <v>610</v>
+        <v>363</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" s="2">
-        <v>2869093</v>
+        <v>101</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2679304</v>
       </c>
       <c r="C109">
-        <v>601</v>
+        <v>405</v>
       </c>
       <c r="D109">
-        <v>46458578</v>
+        <v>44812414</v>
       </c>
       <c r="E109">
-        <v>794</v>
+        <v>597</v>
       </c>
       <c r="F109">
-        <v>44501075</v>
+        <v>47066241</v>
       </c>
       <c r="G109">
-        <v>711</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
-      </c>
-      <c r="B110" s="2">
-        <v>3189319</v>
+        <v>102</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2757463</v>
       </c>
       <c r="C110">
-        <v>765</v>
+        <v>520</v>
       </c>
       <c r="D110">
-        <v>48283195</v>
+        <v>50176659</v>
       </c>
       <c r="E110">
-        <v>918</v>
+        <v>675</v>
       </c>
       <c r="F110">
-        <v>51735652</v>
+        <v>42299166</v>
       </c>
       <c r="G110">
-        <v>869</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>105</v>
-      </c>
-      <c r="B111" s="2">
-        <v>3308638</v>
+        <v>103</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2869093</v>
       </c>
       <c r="C111">
-        <v>849</v>
+        <v>601</v>
       </c>
       <c r="D111">
-        <v>50863754</v>
+        <v>46458578</v>
       </c>
       <c r="E111">
-        <v>1065</v>
+        <v>794</v>
       </c>
       <c r="F111">
-        <v>50103657</v>
+        <v>44501075</v>
       </c>
       <c r="G111">
-        <v>1015</v>
+        <v>711</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
-      </c>
-      <c r="B112" s="2">
-        <v>3396084</v>
+        <v>104</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3189319</v>
       </c>
       <c r="C112">
-        <v>892</v>
+        <v>765</v>
       </c>
       <c r="D112">
-        <v>54603310</v>
+        <v>48283195</v>
       </c>
       <c r="E112">
-        <v>1122</v>
+        <v>918</v>
       </c>
       <c r="F112">
-        <v>59853013</v>
+        <v>51735652</v>
       </c>
       <c r="G112">
-        <v>1045</v>
+        <v>869</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
-      </c>
-      <c r="B113" s="2">
-        <v>3763315</v>
+        <v>105</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3308638</v>
       </c>
       <c r="C113">
-        <v>1097</v>
+        <v>849</v>
       </c>
       <c r="D113">
-        <v>54453074</v>
+        <v>50863754</v>
       </c>
       <c r="E113">
-        <v>1332</v>
+        <v>1065</v>
       </c>
       <c r="F113">
-        <v>53032098</v>
+        <v>50103657</v>
       </c>
       <c r="G113">
-        <v>1238</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>108</v>
-      </c>
-      <c r="B114" s="2">
-        <v>2093718</v>
+        <v>106</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3396084</v>
       </c>
       <c r="C114">
-        <v>14</v>
+        <v>892</v>
       </c>
       <c r="D114">
-        <v>1470720</v>
+        <v>54603310</v>
       </c>
       <c r="E114">
-        <v>19</v>
+        <v>1122</v>
       </c>
       <c r="F114">
-        <v>20544730</v>
+        <v>59853013</v>
       </c>
       <c r="G114">
-        <v>16</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>109</v>
-      </c>
-      <c r="B115" s="2">
-        <v>2248388</v>
+        <v>107</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3763315</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>1097</v>
       </c>
       <c r="D115">
-        <v>2343780</v>
+        <v>54453074</v>
       </c>
       <c r="E115">
-        <v>35</v>
+        <v>1332</v>
       </c>
       <c r="F115">
-        <v>27989884</v>
+        <v>53032098</v>
       </c>
       <c r="G115">
-        <v>30</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>110</v>
-      </c>
-      <c r="B116" s="2">
-        <v>2364389</v>
-      </c>
-      <c r="C116">
-        <v>29</v>
-      </c>
-      <c r="D116">
-        <v>3426865</v>
-      </c>
-      <c r="E116">
-        <v>51</v>
-      </c>
-      <c r="F116">
-        <v>27455631</v>
-      </c>
-      <c r="G116">
-        <v>40</v>
-      </c>
+      <c r="B116" s="1"/>
+      <c r="F116"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>111</v>
-      </c>
-      <c r="B117" s="2">
-        <v>2465153</v>
+        <v>108</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2093718</v>
       </c>
       <c r="C117">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D117">
-        <v>4489216</v>
+        <v>1470720</v>
       </c>
       <c r="E117">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F117">
-        <v>35127705</v>
+        <v>20544730</v>
       </c>
       <c r="G117">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" s="2">
-        <v>2631601</v>
+        <v>109</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2248388</v>
       </c>
       <c r="C118">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D118">
-        <v>10848382</v>
+        <v>2343780</v>
       </c>
       <c r="E118">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F118">
-        <v>34705905</v>
+        <v>27989884</v>
       </c>
       <c r="G118">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="2">
-        <v>2876250</v>
+        <v>110</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2364389</v>
       </c>
       <c r="C119">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D119">
-        <v>11553692</v>
+        <v>3426865</v>
       </c>
       <c r="E119">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F119">
-        <v>40370154</v>
+        <v>27455631</v>
       </c>
       <c r="G119">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" s="2">
-        <v>2906844</v>
+        <v>111</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2465153</v>
       </c>
       <c r="C120">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D120">
-        <v>12574298</v>
+        <v>4489216</v>
       </c>
       <c r="E120">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F120">
-        <v>40896893</v>
+        <v>35127705</v>
       </c>
       <c r="G120">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" s="2">
-        <v>3098830</v>
+        <v>112</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2631601</v>
       </c>
       <c r="C121">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D121">
-        <v>13900315</v>
+        <v>10848382</v>
       </c>
       <c r="E121">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F121">
-        <v>50412224</v>
+        <v>34705905</v>
       </c>
       <c r="G121">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
-      </c>
-      <c r="B122" s="2">
-        <v>3097273</v>
+        <v>113</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2876250</v>
       </c>
       <c r="C122">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D122">
-        <v>15616896</v>
+        <v>11553692</v>
       </c>
       <c r="E122">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F122">
-        <v>50202929</v>
+        <v>40370154</v>
       </c>
       <c r="G122">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" s="2">
-        <v>3466576</v>
+        <v>114</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2906844</v>
       </c>
       <c r="C123">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D123">
-        <v>16558149</v>
+        <v>12574298</v>
       </c>
       <c r="E123">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="F123">
-        <v>57616203</v>
+        <v>40896893</v>
       </c>
       <c r="G123">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="2">
-        <v>992113</v>
+        <v>115</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3098830</v>
       </c>
       <c r="C124">
-        <v>795</v>
+        <v>96</v>
       </c>
       <c r="D124">
-        <v>12206694</v>
+        <v>13900315</v>
       </c>
       <c r="E124">
-        <v>1115</v>
+        <v>119</v>
       </c>
       <c r="F124">
-        <v>2618288</v>
+        <v>50412224</v>
       </c>
       <c r="G124">
-        <v>802</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" s="2">
-        <v>1032359</v>
+        <v>116</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3097273</v>
       </c>
       <c r="C125">
-        <v>861</v>
+        <v>109</v>
       </c>
       <c r="D125">
-        <v>12403106</v>
+        <v>15616896</v>
       </c>
       <c r="E125">
-        <v>1177</v>
+        <v>138</v>
       </c>
       <c r="F125">
-        <v>3025915</v>
+        <v>50202929</v>
       </c>
       <c r="G125">
-        <v>1052</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>120</v>
-      </c>
-      <c r="B126" s="2">
-        <v>1005552</v>
+        <v>117</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3466576</v>
       </c>
       <c r="C126">
-        <v>900</v>
+        <v>109</v>
       </c>
       <c r="D126">
-        <v>12813298</v>
+        <v>16558149</v>
       </c>
       <c r="E126">
-        <v>1311</v>
+        <v>142</v>
       </c>
       <c r="F126">
-        <v>3028778</v>
+        <v>57616203</v>
       </c>
       <c r="G126">
-        <v>1186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>121</v>
-      </c>
-      <c r="B127" s="2">
-        <v>925473</v>
-      </c>
-      <c r="C127">
-        <v>1023</v>
-      </c>
-      <c r="D127">
-        <v>12680379</v>
-      </c>
-      <c r="E127">
-        <v>1349</v>
-      </c>
-      <c r="F127">
-        <v>2633093</v>
-      </c>
-      <c r="G127">
-        <v>1203</v>
-      </c>
+      <c r="B127" s="1"/>
+      <c r="F127"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>122</v>
-      </c>
-      <c r="B128" s="2">
-        <v>1030686</v>
+        <v>118</v>
+      </c>
+      <c r="B128" s="1">
+        <v>992113</v>
       </c>
       <c r="C128">
-        <v>1095</v>
+        <v>795</v>
       </c>
       <c r="D128">
-        <v>12417187</v>
+        <v>12206694</v>
       </c>
       <c r="E128">
-        <v>1229</v>
+        <v>1115</v>
       </c>
       <c r="F128">
-        <v>2827541</v>
+        <v>2618288</v>
       </c>
       <c r="G128">
-        <v>1137</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>123</v>
-      </c>
-      <c r="B129" s="2">
-        <v>985781</v>
+        <v>119</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1032359</v>
       </c>
       <c r="C129">
-        <v>974</v>
+        <v>861</v>
       </c>
       <c r="D129">
-        <v>12523279</v>
+        <v>12403106</v>
       </c>
       <c r="E129">
-        <v>1228</v>
+        <v>1177</v>
       </c>
       <c r="F129">
-        <v>1924471</v>
+        <v>3025915</v>
       </c>
       <c r="G129">
-        <v>1228</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="2">
-        <v>1175586</v>
+        <v>120</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1005552</v>
       </c>
       <c r="C130">
-        <v>848</v>
+        <v>900</v>
       </c>
       <c r="D130">
-        <v>13243346</v>
+        <v>12813298</v>
       </c>
       <c r="E130">
-        <v>1181</v>
+        <v>1311</v>
       </c>
       <c r="F130">
-        <v>4841037</v>
+        <v>3028778</v>
       </c>
       <c r="G130">
-        <v>1130</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>125</v>
-      </c>
-      <c r="B131" s="2">
-        <v>915758</v>
+        <v>121</v>
+      </c>
+      <c r="B131" s="1">
+        <v>925473</v>
       </c>
       <c r="C131">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="D131">
-        <v>12993862</v>
+        <v>12680379</v>
       </c>
       <c r="E131">
-        <v>1273</v>
+        <v>1349</v>
       </c>
       <c r="F131">
-        <v>2703958</v>
+        <v>2633093</v>
       </c>
       <c r="G131">
-        <v>1107</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>126</v>
-      </c>
-      <c r="B132" s="2">
-        <v>955968</v>
+        <v>122</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1030686</v>
       </c>
       <c r="C132">
-        <v>1172</v>
+        <v>1095</v>
       </c>
       <c r="D132">
-        <v>13478173</v>
+        <v>12417187</v>
       </c>
       <c r="E132">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="F132">
-        <v>3567050</v>
+        <v>2827541</v>
       </c>
       <c r="G132">
-        <v>1071</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>127</v>
-      </c>
-      <c r="B133" s="2">
-        <v>1032924</v>
+        <v>123</v>
+      </c>
+      <c r="B133" s="1">
+        <v>985781</v>
       </c>
       <c r="C133">
-        <v>107</v>
+        <v>974</v>
       </c>
       <c r="D133">
-        <v>1232895</v>
+        <v>12523279</v>
       </c>
       <c r="E133">
-        <v>123</v>
+        <v>1228</v>
       </c>
       <c r="F133">
-        <v>3232644</v>
+        <v>1924471</v>
       </c>
       <c r="G133">
-        <v>119</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>128</v>
-      </c>
-      <c r="B134" s="2">
-        <v>965098</v>
+        <v>124</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1175586</v>
       </c>
       <c r="C134">
-        <v>103</v>
+        <v>848</v>
       </c>
       <c r="D134">
-        <v>1231795</v>
+        <v>13243346</v>
       </c>
       <c r="E134">
-        <v>117</v>
+        <v>1181</v>
       </c>
       <c r="F134">
-        <v>2782058</v>
+        <v>4841037</v>
       </c>
       <c r="G134">
-        <v>117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>129</v>
-      </c>
-      <c r="B135" s="2">
-        <v>1073940</v>
+        <v>125</v>
+      </c>
+      <c r="B135" s="1">
+        <v>915758</v>
       </c>
       <c r="C135">
-        <v>110</v>
+        <v>1036</v>
       </c>
       <c r="D135">
-        <v>1289425</v>
+        <v>12993862</v>
       </c>
       <c r="E135">
-        <v>123</v>
+        <v>1273</v>
       </c>
       <c r="F135">
-        <v>3127104</v>
+        <v>2703958</v>
       </c>
       <c r="G135">
-        <v>105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>130</v>
-      </c>
-      <c r="B136" s="2">
-        <v>986794</v>
+        <v>126</v>
+      </c>
+      <c r="B136" s="1">
+        <v>955968</v>
       </c>
       <c r="C136">
-        <v>98</v>
+        <v>1172</v>
       </c>
       <c r="D136">
-        <v>1265616</v>
+        <v>13478173</v>
       </c>
       <c r="E136">
-        <v>113</v>
+        <v>1257</v>
       </c>
       <c r="F136">
-        <v>2906524</v>
+        <v>3567050</v>
       </c>
       <c r="G136">
-        <v>108</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>131</v>
-      </c>
-      <c r="B137" s="2">
-        <v>1132088</v>
-      </c>
-      <c r="C137">
-        <v>97</v>
-      </c>
-      <c r="D137">
-        <v>1231971</v>
-      </c>
-      <c r="E137">
-        <v>112</v>
-      </c>
-      <c r="F137">
-        <v>3061236</v>
-      </c>
-      <c r="G137">
-        <v>104</v>
-      </c>
+      <c r="B137" s="1"/>
+      <c r="F137"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" s="2">
-        <v>943577</v>
+        <v>127</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1032924</v>
       </c>
       <c r="C138">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D138">
-        <v>1233474</v>
+        <v>1232895</v>
       </c>
       <c r="E138">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F138">
-        <v>2352538</v>
+        <v>3232644</v>
       </c>
       <c r="G138">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="2">
-        <v>961246</v>
+        <v>128</v>
+      </c>
+      <c r="B139" s="1">
+        <v>965098</v>
       </c>
       <c r="C139">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D139">
-        <v>1379722</v>
+        <v>1231795</v>
       </c>
       <c r="E139">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F139">
-        <v>3000891</v>
+        <v>2782058</v>
       </c>
       <c r="G139">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="2">
-        <v>1065221</v>
+        <v>129</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1073940</v>
       </c>
       <c r="C140">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D140">
-        <v>1199736</v>
+        <v>1289425</v>
       </c>
       <c r="E140">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F140">
-        <v>3163542</v>
+        <v>3127104</v>
       </c>
       <c r="G140">
         <v>105</v>
@@ -4652,1672 +4811,1941 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>135</v>
-      </c>
-      <c r="B141" s="2">
-        <v>907495</v>
+        <v>130</v>
+      </c>
+      <c r="B141" s="1">
+        <v>986794</v>
       </c>
       <c r="C141">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D141">
-        <v>1310771</v>
+        <v>1265616</v>
       </c>
       <c r="E141">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F141">
-        <v>1975698</v>
+        <v>2906524</v>
       </c>
       <c r="G141">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>136</v>
-      </c>
-      <c r="B142" s="2">
-        <v>1015824</v>
+        <v>131</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1132088</v>
       </c>
       <c r="C142">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D142">
-        <v>1296058</v>
+        <v>1231971</v>
       </c>
       <c r="E142">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F142">
-        <v>2793919</v>
+        <v>3061236</v>
       </c>
       <c r="G142">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>137</v>
-      </c>
-      <c r="B143" s="2">
-        <v>900703</v>
+        <v>132</v>
+      </c>
+      <c r="B143" s="1">
+        <v>943577</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D143">
-        <v>658337</v>
+        <v>1233474</v>
       </c>
       <c r="E143">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F143">
-        <v>3025583</v>
+        <v>2352538</v>
       </c>
       <c r="G143">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>138</v>
-      </c>
-      <c r="B144" s="2">
-        <v>908151</v>
+        <v>133</v>
+      </c>
+      <c r="B144" s="1">
+        <v>961246</v>
       </c>
       <c r="C144">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D144">
-        <v>697893</v>
+        <v>1379722</v>
       </c>
       <c r="E144">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F144">
-        <v>2098168</v>
+        <v>3000891</v>
       </c>
       <c r="G144">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>139</v>
-      </c>
-      <c r="B145" s="2">
-        <v>957322</v>
+        <v>134</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1065221</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D145">
-        <v>663439</v>
+        <v>1199736</v>
       </c>
       <c r="E145">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F145">
-        <v>3079280</v>
+        <v>3163542</v>
       </c>
       <c r="G145">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>140</v>
-      </c>
-      <c r="B146" s="2">
-        <v>973017</v>
+        <v>135</v>
+      </c>
+      <c r="B146" s="1">
+        <v>907495</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="D146">
-        <v>654569</v>
+        <v>1310771</v>
       </c>
       <c r="E146">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="F146">
-        <v>2699926</v>
+        <v>1975698</v>
       </c>
       <c r="G146">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>141</v>
-      </c>
-      <c r="B147" s="2">
-        <v>981731</v>
+        <v>136</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1015824</v>
       </c>
       <c r="C147">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D147">
-        <v>660930</v>
+        <v>1296058</v>
       </c>
       <c r="E147">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="F147">
-        <v>2951222</v>
+        <v>2793919</v>
       </c>
       <c r="G147">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>142</v>
-      </c>
-      <c r="B148" s="2">
-        <v>935169</v>
-      </c>
-      <c r="C148">
-        <v>13</v>
-      </c>
-      <c r="D148">
-        <v>672519</v>
-      </c>
-      <c r="E148">
-        <v>15</v>
-      </c>
-      <c r="F148">
-        <v>3238462</v>
-      </c>
-      <c r="G148">
-        <v>14</v>
-      </c>
+      <c r="B148" s="1"/>
+      <c r="F148"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>143</v>
-      </c>
-      <c r="B149" s="2">
-        <v>957885</v>
+        <v>137</v>
+      </c>
+      <c r="B149" s="1">
+        <v>900703</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D149">
-        <v>654936</v>
+        <v>658337</v>
       </c>
       <c r="E149">
         <v>14</v>
       </c>
       <c r="F149">
-        <v>3117104</v>
+        <v>3025583</v>
       </c>
       <c r="G149">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>144</v>
-      </c>
-      <c r="B150" s="2">
-        <v>909574</v>
+        <v>138</v>
+      </c>
+      <c r="B150" s="1">
+        <v>908151</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D150">
-        <v>657801</v>
+        <v>697893</v>
       </c>
       <c r="E150">
+        <v>14</v>
+      </c>
+      <c r="F150">
+        <v>2098168</v>
+      </c>
+      <c r="G150">
         <v>13</v>
-      </c>
-      <c r="F150">
-        <v>1966460</v>
-      </c>
-      <c r="G150">
-        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>145</v>
-      </c>
-      <c r="B151" s="2">
-        <v>970722</v>
+        <v>139</v>
+      </c>
+      <c r="B151" s="1">
+        <v>957322</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151">
-        <v>675073</v>
+        <v>663439</v>
       </c>
       <c r="E151">
         <v>14</v>
       </c>
       <c r="F151">
-        <v>2727665</v>
+        <v>3079280</v>
       </c>
       <c r="G151">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>146</v>
-      </c>
-      <c r="B152" s="2">
-        <v>956899</v>
+        <v>140</v>
+      </c>
+      <c r="B152" s="1">
+        <v>973017</v>
       </c>
       <c r="C152">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <v>658275</v>
+        <v>654569</v>
       </c>
       <c r="E152">
         <v>13</v>
       </c>
       <c r="F152">
-        <v>3169533</v>
+        <v>2699926</v>
       </c>
       <c r="G152">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>147</v>
-      </c>
-      <c r="B153" s="2">
-        <v>7480606</v>
+        <v>141</v>
+      </c>
+      <c r="B153" s="1">
+        <v>981731</v>
       </c>
       <c r="C153">
-        <v>2929</v>
+        <v>12</v>
       </c>
       <c r="D153">
-        <v>86246046</v>
+        <v>660930</v>
       </c>
       <c r="E153">
-        <v>4533</v>
+        <v>15</v>
       </c>
       <c r="F153">
-        <v>68858179</v>
+        <v>2951222</v>
       </c>
       <c r="G153">
-        <v>3471</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>148</v>
-      </c>
-      <c r="B154" s="2">
-        <v>8518938</v>
+        <v>142</v>
+      </c>
+      <c r="B154" s="1">
+        <v>935169</v>
       </c>
       <c r="C154">
-        <v>5325</v>
+        <v>13</v>
       </c>
       <c r="D154">
-        <v>136973238</v>
+        <v>672519</v>
       </c>
       <c r="E154">
-        <v>8076</v>
+        <v>15</v>
       </c>
       <c r="F154">
-        <v>78735146</v>
+        <v>3238462</v>
       </c>
       <c r="G154">
-        <v>6530</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>149</v>
-      </c>
-      <c r="B155" s="2">
-        <v>8701398</v>
+        <v>143</v>
+      </c>
+      <c r="B155" s="1">
+        <v>957885</v>
       </c>
       <c r="C155">
-        <v>7687</v>
+        <v>12</v>
       </c>
       <c r="D155">
-        <v>177065494</v>
+        <v>654936</v>
       </c>
       <c r="E155">
-        <v>10809</v>
+        <v>14</v>
       </c>
       <c r="F155">
-        <v>93839113</v>
+        <v>3117104</v>
       </c>
       <c r="G155">
-        <v>9046</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>150</v>
-      </c>
-      <c r="B156" s="2">
-        <v>10271026</v>
+        <v>144</v>
+      </c>
+      <c r="B156" s="1">
+        <v>909574</v>
       </c>
       <c r="C156">
-        <v>10186</v>
+        <v>10</v>
       </c>
       <c r="D156">
-        <v>230539766</v>
+        <v>657801</v>
       </c>
       <c r="E156">
-        <v>14507</v>
+        <v>13</v>
       </c>
       <c r="F156">
-        <v>92264438</v>
+        <v>1966460</v>
       </c>
       <c r="G156">
-        <v>12130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>151</v>
-      </c>
-      <c r="B157" s="2">
-        <v>11985355</v>
+        <v>145</v>
+      </c>
+      <c r="B157" s="1">
+        <v>970722</v>
       </c>
       <c r="C157">
-        <v>12503</v>
+        <v>9</v>
       </c>
       <c r="D157">
-        <v>269055743</v>
+        <v>675073</v>
       </c>
       <c r="E157">
-        <v>16744</v>
+        <v>14</v>
       </c>
       <c r="F157">
-        <v>122713942</v>
+        <v>2727665</v>
       </c>
       <c r="G157">
-        <v>14652</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="2">
-        <v>12052427</v>
+        <v>146</v>
+      </c>
+      <c r="B158" s="1">
+        <v>956899</v>
       </c>
       <c r="C158">
-        <v>15787</v>
+        <v>13</v>
       </c>
       <c r="D158">
-        <v>353489609</v>
+        <v>658275</v>
       </c>
       <c r="E158">
-        <v>19794</v>
+        <v>13</v>
       </c>
       <c r="F158">
-        <v>132429422</v>
+        <v>3169533</v>
       </c>
       <c r="G158">
-        <v>17779</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>153</v>
-      </c>
-      <c r="B159" s="2">
-        <v>15005062</v>
-      </c>
-      <c r="C159">
-        <v>17246</v>
-      </c>
-      <c r="D159">
-        <v>395191276</v>
-      </c>
-      <c r="E159">
-        <v>22638</v>
-      </c>
-      <c r="F159">
-        <v>134734232</v>
-      </c>
-      <c r="G159">
-        <v>20608</v>
-      </c>
+      <c r="B159" s="1"/>
+      <c r="F159"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>154</v>
-      </c>
-      <c r="B160" s="2">
-        <v>14940547</v>
+        <v>147</v>
+      </c>
+      <c r="B160" s="1">
+        <v>7480606</v>
       </c>
       <c r="C160">
-        <v>19351</v>
+        <v>2929</v>
       </c>
       <c r="D160">
-        <v>433726793</v>
+        <v>86246046</v>
       </c>
       <c r="E160">
-        <v>24306</v>
+        <v>4533</v>
       </c>
       <c r="F160">
-        <v>141368316</v>
+        <v>68858179</v>
       </c>
       <c r="G160">
-        <v>22788</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>155</v>
-      </c>
-      <c r="B161" s="2">
-        <v>16214932</v>
+        <v>148</v>
+      </c>
+      <c r="B161" s="1">
+        <v>8518938</v>
       </c>
       <c r="C161">
-        <v>22236</v>
+        <v>5325</v>
       </c>
       <c r="D161">
-        <v>492509544</v>
+        <v>136973238</v>
       </c>
       <c r="E161">
-        <v>28529</v>
+        <v>8076</v>
       </c>
       <c r="F161">
-        <v>143918340</v>
+        <v>78735146</v>
       </c>
       <c r="G161">
-        <v>26757</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>156</v>
-      </c>
-      <c r="B162" s="2">
-        <v>16482182</v>
+        <v>149</v>
+      </c>
+      <c r="B162" s="1">
+        <v>8701398</v>
       </c>
       <c r="C162">
-        <v>24268</v>
+        <v>7687</v>
       </c>
       <c r="D162">
-        <v>522152025</v>
+        <v>177065494</v>
       </c>
       <c r="E162">
-        <v>30336</v>
+        <v>10809</v>
       </c>
       <c r="F162">
-        <v>140526592</v>
+        <v>93839113</v>
       </c>
       <c r="G162">
-        <v>28637</v>
+        <v>9046</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>157</v>
-      </c>
-      <c r="B163" s="2">
-        <v>5863756</v>
+        <v>150</v>
+      </c>
+      <c r="B163" s="1">
+        <v>10271026</v>
       </c>
       <c r="C163">
-        <v>269</v>
+        <v>10186</v>
       </c>
       <c r="D163">
-        <v>39854681</v>
+        <v>230539766</v>
       </c>
       <c r="E163">
-        <v>435</v>
+        <v>14507</v>
       </c>
       <c r="F163">
-        <v>69505988</v>
+        <v>92264438</v>
       </c>
       <c r="G163">
-        <v>333</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>158</v>
-      </c>
-      <c r="B164" s="2">
-        <v>7646075</v>
+        <v>151</v>
+      </c>
+      <c r="B164" s="1">
+        <v>11985355</v>
       </c>
       <c r="C164">
-        <v>543</v>
+        <v>12503</v>
       </c>
       <c r="D164">
-        <v>46979133</v>
+        <v>269055743</v>
       </c>
       <c r="E164">
-        <v>793</v>
+        <v>16744</v>
       </c>
       <c r="F164">
-        <v>76992597</v>
+        <v>122713942</v>
       </c>
       <c r="G164">
-        <v>633</v>
+        <v>14652</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>159</v>
-      </c>
-      <c r="B165" s="2">
-        <v>7725229</v>
+        <v>152</v>
+      </c>
+      <c r="B165" s="1">
+        <v>12052427</v>
       </c>
       <c r="C165">
-        <v>717</v>
+        <v>15787</v>
       </c>
       <c r="D165">
-        <v>52058878</v>
+        <v>353489609</v>
       </c>
       <c r="E165">
-        <v>1060</v>
+        <v>19794</v>
       </c>
       <c r="F165">
-        <v>83412377</v>
+        <v>132429422</v>
       </c>
       <c r="G165">
-        <v>883</v>
+        <v>17779</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>160</v>
-      </c>
-      <c r="B166" s="2">
-        <v>10024078</v>
+        <v>153</v>
+      </c>
+      <c r="B166" s="1">
+        <v>15005062</v>
       </c>
       <c r="C166">
-        <v>1044</v>
+        <v>17246</v>
       </c>
       <c r="D166">
-        <v>60959753</v>
+        <v>395191276</v>
       </c>
       <c r="E166">
-        <v>1461</v>
+        <v>22638</v>
       </c>
       <c r="F166">
-        <v>85473974</v>
+        <v>134734232</v>
       </c>
       <c r="G166">
-        <v>1211</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>161</v>
-      </c>
-      <c r="B167" s="2">
-        <v>10188792</v>
+        <v>154</v>
+      </c>
+      <c r="B167" s="1">
+        <v>14940547</v>
       </c>
       <c r="C167">
-        <v>1331</v>
+        <v>19351</v>
       </c>
       <c r="D167">
-        <v>63874322</v>
+        <v>433726793</v>
       </c>
       <c r="E167">
-        <v>1716</v>
+        <v>24306</v>
       </c>
       <c r="F167">
-        <v>97677919</v>
+        <v>141368316</v>
       </c>
       <c r="G167">
-        <v>1530</v>
+        <v>22788</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>162</v>
-      </c>
-      <c r="B168" s="2">
-        <v>22833194</v>
+        <v>155</v>
+      </c>
+      <c r="B168" s="1">
+        <v>16214932</v>
       </c>
       <c r="C168">
-        <v>1552</v>
+        <v>22236</v>
       </c>
       <c r="D168">
-        <v>66651309</v>
+        <v>492509544</v>
       </c>
       <c r="E168">
-        <v>2080</v>
+        <v>28529</v>
       </c>
       <c r="F168">
-        <v>110691088</v>
+        <v>143918340</v>
       </c>
       <c r="G168">
-        <v>1865</v>
+        <v>26757</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>163</v>
-      </c>
-      <c r="B169" s="2">
-        <v>12171108</v>
+        <v>156</v>
+      </c>
+      <c r="B169" s="1">
+        <v>16482182</v>
       </c>
       <c r="C169">
-        <v>1778</v>
+        <v>24268</v>
       </c>
       <c r="D169">
-        <v>69270936</v>
+        <v>522152025</v>
       </c>
       <c r="E169">
-        <v>2256</v>
+        <v>30336</v>
       </c>
       <c r="F169">
-        <v>134594072</v>
+        <v>140526592</v>
       </c>
       <c r="G169">
-        <v>2096</v>
+        <v>28637</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>164</v>
-      </c>
-      <c r="B170" s="2">
-        <v>13059338</v>
-      </c>
-      <c r="C170">
-        <v>2221</v>
-      </c>
-      <c r="D170">
-        <v>81333473</v>
-      </c>
-      <c r="E170">
-        <v>2706</v>
-      </c>
-      <c r="F170">
-        <v>118643436</v>
-      </c>
-      <c r="G170">
-        <v>2520</v>
-      </c>
+      <c r="B170" s="1"/>
+      <c r="F170"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>165</v>
-      </c>
-      <c r="B171" s="2">
-        <v>13279915</v>
+        <v>157</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5863756</v>
       </c>
       <c r="C171">
-        <v>2246</v>
+        <v>269</v>
       </c>
       <c r="D171">
-        <v>78939742</v>
+        <v>39854681</v>
       </c>
       <c r="E171">
-        <v>2831</v>
+        <v>435</v>
       </c>
       <c r="F171">
-        <v>142142770</v>
+        <v>69505988</v>
       </c>
       <c r="G171">
-        <v>2673</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>166</v>
-      </c>
-      <c r="B172" s="2">
-        <v>13445853</v>
+        <v>158</v>
+      </c>
+      <c r="B172" s="1">
+        <v>7646075</v>
       </c>
       <c r="C172">
-        <v>2594</v>
+        <v>543</v>
       </c>
       <c r="D172">
-        <v>87572421</v>
+        <v>46979133</v>
       </c>
       <c r="E172">
-        <v>3250</v>
+        <v>793</v>
       </c>
       <c r="F172">
-        <v>123847596</v>
+        <v>76992597</v>
       </c>
       <c r="G172">
-        <v>3016</v>
+        <v>633</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>167</v>
-      </c>
-      <c r="B173" s="2">
-        <v>6596675</v>
+        <v>159</v>
+      </c>
+      <c r="B173" s="1">
+        <v>7725229</v>
       </c>
       <c r="C173">
-        <v>28</v>
+        <v>717</v>
       </c>
       <c r="D173">
-        <v>17177199</v>
+        <v>52058878</v>
       </c>
       <c r="E173">
-        <v>45</v>
+        <v>1060</v>
       </c>
       <c r="F173">
-        <v>56967615</v>
+        <v>83412377</v>
       </c>
       <c r="G173">
-        <v>35</v>
+        <v>883</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>168</v>
-      </c>
-      <c r="B174" s="2">
-        <v>7406460</v>
+        <v>160</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10024078</v>
       </c>
       <c r="C174">
-        <v>60</v>
+        <v>1044</v>
       </c>
       <c r="D174">
-        <v>18945006</v>
+        <v>60959753</v>
       </c>
       <c r="E174">
-        <v>90</v>
+        <v>1461</v>
       </c>
       <c r="F174">
-        <v>76389163</v>
+        <v>85473974</v>
       </c>
       <c r="G174">
-        <v>68</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>169</v>
-      </c>
-      <c r="B175" s="2">
-        <v>8459147</v>
+        <v>161</v>
+      </c>
+      <c r="B175" s="1">
+        <v>10188792</v>
       </c>
       <c r="C175">
-        <v>85</v>
+        <v>1331</v>
       </c>
       <c r="D175">
-        <v>25610692</v>
+        <v>63874322</v>
       </c>
       <c r="E175">
-        <v>129</v>
+        <v>1716</v>
       </c>
       <c r="F175">
-        <v>85951166</v>
+        <v>97677919</v>
       </c>
       <c r="G175">
-        <v>102</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>170</v>
-      </c>
-      <c r="B176" s="2">
-        <v>5734961</v>
+        <v>162</v>
+      </c>
+      <c r="B176" s="1">
+        <v>22833194</v>
       </c>
       <c r="C176">
-        <v>114</v>
+        <v>1552</v>
       </c>
       <c r="D176">
-        <v>32194966</v>
+        <v>66651309</v>
       </c>
       <c r="E176">
-        <v>166</v>
+        <v>2080</v>
       </c>
       <c r="F176">
-        <v>89460848</v>
+        <v>110691088</v>
       </c>
       <c r="G176">
-        <v>136</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>171</v>
-      </c>
-      <c r="B177" s="2">
-        <v>11039333</v>
+        <v>163</v>
+      </c>
+      <c r="B177" s="1">
+        <v>12171108</v>
       </c>
       <c r="C177">
-        <v>135</v>
+        <v>1778</v>
       </c>
       <c r="D177">
-        <v>36059772</v>
+        <v>69270936</v>
       </c>
       <c r="E177">
-        <v>193</v>
+        <v>2256</v>
       </c>
       <c r="F177">
-        <v>97986788</v>
+        <v>134594072</v>
       </c>
       <c r="G177">
-        <v>163</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="2">
-        <v>10249054</v>
+        <v>164</v>
+      </c>
+      <c r="B178" s="1">
+        <v>13059338</v>
       </c>
       <c r="C178">
-        <v>168</v>
+        <v>2221</v>
       </c>
       <c r="D178">
-        <v>40708322</v>
+        <v>81333473</v>
       </c>
       <c r="E178">
-        <v>225</v>
+        <v>2706</v>
       </c>
       <c r="F178">
-        <v>99756443</v>
+        <v>118643436</v>
       </c>
       <c r="G178">
-        <v>195</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>173</v>
-      </c>
-      <c r="B179" s="2">
-        <v>12819260</v>
+        <v>165</v>
+      </c>
+      <c r="B179" s="1">
+        <v>13279915</v>
       </c>
       <c r="C179">
-        <v>185</v>
+        <v>2246</v>
       </c>
       <c r="D179">
-        <v>43090986</v>
+        <v>78939742</v>
       </c>
       <c r="E179">
-        <v>249</v>
+        <v>2831</v>
       </c>
       <c r="F179">
-        <v>113144770</v>
+        <v>142142770</v>
       </c>
       <c r="G179">
-        <v>224</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>174</v>
-      </c>
-      <c r="B180" s="2">
-        <v>11827683</v>
+        <v>166</v>
+      </c>
+      <c r="B180" s="1">
+        <v>13445853</v>
       </c>
       <c r="C180">
-        <v>227</v>
+        <v>2594</v>
       </c>
       <c r="D180">
-        <v>44524679</v>
+        <v>87572421</v>
       </c>
       <c r="E180">
-        <v>302</v>
+        <v>3250</v>
       </c>
       <c r="F180">
-        <v>124828974</v>
+        <v>123847596</v>
       </c>
       <c r="G180">
-        <v>276</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>175</v>
-      </c>
-      <c r="B181" s="2">
-        <v>15991205</v>
-      </c>
-      <c r="C181">
-        <v>251</v>
-      </c>
-      <c r="D181">
-        <v>44863234</v>
-      </c>
-      <c r="E181">
-        <v>336</v>
-      </c>
-      <c r="F181">
-        <v>115197732</v>
-      </c>
-      <c r="G181">
-        <v>292</v>
-      </c>
+      <c r="B181" s="1"/>
+      <c r="F181"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>176</v>
-      </c>
-      <c r="B182" s="2">
-        <v>16690406</v>
+        <v>167</v>
+      </c>
+      <c r="B182" s="1">
+        <v>6596675</v>
       </c>
       <c r="C182">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="D182">
-        <v>45821096</v>
+        <v>17177199</v>
       </c>
       <c r="E182">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="F182">
-        <v>126335083</v>
+        <v>56967615</v>
       </c>
       <c r="G182">
-        <v>325</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>177</v>
-      </c>
-      <c r="B183" s="2">
-        <v>1334812</v>
+        <v>168</v>
+      </c>
+      <c r="B183" s="1">
+        <v>7406460</v>
       </c>
       <c r="C183">
-        <v>965</v>
+        <v>60</v>
       </c>
       <c r="D183">
-        <v>26429640</v>
+        <v>18945006</v>
       </c>
       <c r="E183">
-        <v>1246</v>
+        <v>90</v>
       </c>
       <c r="F183">
-        <v>5064366</v>
+        <v>76389163</v>
       </c>
       <c r="G183">
-        <v>1000</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>178</v>
-      </c>
-      <c r="B184" s="2">
-        <v>1399702</v>
+        <v>169</v>
+      </c>
+      <c r="B184" s="1">
+        <v>8459147</v>
       </c>
       <c r="C184">
-        <v>1012</v>
+        <v>85</v>
       </c>
       <c r="D184">
-        <v>21370727</v>
+        <v>25610692</v>
       </c>
       <c r="E184">
-        <v>1316</v>
+        <v>129</v>
       </c>
       <c r="F184">
-        <v>9400882</v>
+        <v>85951166</v>
       </c>
       <c r="G184">
-        <v>1137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>179</v>
-      </c>
-      <c r="B185" s="2">
-        <v>1270796</v>
+        <v>170</v>
+      </c>
+      <c r="B185" s="1">
+        <v>5734961</v>
       </c>
       <c r="C185">
-        <v>1196</v>
+        <v>114</v>
       </c>
       <c r="D185">
-        <v>23210126</v>
+        <v>32194966</v>
       </c>
       <c r="E185">
-        <v>1366</v>
+        <v>166</v>
       </c>
       <c r="F185">
-        <v>7100915</v>
+        <v>89460848</v>
       </c>
       <c r="G185">
-        <v>1103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>180</v>
-      </c>
-      <c r="B186" s="2">
-        <v>1296801</v>
+        <v>171</v>
+      </c>
+      <c r="B186" s="1">
+        <v>11039333</v>
       </c>
       <c r="C186">
-        <v>1398</v>
+        <v>135</v>
       </c>
       <c r="D186">
-        <v>26991829</v>
+        <v>36059772</v>
       </c>
       <c r="E186">
-        <v>1508</v>
+        <v>193</v>
       </c>
       <c r="F186">
-        <v>7289548</v>
+        <v>97986788</v>
       </c>
       <c r="G186">
-        <v>1431</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>181</v>
-      </c>
-      <c r="B187" s="2">
-        <v>1360814</v>
+        <v>172</v>
+      </c>
+      <c r="B187" s="1">
+        <v>10249054</v>
       </c>
       <c r="C187">
-        <v>1185</v>
+        <v>168</v>
       </c>
       <c r="D187">
-        <v>28217187</v>
+        <v>40708322</v>
       </c>
       <c r="E187">
-        <v>1599</v>
+        <v>225</v>
       </c>
       <c r="F187">
-        <v>8630874</v>
+        <v>99756443</v>
       </c>
       <c r="G187">
-        <v>1468</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>182</v>
-      </c>
-      <c r="B188" s="2">
-        <v>1501226</v>
+        <v>173</v>
+      </c>
+      <c r="B188" s="1">
+        <v>12819260</v>
       </c>
       <c r="C188">
-        <v>1711</v>
+        <v>185</v>
       </c>
       <c r="D188">
-        <v>37001946</v>
+        <v>43090986</v>
       </c>
       <c r="E188">
-        <v>1947</v>
+        <v>249</v>
       </c>
       <c r="F188">
-        <v>7592523</v>
+        <v>113144770</v>
       </c>
       <c r="G188">
-        <v>1766</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>183</v>
-      </c>
-      <c r="B189" s="2">
-        <v>1331553</v>
+        <v>174</v>
+      </c>
+      <c r="B189" s="1">
+        <v>11827683</v>
       </c>
       <c r="C189">
-        <v>1843</v>
+        <v>227</v>
       </c>
       <c r="D189">
-        <v>44916587</v>
+        <v>44524679</v>
       </c>
       <c r="E189">
-        <v>2318</v>
+        <v>302</v>
       </c>
       <c r="F189">
-        <v>12243592</v>
+        <v>124828974</v>
       </c>
       <c r="G189">
-        <v>2037</v>
+        <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>184</v>
-      </c>
-      <c r="B190" s="2">
-        <v>1608268</v>
+        <v>175</v>
+      </c>
+      <c r="B190" s="1">
+        <v>15991205</v>
       </c>
       <c r="C190">
-        <v>1791</v>
+        <v>251</v>
       </c>
       <c r="D190">
-        <v>45999036</v>
+        <v>44863234</v>
       </c>
       <c r="E190">
-        <v>2378</v>
+        <v>336</v>
       </c>
       <c r="F190">
-        <v>9264434</v>
+        <v>115197732</v>
       </c>
       <c r="G190">
-        <v>2184</v>
+        <v>292</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>185</v>
-      </c>
-      <c r="B191" s="2">
-        <v>1769842</v>
+        <v>176</v>
+      </c>
+      <c r="B191" s="1">
+        <v>16690406</v>
       </c>
       <c r="C191">
-        <v>2783</v>
+        <v>285</v>
       </c>
       <c r="D191">
-        <v>41285952</v>
+        <v>45821096</v>
       </c>
       <c r="E191">
-        <v>2988</v>
+        <v>360</v>
       </c>
       <c r="F191">
-        <v>10663641</v>
+        <v>126335083</v>
       </c>
       <c r="G191">
-        <v>2783</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>186</v>
-      </c>
-      <c r="B192" s="2">
-        <v>1472416</v>
-      </c>
-      <c r="C192">
-        <v>2407</v>
-      </c>
-      <c r="D192">
-        <v>50984849</v>
-      </c>
-      <c r="E192">
-        <v>3010</v>
-      </c>
-      <c r="F192">
-        <v>11934118</v>
-      </c>
-      <c r="G192">
-        <v>2812</v>
-      </c>
+      <c r="B192" s="1"/>
+      <c r="F192"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>187</v>
-      </c>
-      <c r="B193" s="2">
-        <v>1322154</v>
+        <v>177</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1334812</v>
       </c>
       <c r="C193">
-        <v>110</v>
+        <v>965</v>
       </c>
       <c r="D193">
-        <v>2435935</v>
+        <v>26429640</v>
       </c>
       <c r="E193">
-        <v>131</v>
+        <v>1246</v>
       </c>
       <c r="F193">
-        <v>5200837</v>
+        <v>5064366</v>
       </c>
       <c r="G193">
-        <v>123</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>188</v>
-      </c>
-      <c r="B194" s="2">
-        <v>1311091</v>
+        <v>178</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1399702</v>
       </c>
       <c r="C194">
-        <v>87</v>
+        <v>1012</v>
       </c>
       <c r="D194">
-        <v>2457890</v>
+        <v>21370727</v>
       </c>
       <c r="E194">
-        <v>133</v>
+        <v>1316</v>
       </c>
       <c r="F194">
-        <v>7045170</v>
+        <v>9400882</v>
       </c>
       <c r="G194">
-        <v>125</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>189</v>
-      </c>
-      <c r="B195" s="2">
-        <v>1474149</v>
+        <v>179</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1270796</v>
       </c>
       <c r="C195">
-        <v>113</v>
+        <v>1196</v>
       </c>
       <c r="D195">
-        <v>2468448</v>
+        <v>23210126</v>
       </c>
       <c r="E195">
-        <v>138</v>
+        <v>1366</v>
       </c>
       <c r="F195">
-        <v>7755753</v>
+        <v>7100915</v>
       </c>
       <c r="G195">
-        <v>129</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>190</v>
-      </c>
-      <c r="B196" s="2">
-        <v>1260991</v>
+        <v>180</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1296801</v>
       </c>
       <c r="C196">
-        <v>110</v>
+        <v>1398</v>
       </c>
       <c r="D196">
-        <v>2456276</v>
+        <v>26991829</v>
       </c>
       <c r="E196">
-        <v>141</v>
+        <v>1508</v>
       </c>
       <c r="F196">
-        <v>8466841</v>
+        <v>7289548</v>
       </c>
       <c r="G196">
-        <v>132</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>191</v>
-      </c>
-      <c r="B197" s="2">
-        <v>1394040</v>
+        <v>181</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1360814</v>
       </c>
       <c r="C197">
-        <v>122</v>
+        <v>1185</v>
       </c>
       <c r="D197">
-        <v>3092454</v>
+        <v>28217187</v>
       </c>
       <c r="E197">
-        <v>166</v>
+        <v>1599</v>
       </c>
       <c r="F197">
-        <v>7262700</v>
+        <v>8630874</v>
       </c>
       <c r="G197">
-        <v>149</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>192</v>
-      </c>
-      <c r="B198" s="2">
-        <v>1438240</v>
+        <v>182</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1501226</v>
       </c>
       <c r="C198">
-        <v>174</v>
+        <v>1711</v>
       </c>
       <c r="D198">
-        <v>3580364</v>
+        <v>37001946</v>
       </c>
       <c r="E198">
-        <v>217</v>
+        <v>1947</v>
       </c>
       <c r="F198">
-        <v>8675759</v>
+        <v>7592523</v>
       </c>
       <c r="G198">
-        <v>184</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>193</v>
-      </c>
-      <c r="B199" s="2">
-        <v>1364344</v>
+        <v>183</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1331553</v>
       </c>
       <c r="C199">
-        <v>201</v>
+        <v>1843</v>
       </c>
       <c r="D199">
-        <v>4192121</v>
+        <v>44916587</v>
       </c>
       <c r="E199">
-        <v>239</v>
+        <v>2318</v>
       </c>
       <c r="F199">
-        <v>11064046</v>
+        <v>12243592</v>
       </c>
       <c r="G199">
-        <v>219</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>194</v>
-      </c>
-      <c r="B200" s="2">
-        <v>1518060</v>
+        <v>184</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1608268</v>
       </c>
       <c r="C200">
-        <v>214</v>
+        <v>1791</v>
       </c>
       <c r="D200">
-        <v>10445651</v>
+        <v>45999036</v>
       </c>
       <c r="E200">
-        <v>258</v>
+        <v>2378</v>
       </c>
       <c r="F200">
-        <v>9339094</v>
+        <v>9264434</v>
       </c>
       <c r="G200">
-        <v>245</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>195</v>
-      </c>
-      <c r="B201" s="2">
-        <v>1303577</v>
+        <v>185</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1769842</v>
       </c>
       <c r="C201">
-        <v>254</v>
+        <v>2783</v>
       </c>
       <c r="D201">
-        <v>11432919</v>
+        <v>41285952</v>
       </c>
       <c r="E201">
-        <v>309</v>
+        <v>2988</v>
       </c>
       <c r="F201">
-        <v>9191974</v>
+        <v>10663641</v>
       </c>
       <c r="G201">
-        <v>290</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>196</v>
-      </c>
-      <c r="B202" s="2">
-        <v>1524568</v>
+        <v>186</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1472416</v>
       </c>
       <c r="C202">
-        <v>243</v>
+        <v>2407</v>
       </c>
       <c r="D202">
-        <v>11138964</v>
+        <v>50984849</v>
       </c>
       <c r="E202">
-        <v>304</v>
+        <v>3010</v>
       </c>
       <c r="F202">
-        <v>15743479</v>
+        <v>11934118</v>
       </c>
       <c r="G202">
-        <v>286</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>197</v>
-      </c>
-      <c r="B203" s="2">
-        <v>1227075</v>
-      </c>
-      <c r="C203">
-        <v>10</v>
-      </c>
-      <c r="D203">
-        <v>885051</v>
-      </c>
-      <c r="E203">
-        <v>15</v>
-      </c>
-      <c r="F203">
-        <v>4999149</v>
-      </c>
-      <c r="G203">
-        <v>14</v>
-      </c>
+      <c r="B203" s="1"/>
+      <c r="F203"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>198</v>
-      </c>
-      <c r="B204" s="2">
-        <v>1187971</v>
+        <v>187</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1322154</v>
       </c>
       <c r="C204">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D204">
-        <v>901454</v>
+        <v>2435935</v>
       </c>
       <c r="E204">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="F204">
-        <v>3942671</v>
+        <v>5200837</v>
       </c>
       <c r="G204">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>199</v>
-      </c>
-      <c r="B205" s="2">
-        <v>1228287</v>
+        <v>188</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1311091</v>
       </c>
       <c r="C205">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D205">
-        <v>862663</v>
+        <v>2457890</v>
       </c>
       <c r="E205">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F205">
-        <v>6191644</v>
+        <v>7045170</v>
       </c>
       <c r="G205">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>200</v>
-      </c>
-      <c r="B206" s="2">
-        <v>1200292</v>
+        <v>189</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1474149</v>
       </c>
       <c r="C206">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D206">
-        <v>875186</v>
+        <v>2468448</v>
       </c>
       <c r="E206">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="F206">
-        <v>4079711</v>
+        <v>7755753</v>
       </c>
       <c r="G206">
-        <v>14</v>
+        <v>129</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>201</v>
-      </c>
-      <c r="B207" s="2">
-        <v>1244003</v>
+        <v>190</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1260991</v>
       </c>
       <c r="C207">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D207">
-        <v>939614</v>
+        <v>2456276</v>
       </c>
       <c r="E207">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F207">
-        <v>7190240</v>
+        <v>8466841</v>
       </c>
       <c r="G207">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>202</v>
-      </c>
-      <c r="B208" s="2">
-        <v>1331710</v>
+        <v>191</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1394040</v>
       </c>
       <c r="C208">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D208">
-        <v>958688</v>
+        <v>3092454</v>
       </c>
       <c r="E208">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="F208">
-        <v>7609725</v>
+        <v>7262700</v>
       </c>
       <c r="G208">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>203</v>
-      </c>
-      <c r="B209" s="2">
-        <v>1260906</v>
+        <v>192</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1438240</v>
       </c>
       <c r="C209">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="D209">
-        <v>1004971</v>
+        <v>3580364</v>
       </c>
       <c r="E209">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="F209">
-        <v>6566137</v>
+        <v>8675759</v>
       </c>
       <c r="G209">
-        <v>21</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>204</v>
-      </c>
-      <c r="B210" s="2">
-        <v>1273114</v>
+        <v>193</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1364344</v>
       </c>
       <c r="C210">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="D210">
-        <v>1109415</v>
+        <v>4192121</v>
       </c>
       <c r="E210">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="F210">
-        <v>9146117</v>
+        <v>11064046</v>
       </c>
       <c r="G210">
-        <v>27</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>205</v>
-      </c>
-      <c r="B211" s="2">
-        <v>1373603</v>
+        <v>194</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1518060</v>
       </c>
       <c r="C211">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D211">
-        <v>1196887</v>
+        <v>10445651</v>
       </c>
       <c r="E211">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="F211">
-        <v>9238195</v>
+        <v>9339094</v>
       </c>
       <c r="G211">
-        <v>34</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>195</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1303577</v>
+      </c>
+      <c r="C212">
+        <v>254</v>
+      </c>
+      <c r="D212">
+        <v>11432919</v>
+      </c>
+      <c r="E212">
+        <v>309</v>
+      </c>
+      <c r="F212">
+        <v>9191974</v>
+      </c>
+      <c r="G212">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>196</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1524568</v>
+      </c>
+      <c r="C213">
+        <v>243</v>
+      </c>
+      <c r="D213">
+        <v>11138964</v>
+      </c>
+      <c r="E213">
+        <v>304</v>
+      </c>
+      <c r="F213">
+        <v>15743479</v>
+      </c>
+      <c r="G213">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="1"/>
+      <c r="F214"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>197</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1227075</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>885051</v>
+      </c>
+      <c r="E215">
+        <v>15</v>
+      </c>
+      <c r="F215">
+        <v>4999149</v>
+      </c>
+      <c r="G215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>198</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1187971</v>
+      </c>
+      <c r="C216">
+        <v>11</v>
+      </c>
+      <c r="D216">
+        <v>901454</v>
+      </c>
+      <c r="E216">
+        <v>16</v>
+      </c>
+      <c r="F216">
+        <v>3942671</v>
+      </c>
+      <c r="G216">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>199</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1228287</v>
+      </c>
+      <c r="C217">
+        <v>11</v>
+      </c>
+      <c r="D217">
+        <v>862663</v>
+      </c>
+      <c r="E217">
+        <v>16</v>
+      </c>
+      <c r="F217">
+        <v>6191644</v>
+      </c>
+      <c r="G217">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1200292</v>
+      </c>
+      <c r="C218">
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>875186</v>
+      </c>
+      <c r="E218">
+        <v>16</v>
+      </c>
+      <c r="F218">
+        <v>4079711</v>
+      </c>
+      <c r="G218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1244003</v>
+      </c>
+      <c r="C219">
+        <v>15</v>
+      </c>
+      <c r="D219">
+        <v>939614</v>
+      </c>
+      <c r="E219">
+        <v>20</v>
+      </c>
+      <c r="F219">
+        <v>7190240</v>
+      </c>
+      <c r="G219">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>202</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1331710</v>
+      </c>
+      <c r="C220">
+        <v>17</v>
+      </c>
+      <c r="D220">
+        <v>958688</v>
+      </c>
+      <c r="E220">
+        <v>22</v>
+      </c>
+      <c r="F220">
+        <v>7609725</v>
+      </c>
+      <c r="G220">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1260906</v>
+      </c>
+      <c r="C221">
+        <v>17</v>
+      </c>
+      <c r="D221">
+        <v>1004971</v>
+      </c>
+      <c r="E221">
+        <v>23</v>
+      </c>
+      <c r="F221">
+        <v>6566137</v>
+      </c>
+      <c r="G221">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>204</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1273114</v>
+      </c>
+      <c r="C222">
+        <v>22</v>
+      </c>
+      <c r="D222">
+        <v>1109415</v>
+      </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+      <c r="F222">
+        <v>9146117</v>
+      </c>
+      <c r="G222">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>205</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1373603</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223">
+        <v>1196887</v>
+      </c>
+      <c r="E223">
+        <v>36</v>
+      </c>
+      <c r="F223">
+        <v>9238195</v>
+      </c>
+      <c r="G223">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>206</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B224" s="1">
         <v>1387314</v>
       </c>
-      <c r="C212">
+      <c r="C224">
         <v>26</v>
       </c>
-      <c r="D212">
+      <c r="D224">
         <v>1213087</v>
       </c>
-      <c r="E212">
+      <c r="E224">
         <v>33</v>
       </c>
-      <c r="F212">
+      <c r="F224">
         <v>13396882</v>
       </c>
-      <c r="G212">
+      <c r="G224">
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I19 I26" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -6327,7 +6755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6339,7 +6767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="238">
   <si>
     <t>Nom du fichier</t>
   </si>
@@ -747,13 +747,22 @@
   </si>
   <si>
     <t>revenuLocal</t>
+  </si>
+  <si>
+    <t>Exemplaire</t>
+  </si>
+  <si>
+    <t>Temps (ns)</t>
+  </si>
+  <si>
+    <t>Temps(ns)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +780,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -796,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -858,38 +875,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,7 +1233,7 @@
   <dimension ref="A1:O250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,21 +1298,21 @@
       <c r="G2">
         <v>6818</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1304,23 +1336,23 @@
       <c r="G3">
         <v>11972</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -1346,30 +1378,30 @@
       <c r="G4">
         <v>18184</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>19172238.100000001</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="2">
         <f>AVERAGE(C2:C11)</f>
         <v>27813.4</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:O4" si="0">AVERAGE(D2:D11)</f>
         <v>1109475116.3</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>36469.1</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>220425568.90000001</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>32469.3</v>
       </c>
@@ -1396,30 +1428,30 @@
       <c r="G5">
         <v>24990</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="2">
         <f>AVERAGE(B13:B22)</f>
         <v>17082813</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="1">AVERAGE(C13:C22)</f>
         <v>2878.4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="2">
         <f t="shared" si="1"/>
         <v>147733924.90000001</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="2">
         <f t="shared" si="1"/>
         <v>3724.7</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="2">
         <f t="shared" si="1"/>
         <v>204205342</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="2">
         <f t="shared" si="1"/>
         <v>3335.7</v>
       </c>
@@ -1446,30 +1478,30 @@
       <c r="G6">
         <v>29798</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="2">
         <f>AVERAGE(B24:B33)</f>
         <v>19567361.199999999</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:O6" si="2">AVERAGE(C24:C33)</f>
         <v>313.89999999999998</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
         <v>49826671.100000001</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="2">
         <f t="shared" si="2"/>
         <v>421</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="2">
         <f t="shared" si="2"/>
         <v>187573442.09999999</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="2">
         <f t="shared" si="2"/>
         <v>360.3</v>
       </c>
@@ -1496,30 +1528,30 @@
       <c r="G7">
         <v>35324</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="2">
         <f>AVERAGE(B35:B44)</f>
         <v>1929205</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="2">
         <f t="shared" ref="K7:O7" si="3">AVERAGE(C35:C44)</f>
         <v>2859.5</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="2">
         <f t="shared" si="3"/>
         <v>52673413.100000001</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
         <v>3675.7</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="2">
         <f t="shared" si="3"/>
         <v>24649228.399999999</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="2">
         <f t="shared" si="3"/>
         <v>3420.8</v>
       </c>
@@ -1546,30 +1578,30 @@
       <c r="G8">
         <v>40463</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="2">
         <f>AVERAGE(B46:B54)</f>
         <v>1942892.2222222222</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="2">
         <f t="shared" ref="K8:O8" si="4">AVERAGE(C46:C54)</f>
         <v>315.66666666666669</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
         <v>17472890.666666668</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="2">
         <f t="shared" si="4"/>
         <v>403.66666666666669</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="2">
         <f t="shared" si="4"/>
         <v>25056521.111111112</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="2">
         <f t="shared" si="4"/>
         <v>369.88888888888891</v>
       </c>
@@ -1596,30 +1628,30 @@
       <c r="G9">
         <v>45928</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="2">
         <f>AVERAGE(B56:B64)</f>
         <v>1748640.888888889</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="2">
         <f t="shared" ref="K9:O9" si="5">AVERAGE(C56:C64)</f>
         <v>32.666666666666664</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="2">
         <f t="shared" si="5"/>
         <v>1926012.888888889</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="2">
         <f t="shared" si="5"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="2">
         <f t="shared" si="5"/>
         <v>17216338.222222224</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="2">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -1646,30 +1678,30 @@
       <c r="G10">
         <v>53381</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="2">
         <f>AVERAGE(B66:B73)</f>
         <v>910659.875</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="2">
         <f t="shared" ref="K10:O10" si="6">AVERAGE(C66:C73)</f>
         <v>1004.75</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="2">
         <f t="shared" si="6"/>
         <v>9498412.5</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="2">
         <f t="shared" si="6"/>
         <v>1106.125</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="2">
         <f t="shared" si="6"/>
         <v>1939351.75</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="2">
         <f t="shared" si="6"/>
         <v>1069.375</v>
       </c>
@@ -1696,30 +1728,30 @@
       <c r="G11">
         <v>57835</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="2">
         <f>AVERAGE(B75:B84)</f>
         <v>955876.9</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="2">
         <f t="shared" ref="K11:O11" si="7">AVERAGE(C75:C84)</f>
         <v>89.1</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="2">
         <f t="shared" si="7"/>
         <v>918119.5</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="2">
         <f t="shared" si="7"/>
         <v>108.2</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="2">
         <f t="shared" si="7"/>
         <v>1929649.1</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="2">
         <f t="shared" si="7"/>
         <v>99.6</v>
       </c>
@@ -1727,13 +1759,13 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="F12"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1757,31 +1789,31 @@
       <c r="G13">
         <v>664</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="2">
         <f>AVERAGE(B86:B94)</f>
         <v>914120.77777777775</v>
       </c>
-      <c r="K13" s="10">
-        <f t="shared" ref="K13:O13" si="8">AVERAGE(C86:C94)</f>
+      <c r="K13" s="2">
+        <f>AVERAGE(C86:C94)</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="8"/>
+      <c r="L13" s="2">
+        <f>AVERAGE(D86:D94)</f>
         <v>612259.77777777775</v>
       </c>
-      <c r="M13" s="10">
-        <f t="shared" si="8"/>
+      <c r="M13" s="2">
+        <f>AVERAGE(E86:E94)</f>
         <v>13.111111111111111</v>
       </c>
-      <c r="N13" s="10">
-        <f t="shared" si="8"/>
+      <c r="N13" s="2">
+        <f>AVERAGE(F86:F94)</f>
         <v>1918262.5555555555</v>
       </c>
-      <c r="O13" s="10">
-        <f t="shared" si="8"/>
+      <c r="O13" s="2">
+        <f>AVERAGE(G86:G94)</f>
         <v>11.333333333333334</v>
       </c>
     </row>
@@ -1807,31 +1839,31 @@
       <c r="G14">
         <v>1254</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="2">
         <f>AVERAGE(B96:B104)</f>
         <v>3114161.5555555555</v>
       </c>
-      <c r="K14" s="10">
-        <f t="shared" ref="K14:O14" si="9">AVERAGE(C96:C104)</f>
+      <c r="K14" s="2">
+        <f>AVERAGE(C96:C104)</f>
         <v>5891.1111111111113</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="9"/>
+      <c r="L14" s="2">
+        <f>AVERAGE(D96:D104)</f>
         <v>77868910.222222224</v>
       </c>
-      <c r="M14" s="10">
-        <f t="shared" si="9"/>
+      <c r="M14" s="2">
+        <f>AVERAGE(E96:E104)</f>
         <v>7610.7777777777774</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="9"/>
+      <c r="N14" s="2">
+        <f>AVERAGE(F96:F104)</f>
         <v>46580486.666666664</v>
       </c>
-      <c r="O14" s="10">
-        <f t="shared" si="9"/>
+      <c r="O14" s="2">
+        <f>AVERAGE(G96:G104)</f>
         <v>6884.2222222222226</v>
       </c>
     </row>
@@ -1857,31 +1889,31 @@
       <c r="G15">
         <v>1793</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="2">
         <f>AVERAGE(B106:B115)</f>
         <v>2918555.8</v>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" ref="K15:O15" si="10">AVERAGE(C106:C115)</f>
+      <c r="K15" s="2">
+        <f>AVERAGE(C106:C115)</f>
         <v>574.9</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="10"/>
+      <c r="L15" s="2">
+        <f>AVERAGE(D106:D115)</f>
         <v>41854789.799999997</v>
       </c>
-      <c r="M15" s="10">
-        <f t="shared" si="10"/>
+      <c r="M15" s="2">
+        <f>AVERAGE(E106:E115)</f>
         <v>741</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="10"/>
+      <c r="N15" s="2">
+        <f>AVERAGE(F106:F115)</f>
         <v>45450803.700000003</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="10"/>
+      <c r="O15" s="2">
+        <f>AVERAGE(G106:G115)</f>
         <v>678.5</v>
       </c>
     </row>
@@ -1907,31 +1939,31 @@
       <c r="G16">
         <v>2426</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="2">
         <f>AVERAGE(B117:B126)</f>
         <v>2724902.2</v>
       </c>
-      <c r="K16" s="10">
-        <f t="shared" ref="K16:O16" si="11">AVERAGE(C117:C126)</f>
+      <c r="K16" s="2">
+        <f>AVERAGE(C117:C126)</f>
         <v>62.5</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="11"/>
+      <c r="L16" s="2">
+        <f>AVERAGE(D117:D126)</f>
         <v>9278231.3000000007</v>
       </c>
-      <c r="M16" s="10">
-        <f t="shared" si="11"/>
+      <c r="M16" s="2">
+        <f>AVERAGE(E117:E126)</f>
         <v>83.8</v>
       </c>
-      <c r="N16" s="10">
-        <f t="shared" si="11"/>
+      <c r="N16" s="2">
+        <f>AVERAGE(F117:F126)</f>
         <v>38532225.799999997</v>
       </c>
-      <c r="O16" s="10">
-        <f t="shared" si="11"/>
+      <c r="O16" s="2">
+        <f>AVERAGE(G117:G126)</f>
         <v>73.8</v>
       </c>
     </row>
@@ -1957,31 +1989,31 @@
       <c r="G17">
         <v>3015</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="2">
         <f>AVERAGE(B128:B136)</f>
         <v>1002141.7777777778</v>
       </c>
-      <c r="K17" s="10">
-        <f t="shared" ref="K17:O17" si="12">AVERAGE(C128:C136)</f>
+      <c r="K17" s="2">
+        <f>AVERAGE(C128:C136)</f>
         <v>967.11111111111109</v>
       </c>
-      <c r="L17" s="10">
-        <f t="shared" si="12"/>
+      <c r="L17" s="2">
+        <f>AVERAGE(D128:D136)</f>
         <v>12751036</v>
       </c>
-      <c r="M17" s="10">
-        <f t="shared" si="12"/>
+      <c r="M17" s="2">
+        <f>AVERAGE(E128:E136)</f>
         <v>1235.5555555555557</v>
       </c>
-      <c r="N17" s="10">
-        <f t="shared" si="12"/>
+      <c r="N17" s="2">
+        <f>AVERAGE(F128:F136)</f>
         <v>3018903.4444444445</v>
       </c>
-      <c r="O17" s="10">
-        <f t="shared" si="12"/>
+      <c r="O17" s="2">
+        <f>AVERAGE(G128:G136)</f>
         <v>1101.7777777777778</v>
       </c>
     </row>
@@ -2007,31 +2039,31 @@
       <c r="G18">
         <v>3645</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="2">
         <f>AVERAGE(B138:B147)</f>
         <v>1008420.7</v>
       </c>
-      <c r="K18" s="10">
-        <f t="shared" ref="K18:O18" si="13">AVERAGE(C138:C147)</f>
+      <c r="K18" s="2">
+        <f>AVERAGE(C138:C147)</f>
         <v>99.2</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" si="13"/>
+      <c r="L18" s="2">
+        <f>AVERAGE(D138:D147)</f>
         <v>1267146.3</v>
       </c>
-      <c r="M18" s="10">
-        <f t="shared" si="13"/>
+      <c r="M18" s="2">
+        <f>AVERAGE(E138:E147)</f>
         <v>119.9</v>
       </c>
-      <c r="N18" s="10">
-        <f t="shared" si="13"/>
+      <c r="N18" s="2">
+        <f>AVERAGE(F138:F147)</f>
         <v>2839615.4</v>
       </c>
-      <c r="O18" s="10">
-        <f t="shared" si="13"/>
+      <c r="O18" s="2">
+        <f>AVERAGE(G138:G147)</f>
         <v>111.1</v>
       </c>
     </row>
@@ -2057,31 +2089,31 @@
       <c r="G19">
         <v>4150</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="2">
         <f>AVERAGE(B149:B158)</f>
         <v>945117.3</v>
       </c>
-      <c r="K19" s="10">
-        <f t="shared" ref="K19:O19" si="14">AVERAGE(C149:C158)</f>
+      <c r="K19" s="2">
+        <f>AVERAGE(C149:C158)</f>
         <v>11.7</v>
       </c>
-      <c r="L19" s="10">
-        <f t="shared" si="14"/>
+      <c r="L19" s="2">
+        <f>AVERAGE(D149:D158)</f>
         <v>665377.19999999995</v>
       </c>
-      <c r="M19" s="10">
-        <f t="shared" si="14"/>
+      <c r="M19" s="2">
+        <f>AVERAGE(E149:E158)</f>
         <v>13.9</v>
       </c>
-      <c r="N19" s="10">
-        <f t="shared" si="14"/>
+      <c r="N19" s="2">
+        <f>AVERAGE(F149:F158)</f>
         <v>2807340.3</v>
       </c>
-      <c r="O19" s="10">
-        <f t="shared" si="14"/>
+      <c r="O19" s="2">
+        <f>AVERAGE(G149:G158)</f>
         <v>13</v>
       </c>
     </row>
@@ -2107,31 +2139,31 @@
       <c r="G20">
         <v>4927</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="2">
         <f>AVERAGE(B160:B169)</f>
         <v>12165247.300000001</v>
       </c>
-      <c r="K20" s="10">
-        <f t="shared" ref="K20:O20" si="15">AVERAGE(C160:C169)</f>
+      <c r="K20" s="2">
+        <f>AVERAGE(C160:C169)</f>
         <v>13751.8</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="15"/>
+      <c r="L20" s="2">
+        <f>AVERAGE(D160:D169)</f>
         <v>309694953.39999998</v>
       </c>
-      <c r="M20" s="10">
-        <f t="shared" si="15"/>
+      <c r="M20" s="2">
+        <f>AVERAGE(E160:E169)</f>
         <v>18027.2</v>
       </c>
-      <c r="N20" s="10">
-        <f t="shared" si="15"/>
+      <c r="N20" s="2">
+        <f>AVERAGE(F160:F169)</f>
         <v>114938772</v>
       </c>
-      <c r="O20" s="10">
-        <f t="shared" si="15"/>
+      <c r="O20" s="2">
+        <f>AVERAGE(G160:G169)</f>
         <v>16239.8</v>
       </c>
     </row>
@@ -2157,31 +2189,31 @@
       <c r="G21">
         <v>5469</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="2">
         <f>AVERAGE(B171:B180)</f>
         <v>11623733.800000001</v>
       </c>
-      <c r="K21" s="10">
-        <f t="shared" ref="K21:O21" si="16">AVERAGE(C171:C180)</f>
+      <c r="K21" s="2">
+        <f>AVERAGE(C171:C180)</f>
         <v>1429.5</v>
       </c>
-      <c r="L21" s="10">
-        <f t="shared" si="16"/>
+      <c r="L21" s="2">
+        <f>AVERAGE(D171:D180)</f>
         <v>64749464.799999997</v>
       </c>
-      <c r="M21" s="10">
-        <f t="shared" si="16"/>
+      <c r="M21" s="2">
+        <f>AVERAGE(E171:E180)</f>
         <v>1858.8</v>
       </c>
-      <c r="N21" s="10">
-        <f t="shared" si="16"/>
+      <c r="N21" s="2">
+        <f>AVERAGE(F171:F180)</f>
         <v>104298181.7</v>
       </c>
-      <c r="O21" s="10">
-        <f t="shared" si="16"/>
+      <c r="O21" s="2">
+        <f>AVERAGE(G171:G180)</f>
         <v>1676</v>
       </c>
     </row>
@@ -2207,44 +2239,44 @@
       <c r="G22">
         <v>6014</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="2">
         <f>AVERAGE(B182:B191)</f>
         <v>10681418.4</v>
       </c>
-      <c r="K22" s="10">
-        <f t="shared" ref="K22:O22" si="17">AVERAGE(C182:C191)</f>
+      <c r="K22" s="2">
+        <f>AVERAGE(C182:C191)</f>
         <v>153.80000000000001</v>
       </c>
-      <c r="L22" s="10">
-        <f t="shared" si="17"/>
+      <c r="L22" s="2">
+        <f>AVERAGE(D182:D191)</f>
         <v>34899595.200000003</v>
       </c>
-      <c r="M22" s="10">
-        <f t="shared" si="17"/>
+      <c r="M22" s="2">
+        <f>AVERAGE(E182:E191)</f>
         <v>209.5</v>
       </c>
-      <c r="N22" s="10">
-        <f t="shared" si="17"/>
+      <c r="N22" s="2">
+        <f>AVERAGE(F182:F191)</f>
         <v>98601858.200000003</v>
       </c>
-      <c r="O22" s="10">
-        <f t="shared" si="17"/>
+      <c r="O22" s="2">
+        <f>AVERAGE(G182:G191)</f>
         <v>181.6</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="F23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2268,31 +2300,31 @@
       <c r="G24">
         <v>67</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="2">
         <f>AVERAGE(B193:B202)</f>
         <v>1434623</v>
       </c>
-      <c r="K24" s="10">
-        <f t="shared" ref="K24:O24" si="18">AVERAGE(C193:C202)</f>
+      <c r="K24" s="2">
+        <f>AVERAGE(C193:C202)</f>
         <v>1629.1</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="18"/>
+      <c r="L24" s="2">
+        <f>AVERAGE(D193:D202)</f>
         <v>34640787.899999999</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="18"/>
+      <c r="M24" s="2">
+        <f>AVERAGE(E193:E202)</f>
         <v>1967.6</v>
       </c>
-      <c r="N24" s="10">
-        <f t="shared" si="18"/>
+      <c r="N24" s="2">
+        <f>AVERAGE(F193:F202)</f>
         <v>8918489.3000000007</v>
       </c>
-      <c r="O24" s="10">
-        <f t="shared" si="18"/>
+      <c r="O24" s="2">
+        <f>AVERAGE(G193:G202)</f>
         <v>1772.1</v>
       </c>
     </row>
@@ -2318,31 +2350,31 @@
       <c r="G25">
         <v>132</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="2">
         <f>AVERAGE(B204:B213)</f>
         <v>1391121.4</v>
       </c>
-      <c r="K25" s="10">
-        <f t="shared" ref="K25:O25" si="19">AVERAGE(C204:C213)</f>
+      <c r="K25" s="2">
+        <f>AVERAGE(C204:C213)</f>
         <v>162.80000000000001</v>
       </c>
-      <c r="L25" s="10">
-        <f t="shared" si="19"/>
+      <c r="L25" s="2">
+        <f>AVERAGE(D204:D213)</f>
         <v>5370102.2000000002</v>
       </c>
-      <c r="M25" s="10">
-        <f t="shared" si="19"/>
+      <c r="M25" s="2">
+        <f>AVERAGE(E204:E213)</f>
         <v>203.6</v>
       </c>
-      <c r="N25" s="10">
-        <f t="shared" si="19"/>
+      <c r="N25" s="2">
+        <f>AVERAGE(F204:F213)</f>
         <v>8974565.3000000007</v>
       </c>
-      <c r="O25" s="10">
-        <f t="shared" si="19"/>
+      <c r="O25" s="2">
+        <f>AVERAGE(G204:G213)</f>
         <v>188.2</v>
       </c>
     </row>
@@ -2368,31 +2400,31 @@
       <c r="G26">
         <v>191</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="2">
         <f>AVERAGE(B215:B224)</f>
         <v>1271427.5</v>
       </c>
-      <c r="K26" s="10">
-        <f t="shared" ref="K26:O26" si="20">AVERAGE(C215:C224)</f>
+      <c r="K26" s="2">
+        <f>AVERAGE(C215:C224)</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="L26" s="10">
-        <f t="shared" si="20"/>
+      <c r="L26" s="2">
+        <f>AVERAGE(D215:D224)</f>
         <v>994701.6</v>
       </c>
-      <c r="M26" s="10">
-        <f t="shared" si="20"/>
+      <c r="M26" s="2">
+        <f>AVERAGE(E215:E224)</f>
         <v>22.6</v>
       </c>
-      <c r="N26" s="10">
-        <f t="shared" si="20"/>
+      <c r="N26" s="2">
+        <f>AVERAGE(F215:F224)</f>
         <v>7236047.0999999996</v>
       </c>
-      <c r="O26" s="10">
-        <f t="shared" si="20"/>
+      <c r="O26" s="2">
+        <f>AVERAGE(G215:G224)</f>
         <v>20.6</v>
       </c>
     </row>
@@ -2464,6 +2496,19 @@
       <c r="G29">
         <v>386</v>
       </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2487,6 +2532,21 @@
       <c r="G30">
         <v>448</v>
       </c>
+      <c r="I30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2510,6 +2570,24 @@
       <c r="G31">
         <v>531</v>
       </c>
+      <c r="I31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="12">
+        <f>AVERAGE(J4:J6)</f>
+        <v>18607470.766666666</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="12">
+        <f t="shared" ref="L31:O31" si="8">AVERAGE(L4:L6)</f>
+        <v>435678570.76666665</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="12">
+        <f t="shared" ref="N31:O31" si="9">AVERAGE(N4:N6)</f>
+        <v>204068117.66666666</v>
+      </c>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2533,8 +2611,26 @@
       <c r="G32">
         <v>592</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="11">
+        <v>100</v>
+      </c>
+      <c r="J32" s="12">
+        <f>AVERAGE(J7:J9)</f>
+        <v>1873579.3703703703</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="12">
+        <f t="shared" ref="L32:O32" si="10">AVERAGE(L7:L9)</f>
+        <v>24024105.551851854</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="12">
+        <f t="shared" ref="N32:O32" si="11">AVERAGE(N7:N9)</f>
+        <v>22307362.577777777</v>
+      </c>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2556,12 +2652,48 @@
       <c r="G33">
         <v>660</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="11">
+        <v>10</v>
+      </c>
+      <c r="J33" s="12">
+        <f>AVERAGE(J10:J13)</f>
+        <v>926885.85092592577</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="12">
+        <f t="shared" ref="L33:O33" si="12">AVERAGE(L10:L13)</f>
+        <v>3676263.9259259258</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="12">
+        <f t="shared" ref="N33:O33" si="13">AVERAGE(N10:N13)</f>
+        <v>1929087.8018518519</v>
+      </c>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="F34"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="11">
+        <v>20</v>
+      </c>
+      <c r="J34" s="12">
+        <f>AVERAGE(J17:J19)</f>
+        <v>985226.5925925927</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="12">
+        <f t="shared" ref="L34:O34" si="14">AVERAGE(L17:L19)</f>
+        <v>4894519.833333333</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="12">
+        <f t="shared" ref="N34:O34" si="15">AVERAGE(N17:N19)</f>
+        <v>2888619.7148148143</v>
+      </c>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2583,8 +2715,26 @@
       <c r="G35">
         <v>1420</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="11">
+        <v>200</v>
+      </c>
+      <c r="J35" s="12">
+        <f>AVERAGE(J14:J16)</f>
+        <v>2919206.5185185187</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="12">
+        <f t="shared" ref="L35:O35" si="16">AVERAGE(L14:L16)</f>
+        <v>43000643.77407407</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="12">
+        <f t="shared" ref="N35:O35" si="17">AVERAGE(N14:N16)</f>
+        <v>43521172.05555556</v>
+      </c>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2606,8 +2756,26 @@
       <c r="G36">
         <v>1453</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="11">
+        <v>50</v>
+      </c>
+      <c r="J36" s="12">
+        <f>AVERAGE(J24:J26)</f>
+        <v>1365723.9666666666</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="12">
+        <f t="shared" ref="L36:O36" si="18">AVERAGE(L24:L26)</f>
+        <v>13668530.566666668</v>
+      </c>
+      <c r="M36" s="13"/>
+      <c r="N36" s="12">
+        <f t="shared" ref="N36:O36" si="19">AVERAGE(N24:N26)</f>
+        <v>8376367.2333333343</v>
+      </c>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2629,8 +2797,26 @@
       <c r="G37">
         <v>1932</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="11">
+        <v>500</v>
+      </c>
+      <c r="J37" s="12">
+        <f>AVERAGE(J20:J22)</f>
+        <v>11490133.166666666</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="12">
+        <f t="shared" ref="L37:O37" si="20">AVERAGE(L20:L22)</f>
+        <v>136448004.46666667</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="N37" s="12">
+        <f t="shared" ref="N37:O37" si="21">AVERAGE(N20:N22)</f>
+        <v>105946270.63333333</v>
+      </c>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2653,7 +2839,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2676,7 +2862,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2699,7 +2885,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2722,7 +2908,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2745,7 +2931,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2768,7 +2954,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2791,11 +2977,11 @@
         <v>5992</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2818,7 +3004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2841,7 +3027,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6609,140 +6795,173 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="11"/>
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="I19 I26" twoDigitTextYear="1"/>
   </ignoredErrors>

--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gravu_000\Documents\GitHub\INF4705\tp2\logs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="analyse_1" localSheetId="0">Feuil1!$A$1:$G$224</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="250">
   <si>
     <t>Nom du fichier</t>
   </si>
@@ -756,6 +751,42 @@
   </si>
   <si>
     <t>Temps(ns)</t>
+  </si>
+  <si>
+    <t>meilleur</t>
+  </si>
+  <si>
+    <t>pire</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>capacité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taille </t>
+  </si>
+  <si>
+    <t>y/f(x)</t>
   </si>
 </sst>
 </file>
@@ -813,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -875,11 +906,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,12 +954,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,6 +969,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,7 +1006,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -986,7 +1048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1021,7 +1083,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,13 +1292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O250"/>
+  <dimension ref="A1:AA250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1253,7 +1315,7 @@
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1338,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1301,20 +1363,36 @@
       <c r="I2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="15"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="18"/>
+      <c r="X2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1355,8 +1433,44 @@
       <c r="O3" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1405,8 +1519,54 @@
         <f t="shared" si="0"/>
         <v>32469.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f>Q4</f>
+        <v>1000</v>
+      </c>
+      <c r="S4" s="20">
+        <f>J4/R4</f>
+        <v>19172.238100000002</v>
+      </c>
+      <c r="T4" s="1">
+        <f>Q4^2</f>
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="1">
+        <f>J4/T4</f>
+        <v>19.172238100000001</v>
+      </c>
+      <c r="V4" s="1">
+        <f>Q4*P4</f>
+        <v>1000000</v>
+      </c>
+      <c r="W4" s="1">
+        <f>L4/(V4)</f>
+        <v>1109.4751162999999</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f>Q4</f>
+        <v>1000</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>N4/X4</f>
+        <v>220425.56890000001</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>Q4^2</f>
+        <v>1000000</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>N4/Z4</f>
+        <v>220.4255689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1455,8 +1615,54 @@
         <f t="shared" si="1"/>
         <v>3335.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>1000</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" ref="R5:R24" si="2">Q5</f>
+        <v>500</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" ref="S5:S24" si="3">J5/R5</f>
+        <v>34165.625999999997</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5:T24" si="4">Q5^2</f>
+        <v>250000</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5:U24" si="5">J5/T5</f>
+        <v>68.331252000000006</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" ref="V5:V24" si="6">Q5*P5</f>
+        <v>500000</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5:W24" si="7">L5/(V5)</f>
+        <v>295.46784980000001</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" ref="X5:X24" si="8">Q5</f>
+        <v>500</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5:Y24" si="9">N5/X5</f>
+        <v>408410.68400000001</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Z5:Z24" si="10">Q5^2</f>
+        <v>250000</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AA24" si="11">N5/Z5</f>
+        <v>816.82136800000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1486,27 +1692,73 @@
         <v>19567361.199999999</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:O6" si="2">AVERAGE(C24:C33)</f>
+        <f t="shared" ref="K6:O6" si="12">AVERAGE(C24:C33)</f>
         <v>313.89999999999998</v>
       </c>
       <c r="L6" s="2">
+        <f t="shared" si="12"/>
+        <v>49826671.100000001</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="12"/>
+        <v>421</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="12"/>
+        <v>187573442.09999999</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="12"/>
+        <v>360.3</v>
+      </c>
+      <c r="P6">
+        <v>1000</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="R6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>49826671.100000001</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="2"/>
-        <v>421</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="2"/>
-        <v>187573442.09999999</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="2"/>
-        <v>360.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="3"/>
+        <v>97836.805999999997</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="5"/>
+        <v>489.18403000000001</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="7"/>
+        <v>249.13335549999999</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="9"/>
+        <v>937867.21049999993</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="11"/>
+        <v>4689.3360524999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1536,27 +1788,73 @@
         <v>1929205</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:O7" si="3">AVERAGE(C35:C44)</f>
+        <f t="shared" ref="K7:O7" si="13">AVERAGE(C35:C44)</f>
         <v>2859.5</v>
       </c>
       <c r="L7" s="2">
+        <f t="shared" si="13"/>
+        <v>52673413.100000001</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="13"/>
+        <v>3675.7</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="13"/>
+        <v>24649228.399999999</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="13"/>
+        <v>3420.8</v>
+      </c>
+      <c r="P7">
+        <v>1000</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="20">
         <f t="shared" si="3"/>
-        <v>52673413.100000001</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="3"/>
-        <v>3675.7</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="3"/>
-        <v>24649228.399999999</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="3"/>
-        <v>3420.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19292.05</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="5"/>
+        <v>192.9205</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="7"/>
+        <v>526.73413100000005</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="9"/>
+        <v>246492.28399999999</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="11"/>
+        <v>2464.9228399999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1586,27 +1884,73 @@
         <v>1942892.2222222222</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ref="K8:O8" si="4">AVERAGE(C46:C54)</f>
+        <f t="shared" ref="K8:O8" si="14">AVERAGE(C46:C54)</f>
         <v>315.66666666666669</v>
       </c>
       <c r="L8" s="2">
+        <f t="shared" si="14"/>
+        <v>17472890.666666668</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="14"/>
+        <v>403.66666666666669</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="14"/>
+        <v>25056521.111111112</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="14"/>
+        <v>369.88888888888891</v>
+      </c>
+      <c r="P8">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="3"/>
+        <v>38857.844444444447</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>17472890.666666668</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="4"/>
-        <v>403.66666666666669</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="4"/>
-        <v>25056521.111111112</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="4"/>
-        <v>369.88888888888891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="5"/>
+        <v>777.15688888888894</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="7"/>
+        <v>349.45781333333338</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="9"/>
+        <v>501130.42222222226</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="11"/>
+        <v>10022.608444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1636,27 +1980,73 @@
         <v>1748640.888888889</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" ref="K9:O9" si="5">AVERAGE(C56:C64)</f>
+        <f t="shared" ref="K9:O9" si="15">AVERAGE(C56:C64)</f>
         <v>32.666666666666664</v>
       </c>
       <c r="L9" s="2">
+        <f t="shared" si="15"/>
+        <v>1926012.888888889</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="15"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="15"/>
+        <v>17216338.222222224</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="P9">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="3"/>
+        <v>87432.044444444444</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="5"/>
-        <v>1926012.888888889</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="5"/>
-        <v>43.333333333333336</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="5"/>
-        <v>17216338.222222224</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4371.6022222222227</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="7"/>
+        <v>96.300644444444444</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="9"/>
+        <v>860816.91111111117</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="11"/>
+        <v>43040.845555555563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1686,27 +2076,73 @@
         <v>910659.875</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ref="K10:O10" si="6">AVERAGE(C66:C73)</f>
+        <f t="shared" ref="K10:O10" si="16">AVERAGE(C66:C73)</f>
         <v>1004.75</v>
       </c>
       <c r="L10" s="2">
+        <f t="shared" si="16"/>
+        <v>9498412.5</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="16"/>
+        <v>1106.125</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="16"/>
+        <v>1939351.75</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="16"/>
+        <v>1069.375</v>
+      </c>
+      <c r="P10">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="3"/>
+        <v>91065.987500000003</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="5"/>
+        <v>9106.5987499999992</v>
+      </c>
+      <c r="V10" s="1">
         <f t="shared" si="6"/>
-        <v>9498412.5</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="6"/>
-        <v>1106.125</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="6"/>
-        <v>1939351.75</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="6"/>
-        <v>1069.375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="7"/>
+        <v>949.84124999999995</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="9"/>
+        <v>193935.17499999999</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="11"/>
+        <v>19393.517500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1736,38 +2172,150 @@
         <v>955876.9</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11:O11" si="7">AVERAGE(C75:C84)</f>
+        <f t="shared" ref="K11:O11" si="17">AVERAGE(C75:C84)</f>
         <v>89.1</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="17"/>
+        <v>918119.5</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="17"/>
+        <v>108.2</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="17"/>
+        <v>1929649.1</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="17"/>
+        <v>99.6</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="3"/>
+        <v>955.87689999999998</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95587690000000003</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="W11" s="1">
         <f t="shared" si="7"/>
-        <v>918119.5</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="7"/>
-        <v>108.2</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="7"/>
-        <v>1929649.1</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="7"/>
-        <v>99.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.1811950000000007</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="9"/>
+        <v>1929.6491000000001</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9296491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="F12"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="2">
+        <f>AVERAGE(B86:B94)</f>
+        <v>914120.77777777775</v>
+      </c>
+      <c r="K12" s="2">
+        <f>AVERAGE(C86:C94)</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L12" s="2">
+        <f>AVERAGE(D86:D94)</f>
+        <v>612259.77777777775</v>
+      </c>
+      <c r="M12" s="2">
+        <f>AVERAGE(E86:E94)</f>
+        <v>13.111111111111111</v>
+      </c>
+      <c r="N12" s="2">
+        <f>AVERAGE(F86:F94)</f>
+        <v>1918262.5555555555</v>
+      </c>
+      <c r="O12" s="2">
+        <f>AVERAGE(G86:G94)</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="3"/>
+        <v>1828.2415555555556</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6564831111111111</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="7"/>
+        <v>12.245195555555554</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="9"/>
+        <v>3836.5251111111111</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="10"/>
+        <v>250000</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="11"/>
+        <v>7.6730502222222219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1790,34 +2338,80 @@
         <v>664</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J13" s="2">
-        <f>AVERAGE(B86:B94)</f>
-        <v>914120.77777777775</v>
+        <f>AVERAGE(B96:B104)</f>
+        <v>3114161.5555555555</v>
       </c>
       <c r="K13" s="2">
-        <f>AVERAGE(C86:C94)</f>
-        <v>11.111111111111111</v>
+        <f>AVERAGE(C96:C104)</f>
+        <v>5891.1111111111113</v>
       </c>
       <c r="L13" s="2">
-        <f>AVERAGE(D86:D94)</f>
-        <v>612259.77777777775</v>
+        <f>AVERAGE(D96:D104)</f>
+        <v>77868910.222222224</v>
       </c>
       <c r="M13" s="2">
-        <f>AVERAGE(E86:E94)</f>
-        <v>13.111111111111111</v>
+        <f>AVERAGE(E96:E104)</f>
+        <v>7610.7777777777774</v>
       </c>
       <c r="N13" s="2">
-        <f>AVERAGE(F86:F94)</f>
-        <v>1918262.5555555555</v>
+        <f>AVERAGE(F96:F104)</f>
+        <v>46580486.666666664</v>
       </c>
       <c r="O13" s="2">
-        <f>AVERAGE(G86:G94)</f>
-        <v>11.333333333333334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G96:G104)</f>
+        <v>6884.2222222222226</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="3"/>
+        <v>15570.807777777778</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="5"/>
+        <v>77.854038888888894</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="7"/>
+        <v>3893.445511111111</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="9"/>
+        <v>232902.43333333332</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="11"/>
+        <v>1164.5121666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1840,34 +2434,80 @@
         <v>1254</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J14" s="2">
-        <f>AVERAGE(B96:B104)</f>
-        <v>3114161.5555555555</v>
+        <f>AVERAGE(B106:B115)</f>
+        <v>2918555.8</v>
       </c>
       <c r="K14" s="2">
-        <f>AVERAGE(C96:C104)</f>
-        <v>5891.1111111111113</v>
+        <f>AVERAGE(C106:C115)</f>
+        <v>574.9</v>
       </c>
       <c r="L14" s="2">
-        <f>AVERAGE(D96:D104)</f>
-        <v>77868910.222222224</v>
+        <f>AVERAGE(D106:D115)</f>
+        <v>41854789.799999997</v>
       </c>
       <c r="M14" s="2">
-        <f>AVERAGE(E96:E104)</f>
-        <v>7610.7777777777774</v>
+        <f>AVERAGE(E106:E115)</f>
+        <v>741</v>
       </c>
       <c r="N14" s="2">
-        <f>AVERAGE(F96:F104)</f>
-        <v>46580486.666666664</v>
+        <f>AVERAGE(F106:F115)</f>
+        <v>45450803.700000003</v>
       </c>
       <c r="O14" s="2">
-        <f>AVERAGE(G96:G104)</f>
-        <v>6884.2222222222226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G106:G115)</f>
+        <v>678.5</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="3"/>
+        <v>29185.557999999997</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="5"/>
+        <v>291.85557999999997</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="7"/>
+        <v>4185.4789799999999</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="9"/>
+        <v>454508.03700000001</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="11"/>
+        <v>4545.0803700000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1890,34 +2530,80 @@
         <v>1793</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J15" s="2">
-        <f>AVERAGE(B106:B115)</f>
-        <v>2918555.8</v>
+        <f>AVERAGE(B117:B126)</f>
+        <v>2724902.2</v>
       </c>
       <c r="K15" s="2">
-        <f>AVERAGE(C106:C115)</f>
-        <v>574.9</v>
+        <f>AVERAGE(C117:C126)</f>
+        <v>62.5</v>
       </c>
       <c r="L15" s="2">
-        <f>AVERAGE(D106:D115)</f>
-        <v>41854789.799999997</v>
+        <f>AVERAGE(D117:D126)</f>
+        <v>9278231.3000000007</v>
       </c>
       <c r="M15" s="2">
-        <f>AVERAGE(E106:E115)</f>
-        <v>741</v>
+        <f>AVERAGE(E117:E126)</f>
+        <v>83.8</v>
       </c>
       <c r="N15" s="2">
-        <f>AVERAGE(F106:F115)</f>
-        <v>45450803.700000003</v>
+        <f>AVERAGE(F117:F126)</f>
+        <v>38532225.799999997</v>
       </c>
       <c r="O15" s="2">
-        <f>AVERAGE(G106:G115)</f>
-        <v>678.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G117:G126)</f>
+        <v>73.8</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="3"/>
+        <v>54498.044000000002</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="5"/>
+        <v>1089.9608800000001</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="7"/>
+        <v>1855.6462600000002</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="9"/>
+        <v>770644.51599999995</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="11"/>
+        <v>15412.890319999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1940,34 +2626,80 @@
         <v>2426</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J16" s="2">
-        <f>AVERAGE(B117:B126)</f>
-        <v>2724902.2</v>
+        <f>AVERAGE(B128:B136)</f>
+        <v>1002141.7777777778</v>
       </c>
       <c r="K16" s="2">
-        <f>AVERAGE(C117:C126)</f>
-        <v>62.5</v>
+        <f>AVERAGE(C128:C136)</f>
+        <v>967.11111111111109</v>
       </c>
       <c r="L16" s="2">
-        <f>AVERAGE(D117:D126)</f>
-        <v>9278231.3000000007</v>
+        <f>AVERAGE(D128:D136)</f>
+        <v>12751036</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(E117:E126)</f>
-        <v>83.8</v>
+        <f>AVERAGE(E128:E136)</f>
+        <v>1235.5555555555557</v>
       </c>
       <c r="N16" s="2">
-        <f>AVERAGE(F117:F126)</f>
-        <v>38532225.799999997</v>
+        <f>AVERAGE(F128:F136)</f>
+        <v>3018903.4444444445</v>
       </c>
       <c r="O16" s="2">
-        <f>AVERAGE(G117:G126)</f>
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G128:G136)</f>
+        <v>1101.7777777777778</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="3"/>
+        <v>50107.088888888888</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="5"/>
+        <v>2505.3544444444442</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="7"/>
+        <v>6375.518</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="9"/>
+        <v>150945.17222222223</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="11"/>
+        <v>7547.2586111111113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1990,34 +2722,80 @@
         <v>3015</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J17" s="2">
-        <f>AVERAGE(B128:B136)</f>
-        <v>1002141.7777777778</v>
+        <f>AVERAGE(B138:B147)</f>
+        <v>1008420.7</v>
       </c>
       <c r="K17" s="2">
-        <f>AVERAGE(C128:C136)</f>
-        <v>967.11111111111109</v>
+        <f>AVERAGE(C138:C147)</f>
+        <v>99.2</v>
       </c>
       <c r="L17" s="2">
-        <f>AVERAGE(D128:D136)</f>
-        <v>12751036</v>
+        <f>AVERAGE(D138:D147)</f>
+        <v>1267146.3</v>
       </c>
       <c r="M17" s="2">
-        <f>AVERAGE(E128:E136)</f>
-        <v>1235.5555555555557</v>
+        <f>AVERAGE(E138:E147)</f>
+        <v>119.9</v>
       </c>
       <c r="N17" s="2">
-        <f>AVERAGE(F128:F136)</f>
-        <v>3018903.4444444445</v>
+        <f>AVERAGE(F138:F147)</f>
+        <v>2839615.4</v>
       </c>
       <c r="O17" s="2">
-        <f>AVERAGE(G128:G136)</f>
-        <v>1101.7777777777778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G138:G147)</f>
+        <v>111.1</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="3"/>
+        <v>100842.06999999999</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="5"/>
+        <v>10084.207</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="7"/>
+        <v>1267.1463000000001</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="9"/>
+        <v>283961.53999999998</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="11"/>
+        <v>28396.153999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2040,34 +2818,80 @@
         <v>3645</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J18" s="2">
-        <f>AVERAGE(B138:B147)</f>
-        <v>1008420.7</v>
+        <f>AVERAGE(B149:B158)</f>
+        <v>945117.3</v>
       </c>
       <c r="K18" s="2">
-        <f>AVERAGE(C138:C147)</f>
-        <v>99.2</v>
+        <f>AVERAGE(C149:C158)</f>
+        <v>11.7</v>
       </c>
       <c r="L18" s="2">
-        <f>AVERAGE(D138:D147)</f>
-        <v>1267146.3</v>
+        <f>AVERAGE(D149:D158)</f>
+        <v>665377.19999999995</v>
       </c>
       <c r="M18" s="2">
-        <f>AVERAGE(E138:E147)</f>
-        <v>119.9</v>
+        <f>AVERAGE(E149:E158)</f>
+        <v>13.9</v>
       </c>
       <c r="N18" s="2">
-        <f>AVERAGE(F138:F147)</f>
-        <v>2839615.4</v>
+        <f>AVERAGE(F149:F158)</f>
+        <v>2807340.3</v>
       </c>
       <c r="O18" s="2">
-        <f>AVERAGE(G138:G147)</f>
-        <v>111.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G149:G158)</f>
+        <v>13</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="3"/>
+        <v>945.1173</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.94511730000000005</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="7"/>
+        <v>66.537719999999993</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="9"/>
+        <v>2807.3402999999998</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="11"/>
+        <v>2.8073402999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2090,34 +2914,80 @@
         <v>4150</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J19" s="2">
-        <f>AVERAGE(B149:B158)</f>
-        <v>945117.3</v>
+        <f>AVERAGE(B160:B169)</f>
+        <v>12165247.300000001</v>
       </c>
       <c r="K19" s="2">
-        <f>AVERAGE(C149:C158)</f>
-        <v>11.7</v>
+        <f>AVERAGE(C160:C169)</f>
+        <v>13751.8</v>
       </c>
       <c r="L19" s="2">
-        <f>AVERAGE(D149:D158)</f>
-        <v>665377.19999999995</v>
+        <f>AVERAGE(D160:D169)</f>
+        <v>309694953.39999998</v>
       </c>
       <c r="M19" s="2">
-        <f>AVERAGE(E149:E158)</f>
-        <v>13.9</v>
+        <f>AVERAGE(E160:E169)</f>
+        <v>18027.2</v>
       </c>
       <c r="N19" s="2">
-        <f>AVERAGE(F149:F158)</f>
-        <v>2807340.3</v>
+        <f>AVERAGE(F160:F169)</f>
+        <v>114938772</v>
       </c>
       <c r="O19" s="2">
-        <f>AVERAGE(G149:G158)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G160:G169)</f>
+        <v>16239.8</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="S19" s="20">
+        <f t="shared" si="3"/>
+        <v>24330.494600000002</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="5"/>
+        <v>48.660989200000003</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="7"/>
+        <v>61938.990679999995</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="9"/>
+        <v>229877.54399999999</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="10"/>
+        <v>250000</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="11"/>
+        <v>459.755088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2140,34 +3010,80 @@
         <v>4927</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J20" s="2">
-        <f>AVERAGE(B160:B169)</f>
-        <v>12165247.300000001</v>
+        <f>AVERAGE(B171:B180)</f>
+        <v>11623733.800000001</v>
       </c>
       <c r="K20" s="2">
-        <f>AVERAGE(C160:C169)</f>
-        <v>13751.8</v>
+        <f>AVERAGE(C171:C180)</f>
+        <v>1429.5</v>
       </c>
       <c r="L20" s="2">
-        <f>AVERAGE(D160:D169)</f>
-        <v>309694953.39999998</v>
+        <f>AVERAGE(D171:D180)</f>
+        <v>64749464.799999997</v>
       </c>
       <c r="M20" s="2">
-        <f>AVERAGE(E160:E169)</f>
-        <v>18027.2</v>
+        <f>AVERAGE(E171:E180)</f>
+        <v>1858.8</v>
       </c>
       <c r="N20" s="2">
-        <f>AVERAGE(F160:F169)</f>
-        <v>114938772</v>
+        <f>AVERAGE(F171:F180)</f>
+        <v>104298181.7</v>
       </c>
       <c r="O20" s="2">
-        <f>AVERAGE(G160:G169)</f>
-        <v>16239.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G171:G180)</f>
+        <v>1676</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" si="3"/>
+        <v>58118.669000000002</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="5"/>
+        <v>290.593345</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="7"/>
+        <v>32374.732399999997</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="9"/>
+        <v>521490.90850000002</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="11"/>
+        <v>2607.4545425000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2190,34 +3106,80 @@
         <v>5469</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J21" s="2">
-        <f>AVERAGE(B171:B180)</f>
-        <v>11623733.800000001</v>
+        <f>AVERAGE(B182:B191)</f>
+        <v>10681418.4</v>
       </c>
       <c r="K21" s="2">
-        <f>AVERAGE(C171:C180)</f>
-        <v>1429.5</v>
+        <f>AVERAGE(C182:C191)</f>
+        <v>153.80000000000001</v>
       </c>
       <c r="L21" s="2">
-        <f>AVERAGE(D171:D180)</f>
-        <v>64749464.799999997</v>
+        <f>AVERAGE(D182:D191)</f>
+        <v>34899595.200000003</v>
       </c>
       <c r="M21" s="2">
-        <f>AVERAGE(E171:E180)</f>
-        <v>1858.8</v>
+        <f>AVERAGE(E182:E191)</f>
+        <v>209.5</v>
       </c>
       <c r="N21" s="2">
-        <f>AVERAGE(F171:F180)</f>
-        <v>104298181.7</v>
+        <f>AVERAGE(F182:F191)</f>
+        <v>98601858.200000003</v>
       </c>
       <c r="O21" s="2">
-        <f>AVERAGE(G171:G180)</f>
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G182:G191)</f>
+        <v>181.6</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="3"/>
+        <v>106814.18400000001</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="5"/>
+        <v>1068.14184</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="7"/>
+        <v>34899.595200000003</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="9"/>
+        <v>986018.58200000005</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="11"/>
+        <v>9860.1858200000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2240,45 +3202,157 @@
         <v>6014</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J22" s="2">
-        <f>AVERAGE(B182:B191)</f>
-        <v>10681418.4</v>
+        <f>AVERAGE(B193:B202)</f>
+        <v>1434623</v>
       </c>
       <c r="K22" s="2">
-        <f>AVERAGE(C182:C191)</f>
-        <v>153.80000000000001</v>
+        <f>AVERAGE(C193:C202)</f>
+        <v>1629.1</v>
       </c>
       <c r="L22" s="2">
-        <f>AVERAGE(D182:D191)</f>
-        <v>34899595.200000003</v>
+        <f>AVERAGE(D193:D202)</f>
+        <v>34640787.899999999</v>
       </c>
       <c r="M22" s="2">
-        <f>AVERAGE(E182:E191)</f>
-        <v>209.5</v>
+        <f>AVERAGE(E193:E202)</f>
+        <v>1967.6</v>
       </c>
       <c r="N22" s="2">
-        <f>AVERAGE(F182:F191)</f>
-        <v>98601858.200000003</v>
+        <f>AVERAGE(F193:F202)</f>
+        <v>8918489.3000000007</v>
       </c>
       <c r="O22" s="2">
-        <f>AVERAGE(G182:G191)</f>
-        <v>181.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G193:G202)</f>
+        <v>1772.1</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="3"/>
+        <v>28692.46</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="5"/>
+        <v>573.8492</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="7"/>
+        <v>69281.575799999991</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="9"/>
+        <v>178369.78600000002</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="11"/>
+        <v>3567.3957200000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="F23"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="2">
+        <f>AVERAGE(B204:B213)</f>
+        <v>1391121.4</v>
+      </c>
+      <c r="K23" s="2">
+        <f>AVERAGE(C204:C213)</f>
+        <v>162.80000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <f>AVERAGE(D204:D213)</f>
+        <v>5370102.2000000002</v>
+      </c>
+      <c r="M23" s="2">
+        <f>AVERAGE(E204:E213)</f>
+        <v>203.6</v>
+      </c>
+      <c r="N23" s="2">
+        <f>AVERAGE(F204:F213)</f>
+        <v>8974565.3000000007</v>
+      </c>
+      <c r="O23" s="2">
+        <f>AVERAGE(G204:G213)</f>
+        <v>188.2</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="3"/>
+        <v>69556.069999999992</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="5"/>
+        <v>3477.8035</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="7"/>
+        <v>26850.511000000002</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="9"/>
+        <v>448728.26500000001</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="11"/>
+        <v>22436.413250000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2301,34 +3375,80 @@
         <v>67</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J24" s="2">
-        <f>AVERAGE(B193:B202)</f>
-        <v>1434623</v>
+        <f>AVERAGE(B215:B224)</f>
+        <v>1271427.5</v>
       </c>
       <c r="K24" s="2">
-        <f>AVERAGE(C193:C202)</f>
-        <v>1629.1</v>
+        <f>AVERAGE(C215:C224)</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="L24" s="2">
-        <f>AVERAGE(D193:D202)</f>
-        <v>34640787.899999999</v>
+        <f>AVERAGE(D215:D224)</f>
+        <v>994701.6</v>
       </c>
       <c r="M24" s="2">
-        <f>AVERAGE(E193:E202)</f>
-        <v>1967.6</v>
+        <f>AVERAGE(E215:E224)</f>
+        <v>22.6</v>
       </c>
       <c r="N24" s="2">
-        <f>AVERAGE(F193:F202)</f>
-        <v>8918489.3000000007</v>
+        <f>AVERAGE(F215:F224)</f>
+        <v>7236047.0999999996</v>
       </c>
       <c r="O24" s="2">
-        <f>AVERAGE(G193:G202)</f>
-        <v>1772.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G215:G224)</f>
+        <v>20.6</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="3"/>
+        <v>127142.75</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="5"/>
+        <v>12714.275</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="7"/>
+        <v>9947.0159999999996</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="9"/>
+        <v>723604.71</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="11"/>
+        <v>72360.47099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2350,35 +3470,8 @@
       <c r="G25">
         <v>132</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J25" s="2">
-        <f>AVERAGE(B204:B213)</f>
-        <v>1391121.4</v>
-      </c>
-      <c r="K25" s="2">
-        <f>AVERAGE(C204:C213)</f>
-        <v>162.80000000000001</v>
-      </c>
-      <c r="L25" s="2">
-        <f>AVERAGE(D204:D213)</f>
-        <v>5370102.2000000002</v>
-      </c>
-      <c r="M25" s="2">
-        <f>AVERAGE(E204:E213)</f>
-        <v>203.6</v>
-      </c>
-      <c r="N25" s="2">
-        <f>AVERAGE(F204:F213)</f>
-        <v>8974565.3000000007</v>
-      </c>
-      <c r="O25" s="2">
-        <f>AVERAGE(G204:G213)</f>
-        <v>188.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2400,35 +3493,8 @@
       <c r="G26">
         <v>191</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J26" s="2">
-        <f>AVERAGE(B215:B224)</f>
-        <v>1271427.5</v>
-      </c>
-      <c r="K26" s="2">
-        <f>AVERAGE(C215:C224)</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="L26" s="2">
-        <f>AVERAGE(D215:D224)</f>
-        <v>994701.6</v>
-      </c>
-      <c r="M26" s="2">
-        <f>AVERAGE(E215:E224)</f>
-        <v>22.6</v>
-      </c>
-      <c r="N26" s="2">
-        <f>AVERAGE(F215:F224)</f>
-        <v>7236047.0999999996</v>
-      </c>
-      <c r="O26" s="2">
-        <f>AVERAGE(G215:G224)</f>
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2451,7 +3517,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2474,7 +3540,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2497,20 +3563,20 @@
         <v>386</v>
       </c>
       <c r="I29" s="8"/>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="15"/>
+      <c r="L29" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9" t="s">
+      <c r="M29" s="15"/>
+      <c r="N29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2535,20 +3601,20 @@
       <c r="I30" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="14" t="s">
+      <c r="K30" s="13"/>
+      <c r="L30" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="14" t="s">
+      <c r="M30" s="13"/>
+      <c r="N30" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2570,26 +3636,26 @@
       <c r="G31">
         <v>531</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="9">
         <v>1000</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="10">
         <f>AVERAGE(J4:J6)</f>
         <v>18607470.766666666</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12">
-        <f t="shared" ref="L31:O31" si="8">AVERAGE(L4:L6)</f>
+      <c r="K31" s="11"/>
+      <c r="L31" s="10">
+        <f>AVERAGE(L4:L6)</f>
         <v>435678570.76666665</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="12">
-        <f t="shared" ref="N31:O31" si="9">AVERAGE(N4:N6)</f>
+      <c r="M31" s="11"/>
+      <c r="N31" s="10">
+        <f>AVERAGE(N4:N6)</f>
         <v>204068117.66666666</v>
       </c>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2611,24 +3677,24 @@
       <c r="G32">
         <v>592</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="9">
         <v>100</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="10">
         <f>AVERAGE(J7:J9)</f>
         <v>1873579.3703703703</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12">
-        <f t="shared" ref="L32:O32" si="10">AVERAGE(L7:L9)</f>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10">
+        <f>AVERAGE(L7:L9)</f>
         <v>24024105.551851854</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="12">
-        <f t="shared" ref="N32:O32" si="11">AVERAGE(N7:N9)</f>
+      <c r="M32" s="11"/>
+      <c r="N32" s="10">
+        <f>AVERAGE(N7:N9)</f>
         <v>22307362.577777777</v>
       </c>
-      <c r="O32" s="13"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2652,46 +3718,46 @@
       <c r="G33">
         <v>660</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="9">
         <v>10</v>
       </c>
-      <c r="J33" s="12">
-        <f>AVERAGE(J10:J13)</f>
+      <c r="J33" s="10">
+        <f>AVERAGE(J10:J12)</f>
         <v>926885.85092592577</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="12">
-        <f t="shared" ref="L33:O33" si="12">AVERAGE(L10:L13)</f>
+      <c r="K33" s="11"/>
+      <c r="L33" s="10">
+        <f>AVERAGE(L10:L12)</f>
         <v>3676263.9259259258</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="12">
-        <f t="shared" ref="N33:O33" si="13">AVERAGE(N10:N13)</f>
+      <c r="M33" s="11"/>
+      <c r="N33" s="10">
+        <f>AVERAGE(N10:N12)</f>
         <v>1929087.8018518519</v>
       </c>
-      <c r="O33" s="13"/>
+      <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="F34"/>
-      <c r="I34" s="11">
+      <c r="I34" s="9">
         <v>20</v>
       </c>
-      <c r="J34" s="12">
-        <f>AVERAGE(J17:J19)</f>
+      <c r="J34" s="10">
+        <f>AVERAGE(J16:J18)</f>
         <v>985226.5925925927</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="12">
-        <f t="shared" ref="L34:O34" si="14">AVERAGE(L17:L19)</f>
+      <c r="K34" s="11"/>
+      <c r="L34" s="10">
+        <f>AVERAGE(L16:L18)</f>
         <v>4894519.833333333</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="12">
-        <f t="shared" ref="N34:O34" si="15">AVERAGE(N17:N19)</f>
+      <c r="M34" s="11"/>
+      <c r="N34" s="10">
+        <f>AVERAGE(N16:N18)</f>
         <v>2888619.7148148143</v>
       </c>
-      <c r="O34" s="13"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2715,24 +3781,24 @@
       <c r="G35">
         <v>1420</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9">
         <v>200</v>
       </c>
-      <c r="J35" s="12">
-        <f>AVERAGE(J14:J16)</f>
+      <c r="J35" s="10">
+        <f>AVERAGE(J13:J15)</f>
         <v>2919206.5185185187</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="12">
-        <f t="shared" ref="L35:O35" si="16">AVERAGE(L14:L16)</f>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10">
+        <f>AVERAGE(L13:L15)</f>
         <v>43000643.77407407</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="12">
-        <f t="shared" ref="N35:O35" si="17">AVERAGE(N14:N16)</f>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10">
+        <f>AVERAGE(N13:N15)</f>
         <v>43521172.05555556</v>
       </c>
-      <c r="O35" s="13"/>
+      <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2756,24 +3822,24 @@
       <c r="G36">
         <v>1453</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9">
         <v>50</v>
       </c>
-      <c r="J36" s="12">
-        <f>AVERAGE(J24:J26)</f>
+      <c r="J36" s="10">
+        <f>AVERAGE(J22:J24)</f>
         <v>1365723.9666666666</v>
       </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12">
-        <f t="shared" ref="L36:O36" si="18">AVERAGE(L24:L26)</f>
+      <c r="K36" s="11"/>
+      <c r="L36" s="10">
+        <f>AVERAGE(L22:L24)</f>
         <v>13668530.566666668</v>
       </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="12">
-        <f t="shared" ref="N36:O36" si="19">AVERAGE(N24:N26)</f>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10">
+        <f>AVERAGE(N22:N24)</f>
         <v>8376367.2333333343</v>
       </c>
-      <c r="O36" s="13"/>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2797,24 +3863,24 @@
       <c r="G37">
         <v>1932</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="9">
         <v>500</v>
       </c>
-      <c r="J37" s="12">
-        <f>AVERAGE(J20:J22)</f>
+      <c r="J37" s="10">
+        <f>AVERAGE(J19:J21)</f>
         <v>11490133.166666666</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12">
-        <f t="shared" ref="L37:O37" si="20">AVERAGE(L20:L22)</f>
+      <c r="K37" s="11"/>
+      <c r="L37" s="10">
+        <f>AVERAGE(L19:L21)</f>
         <v>136448004.46666667</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="12">
-        <f t="shared" ref="N37:O37" si="21">AVERAGE(N20:N22)</f>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10">
+        <f>AVERAGE(N19:N21)</f>
         <v>105946270.63333333</v>
       </c>
-      <c r="O37" s="13"/>
+      <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6929,42 +7995,39 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I19 I26" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -6974,7 +8037,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6986,7 +8049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="RapportVoraceMeilleurCas" sheetId="4" r:id="rId1"/>
+    <sheet name="données" sheetId="1" r:id="rId2"/>
+    <sheet name="RapportVoracePireCas" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="analyse_1" localSheetId="0">Feuil1!$A$1:$G$224</definedName>
+    <definedName name="analyse_1" localSheetId="1">données!$A$1:$G$224</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -999,6 +1001,835 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Test du rapport pour l'algorithme vorace en meilleur cas pour différentes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> capacités maximales</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$S$4:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19172.238100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34165.625999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97836.805999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19292.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38857.844444444447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87432.044444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91065.987500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$S$11:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>955.87689999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1828.2415555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15570.807777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29185.557999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54498.044000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50107.088888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100842.06999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$18:$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$S$18:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>945.1173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24330.494600000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58118.669000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106814.18400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28692.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69556.069999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127142.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116147328"/>
+        <c:axId val="116148864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116147328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Taille de l'échantillon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116148864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116148864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution sur la fonction y/f(x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116147328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Test du rapport pour l'algorithme vorace en pire cas pour différentes capacités maximales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$T$4:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$11:$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$U$11:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95587690000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6564831111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.854038888888894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.85557999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089.9608800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2505.3544444444442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10084.207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$18:$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$U$18:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.94511730000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.660989200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290.593345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1068.14184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>573.8492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3477.8035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12714.275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117176192"/>
+        <c:axId val="117177728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="117176192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taille de l'échantillon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117177728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="117177728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution sur la fonction y/f(x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117176192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8681983" cy="6306207"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="RapportVoraceMeilleurCas" sheetId="4" r:id="rId1"/>
-    <sheet name="données" sheetId="1" r:id="rId2"/>
-    <sheet name="RapportVoracePireCas" sheetId="5" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId5"/>
+    <sheet name="RapportDynamiqueMeilleurMoyenPi" sheetId="6" r:id="rId2"/>
+    <sheet name="RapportLocalMeilleur" sheetId="7" r:id="rId3"/>
+    <sheet name="RapportLocalPire" sheetId="8" r:id="rId4"/>
+    <sheet name="données" sheetId="1" r:id="rId5"/>
+    <sheet name="RapportVoracePireCas" sheetId="5" r:id="rId6"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId7"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="analyse_1" localSheetId="1">données!$A$1:$G$224</definedName>
+    <definedName name="analyse_1" localSheetId="4">données!$A$1:$G$224</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -934,12 +937,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,6 +959,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,21 +983,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,7 +1062,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1136,7 +1142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1216,7 +1222,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1295,11 +1301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116147328"/>
-        <c:axId val="116148864"/>
+        <c:axId val="116701440"/>
+        <c:axId val="116711808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116147328"/>
+        <c:axId val="116701440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,12 +1335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116148864"/>
+        <c:crossAx val="116711808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116148864"/>
+        <c:axId val="116711808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116147328"/>
+        <c:crossAx val="116701440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1383,6 +1389,1129 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test du rapport pour l'algorithme vorace en meilleur cas pour différentes capacités maximales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$W$4:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1109.4751162999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295.46784980000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.13335549999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526.73413100000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>349.45781333333338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.300644444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>949.84124999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$11:$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$W$11:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.1811950000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.245195555555554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3893.445511111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4185.4789799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1855.6462600000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6375.518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1267.1463000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$18:$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$W$18:$W$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>66.537719999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61938.990679999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32374.732399999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34899.595200000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69281.575799999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26850.511000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9947.0159999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="127594496"/>
+        <c:axId val="127596032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="127594496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taille de l'échantillon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127596032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="127596032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution sur la fonction y/f(x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127594496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test du rapport pour l'algorithme d'amélioration locale en meilleur cas pour différentes capacités maximales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$Y$4:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>220425.56890000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408410.68400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>937867.21049999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246492.28399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>501130.42222222226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>860816.91111111117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193935.17499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$Y$11:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1929.6491000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3836.5251111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232902.43333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>454508.03700000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>770644.51599999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150945.17222222223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283961.53999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$Y$18:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2807.3402999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229877.54399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>521490.90850000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>986018.58200000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178369.78600000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>448728.26500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>723604.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130226048"/>
+        <c:axId val="130227584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130226048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taille de l'échantillon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130227584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130227584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution sur la fonction y/f(x)
+</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130226048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test du rapport pour l'algorithme d'amélioration locale en pire cas pour différentes capacités maximales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$4:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$AA$4:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>220.4255689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>816.82136800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4689.3360524999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2464.9228399999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10022.608444444444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43040.845555555563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19393.517500000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$11:$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$AA$11:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9296491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6730502222222219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1164.5121666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4545.0803700000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15412.890319999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7547.2586111111113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28396.153999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10,00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>données!$Q$18:$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$AA$18:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8073402999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>459.755088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2607.4545425000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9860.1858200000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3567.3957200000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22436.413250000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72360.47099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116872320"/>
+        <c:axId val="116873856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116872320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taille de l'échantillon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116873856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116873856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution sur la fonction y/f(x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116872320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-CA"/>
@@ -1430,7 +2559,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1473,7 +2602,7 @@
             <c:numRef>
               <c:f>données!$T$4:$T$10</c:f>
               <c:numCache>
-                <c:formatCode>@</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
@@ -1510,7 +2639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1553,7 +2682,7 @@
             <c:numRef>
               <c:f>données!$U$11:$U$17</c:f>
               <c:numCache>
-                <c:formatCode>@</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.95587690000000003</c:v>
@@ -1590,7 +2719,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,7 +2762,7 @@
             <c:numRef>
               <c:f>données!$U$18:$U$24</c:f>
               <c:numCache>
-                <c:formatCode>@</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.94511730000000005</c:v>
@@ -1669,11 +2798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117176192"/>
-        <c:axId val="117177728"/>
+        <c:axId val="117189632"/>
+        <c:axId val="117191808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117176192"/>
+        <c:axId val="117189632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,12 +2832,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117177728"/>
+        <c:crossAx val="117191808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117177728"/>
+        <c:axId val="117191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,11 +2864,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117176192"/>
+        <c:crossAx val="117189632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1760,7 +2889,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1771,7 +2900,40 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1782,7 +2944,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8681983" cy="6306207"/>
+    <xdr:ext cx="8671034" cy="6295259"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -1810,6 +2972,87 @@
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8671034" cy="6295259"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2126,7 +3369,7 @@
   <dimension ref="A1:AA250"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,9 +3384,11 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -2191,37 +3436,37 @@
       <c r="G2">
         <v>6818</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="O2" s="14"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="17" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="17" t="s">
+      <c r="W2" s="10"/>
+      <c r="X2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2245,59 +3490,59 @@
       <c r="G3">
         <v>11972</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="11" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2323,76 +3568,76 @@
       <c r="G4">
         <v>18184</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="21">
         <f>AVERAGE(B2:B11)</f>
         <v>19172238.100000001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="21">
         <f>AVERAGE(C2:C11)</f>
         <v>27813.4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="21">
         <f t="shared" ref="L4:O4" si="0">AVERAGE(D2:D11)</f>
         <v>1109475116.3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="21">
         <f t="shared" si="0"/>
         <v>36469.1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="21">
         <f t="shared" si="0"/>
         <v>220425568.90000001</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="21">
         <f t="shared" si="0"/>
         <v>32469.3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="12">
         <v>1000</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="R4" s="1" t="str">
+      <c r="R4" s="12" t="str">
         <f>Q4</f>
         <v>1000</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="12">
         <f>J4/R4</f>
         <v>19172.238100000002</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="12">
         <f>Q4^2</f>
         <v>1000000</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="12">
         <f>J4/T4</f>
         <v>19.172238100000001</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="12">
         <f>Q4*P4</f>
         <v>1000000</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="12">
         <f>L4/(V4)</f>
         <v>1109.4751162999999</v>
       </c>
-      <c r="X4" s="1" t="str">
+      <c r="X4" s="12" t="str">
         <f>Q4</f>
         <v>1000</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="12">
         <f>N4/X4</f>
         <v>220425.56890000001</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="12">
         <f>Q4^2</f>
         <v>1000000</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="12">
         <f>N4/Z4</f>
         <v>220.4255689</v>
       </c>
@@ -2419,76 +3664,76 @@
       <c r="G5">
         <v>24990</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="21">
         <f>AVERAGE(B13:B22)</f>
         <v>17082813</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="21">
         <f t="shared" ref="K5:O5" si="1">AVERAGE(C13:C22)</f>
         <v>2878.4</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="21">
         <f t="shared" si="1"/>
         <v>147733924.90000001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="21">
         <f t="shared" si="1"/>
         <v>3724.7</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="21">
         <f t="shared" si="1"/>
         <v>204205342</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="21">
         <f t="shared" si="1"/>
         <v>3335.7</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="12">
         <v>1000</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="R5" s="12" t="str">
         <f t="shared" ref="R5:R24" si="2">Q5</f>
         <v>500</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="12">
         <f t="shared" ref="S5:S24" si="3">J5/R5</f>
         <v>34165.625999999997</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="12">
         <f t="shared" ref="T5:T24" si="4">Q5^2</f>
         <v>250000</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="12">
         <f t="shared" ref="U5:U24" si="5">J5/T5</f>
         <v>68.331252000000006</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="12">
         <f t="shared" ref="V5:V24" si="6">Q5*P5</f>
         <v>500000</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="12">
         <f t="shared" ref="W5:W24" si="7">L5/(V5)</f>
         <v>295.46784980000001</v>
       </c>
-      <c r="X5" s="1" t="str">
+      <c r="X5" s="12" t="str">
         <f t="shared" ref="X5:X24" si="8">Q5</f>
         <v>500</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="12">
         <f t="shared" ref="Y5:Y24" si="9">N5/X5</f>
         <v>408410.68400000001</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="12">
         <f t="shared" ref="Z5:Z24" si="10">Q5^2</f>
         <v>250000</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="12">
         <f t="shared" ref="AA5:AA24" si="11">N5/Z5</f>
         <v>816.82136800000001</v>
       </c>
@@ -2515,76 +3760,76 @@
       <c r="G6">
         <v>29798</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="21">
         <f>AVERAGE(B24:B33)</f>
         <v>19567361.199999999</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="21">
         <f t="shared" ref="K6:O6" si="12">AVERAGE(C24:C33)</f>
         <v>313.89999999999998</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="21">
         <f t="shared" si="12"/>
         <v>49826671.100000001</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="21">
         <f t="shared" si="12"/>
         <v>421</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="21">
         <f t="shared" si="12"/>
         <v>187573442.09999999</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="21">
         <f t="shared" si="12"/>
         <v>360.3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="12">
         <v>1000</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="R6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="12">
         <f t="shared" si="3"/>
         <v>97836.805999999997</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="12">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="12">
         <f t="shared" si="5"/>
         <v>489.18403000000001</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="12">
         <f t="shared" si="6"/>
         <v>200000</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="12">
         <f t="shared" si="7"/>
         <v>249.13335549999999</v>
       </c>
-      <c r="X6" s="1" t="str">
+      <c r="X6" s="12" t="str">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="12">
         <f t="shared" si="9"/>
         <v>937867.21049999993</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="12">
         <f t="shared" si="10"/>
         <v>40000</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="12">
         <f t="shared" si="11"/>
         <v>4689.3360524999998</v>
       </c>
@@ -2611,76 +3856,76 @@
       <c r="G7">
         <v>35324</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="21">
         <f>AVERAGE(B35:B44)</f>
         <v>1929205</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="21">
         <f t="shared" ref="K7:O7" si="13">AVERAGE(C35:C44)</f>
         <v>2859.5</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="21">
         <f t="shared" si="13"/>
         <v>52673413.100000001</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="21">
         <f t="shared" si="13"/>
         <v>3675.7</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="21">
         <f t="shared" si="13"/>
         <v>24649228.399999999</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="21">
         <f t="shared" si="13"/>
         <v>3420.8</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="12">
         <v>1000</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="R7" s="1" t="str">
+      <c r="R7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="12">
         <f t="shared" si="3"/>
         <v>19292.05</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="12">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="12">
         <f t="shared" si="5"/>
         <v>192.9205</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="12">
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="12">
         <f t="shared" si="7"/>
         <v>526.73413100000005</v>
       </c>
-      <c r="X7" s="1" t="str">
+      <c r="X7" s="12" t="str">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="12">
         <f t="shared" si="9"/>
         <v>246492.28399999999</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="12">
         <f t="shared" si="10"/>
         <v>10000</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="12">
         <f t="shared" si="11"/>
         <v>2464.9228399999997</v>
       </c>
@@ -2707,76 +3952,76 @@
       <c r="G8">
         <v>40463</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="21">
         <f>AVERAGE(B46:B54)</f>
         <v>1942892.2222222222</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="21">
         <f t="shared" ref="K8:O8" si="14">AVERAGE(C46:C54)</f>
         <v>315.66666666666669</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="21">
         <f t="shared" si="14"/>
         <v>17472890.666666668</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="21">
         <f t="shared" si="14"/>
         <v>403.66666666666669</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="21">
         <f t="shared" si="14"/>
         <v>25056521.111111112</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="21">
         <f t="shared" si="14"/>
         <v>369.88888888888891</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="12">
         <v>1000</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="R8" s="1" t="str">
+      <c r="R8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="12">
         <f t="shared" si="3"/>
         <v>38857.844444444447</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="12">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="12">
         <f t="shared" si="5"/>
         <v>777.15688888888894</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="12">
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="12">
         <f t="shared" si="7"/>
         <v>349.45781333333338</v>
       </c>
-      <c r="X8" s="1" t="str">
+      <c r="X8" s="12" t="str">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="12">
         <f t="shared" si="9"/>
         <v>501130.42222222226</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="12">
         <f t="shared" si="10"/>
         <v>2500</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="12">
         <f t="shared" si="11"/>
         <v>10022.608444444444</v>
       </c>
@@ -2803,76 +4048,76 @@
       <c r="G9">
         <v>45928</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="21">
         <f>AVERAGE(B56:B64)</f>
         <v>1748640.888888889</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="21">
         <f t="shared" ref="K9:O9" si="15">AVERAGE(C56:C64)</f>
         <v>32.666666666666664</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="21">
         <f t="shared" si="15"/>
         <v>1926012.888888889</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="21">
         <f t="shared" si="15"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="21">
         <f t="shared" si="15"/>
         <v>17216338.222222224</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="21">
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="12">
         <v>1000</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="R9" s="1" t="str">
+      <c r="R9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="12">
         <f t="shared" si="3"/>
         <v>87432.044444444444</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="12">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="12">
         <f t="shared" si="5"/>
         <v>4371.6022222222227</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="12">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="12">
         <f t="shared" si="7"/>
         <v>96.300644444444444</v>
       </c>
-      <c r="X9" s="1" t="str">
+      <c r="X9" s="12" t="str">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="12">
         <f t="shared" si="9"/>
         <v>860816.91111111117</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="12">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="12">
         <f t="shared" si="11"/>
         <v>43040.845555555563</v>
       </c>
@@ -2899,76 +4144,76 @@
       <c r="G10">
         <v>53381</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="21">
         <f>AVERAGE(B66:B73)</f>
         <v>910659.875</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="21">
         <f t="shared" ref="K10:O10" si="16">AVERAGE(C66:C73)</f>
         <v>1004.75</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="21">
         <f t="shared" si="16"/>
         <v>9498412.5</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="21">
         <f t="shared" si="16"/>
         <v>1106.125</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="21">
         <f t="shared" si="16"/>
         <v>1939351.75</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="21">
         <f t="shared" si="16"/>
         <v>1069.375</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="12">
         <v>1000</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="R10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="12">
         <f t="shared" si="3"/>
         <v>91065.987500000003</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="12">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="12">
         <f t="shared" si="5"/>
         <v>9106.5987499999992</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="12">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="12">
         <f t="shared" si="7"/>
         <v>949.84124999999995</v>
       </c>
-      <c r="X10" s="1" t="str">
+      <c r="X10" s="12" t="str">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="12">
         <f t="shared" si="9"/>
         <v>193935.17499999999</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="12">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="12">
         <f t="shared" si="11"/>
         <v>19393.517500000002</v>
       </c>
@@ -2995,76 +4240,76 @@
       <c r="G11">
         <v>57835</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="21">
         <f>AVERAGE(B75:B84)</f>
         <v>955876.9</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="21">
         <f t="shared" ref="K11:O11" si="17">AVERAGE(C75:C84)</f>
         <v>89.1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="21">
         <f t="shared" si="17"/>
         <v>918119.5</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="21">
         <f t="shared" si="17"/>
         <v>108.2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="21">
         <f t="shared" si="17"/>
         <v>1929649.1</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="21">
         <f t="shared" si="17"/>
         <v>99.6</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="12">
         <v>100</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="R11" s="1" t="str">
+      <c r="R11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="12">
         <f t="shared" si="3"/>
         <v>955.87689999999998</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="12">
         <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="12">
         <f t="shared" si="5"/>
         <v>0.95587690000000003</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="12">
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="12">
         <f t="shared" si="7"/>
         <v>9.1811950000000007</v>
       </c>
-      <c r="X11" s="1" t="str">
+      <c r="X11" s="12" t="str">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="12">
         <f t="shared" si="9"/>
         <v>1929.6491000000001</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="12">
         <f t="shared" si="10"/>
         <v>1000000</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="12">
         <f t="shared" si="11"/>
         <v>1.9296491</v>
       </c>
@@ -3072,76 +4317,76 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="F12"/>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="2">
-        <f>AVERAGE(B86:B94)</f>
+      <c r="J12" s="21">
+        <f t="shared" ref="J12:O12" si="18">AVERAGE(B86:B94)</f>
         <v>914120.77777777775</v>
       </c>
-      <c r="K12" s="2">
-        <f>AVERAGE(C86:C94)</f>
+      <c r="K12" s="21">
+        <f t="shared" si="18"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="L12" s="2">
-        <f>AVERAGE(D86:D94)</f>
+      <c r="L12" s="21">
+        <f t="shared" si="18"/>
         <v>612259.77777777775</v>
       </c>
-      <c r="M12" s="2">
-        <f>AVERAGE(E86:E94)</f>
+      <c r="M12" s="21">
+        <f t="shared" si="18"/>
         <v>13.111111111111111</v>
       </c>
-      <c r="N12" s="2">
-        <f>AVERAGE(F86:F94)</f>
+      <c r="N12" s="21">
+        <f t="shared" si="18"/>
         <v>1918262.5555555555</v>
       </c>
-      <c r="O12" s="2">
-        <f>AVERAGE(G86:G94)</f>
+      <c r="O12" s="21">
+        <f t="shared" si="18"/>
         <v>11.333333333333334</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="12">
         <v>100</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="R12" s="1" t="str">
+      <c r="R12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="12">
         <f t="shared" si="3"/>
         <v>1828.2415555555556</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="12">
         <f t="shared" si="4"/>
         <v>250000</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="12">
         <f t="shared" si="5"/>
         <v>3.6564831111111111</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="12">
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="12">
         <f t="shared" si="7"/>
         <v>12.245195555555554</v>
       </c>
-      <c r="X12" s="1" t="str">
+      <c r="X12" s="12" t="str">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="12">
         <f t="shared" si="9"/>
         <v>3836.5251111111111</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="12">
         <f t="shared" si="10"/>
         <v>250000</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="12">
         <f t="shared" si="11"/>
         <v>7.6730502222222219</v>
       </c>
@@ -3168,76 +4413,76 @@
       <c r="G13">
         <v>664</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J13" s="2">
-        <f>AVERAGE(B96:B104)</f>
+      <c r="J13" s="21">
+        <f t="shared" ref="J13:O13" si="19">AVERAGE(B96:B104)</f>
         <v>3114161.5555555555</v>
       </c>
-      <c r="K13" s="2">
-        <f>AVERAGE(C96:C104)</f>
+      <c r="K13" s="21">
+        <f t="shared" si="19"/>
         <v>5891.1111111111113</v>
       </c>
-      <c r="L13" s="2">
-        <f>AVERAGE(D96:D104)</f>
+      <c r="L13" s="21">
+        <f t="shared" si="19"/>
         <v>77868910.222222224</v>
       </c>
-      <c r="M13" s="2">
-        <f>AVERAGE(E96:E104)</f>
+      <c r="M13" s="21">
+        <f t="shared" si="19"/>
         <v>7610.7777777777774</v>
       </c>
-      <c r="N13" s="2">
-        <f>AVERAGE(F96:F104)</f>
+      <c r="N13" s="21">
+        <f t="shared" si="19"/>
         <v>46580486.666666664</v>
       </c>
-      <c r="O13" s="2">
-        <f>AVERAGE(G96:G104)</f>
+      <c r="O13" s="21">
+        <f t="shared" si="19"/>
         <v>6884.2222222222226</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="12">
         <v>100</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="R13" s="12" t="str">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="12">
         <f t="shared" si="3"/>
         <v>15570.807777777778</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="12">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="12">
         <f t="shared" si="5"/>
         <v>77.854038888888894</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="12">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="12">
         <f t="shared" si="7"/>
         <v>3893.445511111111</v>
       </c>
-      <c r="X13" s="1" t="str">
+      <c r="X13" s="12" t="str">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="12">
         <f t="shared" si="9"/>
         <v>232902.43333333332</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="12">
         <f t="shared" si="10"/>
         <v>40000</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="12">
         <f t="shared" si="11"/>
         <v>1164.5121666666666</v>
       </c>
@@ -3264,76 +4509,76 @@
       <c r="G14">
         <v>1254</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J14" s="2">
-        <f>AVERAGE(B106:B115)</f>
+      <c r="J14" s="21">
+        <f t="shared" ref="J14:O14" si="20">AVERAGE(B106:B115)</f>
         <v>2918555.8</v>
       </c>
-      <c r="K14" s="2">
-        <f>AVERAGE(C106:C115)</f>
+      <c r="K14" s="21">
+        <f t="shared" si="20"/>
         <v>574.9</v>
       </c>
-      <c r="L14" s="2">
-        <f>AVERAGE(D106:D115)</f>
+      <c r="L14" s="21">
+        <f t="shared" si="20"/>
         <v>41854789.799999997</v>
       </c>
-      <c r="M14" s="2">
-        <f>AVERAGE(E106:E115)</f>
+      <c r="M14" s="21">
+        <f t="shared" si="20"/>
         <v>741</v>
       </c>
-      <c r="N14" s="2">
-        <f>AVERAGE(F106:F115)</f>
+      <c r="N14" s="21">
+        <f t="shared" si="20"/>
         <v>45450803.700000003</v>
       </c>
-      <c r="O14" s="2">
-        <f>AVERAGE(G106:G115)</f>
+      <c r="O14" s="21">
+        <f t="shared" si="20"/>
         <v>678.5</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="12">
         <v>100</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="R14" s="1" t="str">
+      <c r="R14" s="12" t="str">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="12">
         <f t="shared" si="3"/>
         <v>29185.557999999997</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="12">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="12">
         <f t="shared" si="5"/>
         <v>291.85557999999997</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="12">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="12">
         <f t="shared" si="7"/>
         <v>4185.4789799999999</v>
       </c>
-      <c r="X14" s="1" t="str">
+      <c r="X14" s="12" t="str">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="12">
         <f t="shared" si="9"/>
         <v>454508.03700000001</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="12">
         <f t="shared" si="10"/>
         <v>10000</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="12">
         <f t="shared" si="11"/>
         <v>4545.0803700000006</v>
       </c>
@@ -3360,76 +4605,76 @@
       <c r="G15">
         <v>1793</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="2">
-        <f>AVERAGE(B117:B126)</f>
+      <c r="J15" s="21">
+        <f t="shared" ref="J15:O15" si="21">AVERAGE(B117:B126)</f>
         <v>2724902.2</v>
       </c>
-      <c r="K15" s="2">
-        <f>AVERAGE(C117:C126)</f>
+      <c r="K15" s="21">
+        <f t="shared" si="21"/>
         <v>62.5</v>
       </c>
-      <c r="L15" s="2">
-        <f>AVERAGE(D117:D126)</f>
+      <c r="L15" s="21">
+        <f t="shared" si="21"/>
         <v>9278231.3000000007</v>
       </c>
-      <c r="M15" s="2">
-        <f>AVERAGE(E117:E126)</f>
+      <c r="M15" s="21">
+        <f t="shared" si="21"/>
         <v>83.8</v>
       </c>
-      <c r="N15" s="2">
-        <f>AVERAGE(F117:F126)</f>
+      <c r="N15" s="21">
+        <f t="shared" si="21"/>
         <v>38532225.799999997</v>
       </c>
-      <c r="O15" s="2">
-        <f>AVERAGE(G117:G126)</f>
+      <c r="O15" s="21">
+        <f t="shared" si="21"/>
         <v>73.8</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="12">
         <v>100</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="R15" s="1" t="str">
+      <c r="R15" s="12" t="str">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="12">
         <f t="shared" si="3"/>
         <v>54498.044000000002</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="12">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="12">
         <f t="shared" si="5"/>
         <v>1089.9608800000001</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="12">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="12">
         <f t="shared" si="7"/>
         <v>1855.6462600000002</v>
       </c>
-      <c r="X15" s="1" t="str">
+      <c r="X15" s="12" t="str">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="12">
         <f t="shared" si="9"/>
         <v>770644.51599999995</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="12">
         <f t="shared" si="10"/>
         <v>2500</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="12">
         <f t="shared" si="11"/>
         <v>15412.890319999999</v>
       </c>
@@ -3456,76 +4701,76 @@
       <c r="G16">
         <v>2426</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="2">
-        <f>AVERAGE(B128:B136)</f>
+      <c r="J16" s="21">
+        <f t="shared" ref="J16:O16" si="22">AVERAGE(B128:B136)</f>
         <v>1002141.7777777778</v>
       </c>
-      <c r="K16" s="2">
-        <f>AVERAGE(C128:C136)</f>
+      <c r="K16" s="21">
+        <f t="shared" si="22"/>
         <v>967.11111111111109</v>
       </c>
-      <c r="L16" s="2">
-        <f>AVERAGE(D128:D136)</f>
+      <c r="L16" s="21">
+        <f t="shared" si="22"/>
         <v>12751036</v>
       </c>
-      <c r="M16" s="2">
-        <f>AVERAGE(E128:E136)</f>
+      <c r="M16" s="21">
+        <f t="shared" si="22"/>
         <v>1235.5555555555557</v>
       </c>
-      <c r="N16" s="2">
-        <f>AVERAGE(F128:F136)</f>
+      <c r="N16" s="21">
+        <f t="shared" si="22"/>
         <v>3018903.4444444445</v>
       </c>
-      <c r="O16" s="2">
-        <f>AVERAGE(G128:G136)</f>
+      <c r="O16" s="21">
+        <f t="shared" si="22"/>
         <v>1101.7777777777778</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="12">
         <v>100</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="R16" s="1" t="str">
+      <c r="R16" s="12" t="str">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="12">
         <f t="shared" si="3"/>
         <v>50107.088888888888</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="12">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="12">
         <f t="shared" si="5"/>
         <v>2505.3544444444442</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="12">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="12">
         <f t="shared" si="7"/>
         <v>6375.518</v>
       </c>
-      <c r="X16" s="1" t="str">
+      <c r="X16" s="12" t="str">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="12">
         <f t="shared" si="9"/>
         <v>150945.17222222223</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="12">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="12">
         <f t="shared" si="11"/>
         <v>7547.2586111111113</v>
       </c>
@@ -3552,76 +4797,76 @@
       <c r="G17">
         <v>3015</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J17" s="2">
-        <f>AVERAGE(B138:B147)</f>
+      <c r="J17" s="21">
+        <f t="shared" ref="J17:O17" si="23">AVERAGE(B138:B147)</f>
         <v>1008420.7</v>
       </c>
-      <c r="K17" s="2">
-        <f>AVERAGE(C138:C147)</f>
+      <c r="K17" s="21">
+        <f t="shared" si="23"/>
         <v>99.2</v>
       </c>
-      <c r="L17" s="2">
-        <f>AVERAGE(D138:D147)</f>
+      <c r="L17" s="21">
+        <f t="shared" si="23"/>
         <v>1267146.3</v>
       </c>
-      <c r="M17" s="2">
-        <f>AVERAGE(E138:E147)</f>
+      <c r="M17" s="21">
+        <f t="shared" si="23"/>
         <v>119.9</v>
       </c>
-      <c r="N17" s="2">
-        <f>AVERAGE(F138:F147)</f>
+      <c r="N17" s="21">
+        <f t="shared" si="23"/>
         <v>2839615.4</v>
       </c>
-      <c r="O17" s="2">
-        <f>AVERAGE(G138:G147)</f>
+      <c r="O17" s="21">
+        <f t="shared" si="23"/>
         <v>111.1</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="12">
         <v>100</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="R17" s="1" t="str">
+      <c r="R17" s="12" t="str">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="12">
         <f t="shared" si="3"/>
         <v>100842.06999999999</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="12">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="12">
         <f t="shared" si="5"/>
         <v>10084.207</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="12">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="12">
         <f t="shared" si="7"/>
         <v>1267.1463000000001</v>
       </c>
-      <c r="X17" s="1" t="str">
+      <c r="X17" s="12" t="str">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="12">
         <f t="shared" si="9"/>
         <v>283961.53999999998</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="12">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="12">
         <f t="shared" si="11"/>
         <v>28396.153999999999</v>
       </c>
@@ -3648,76 +4893,76 @@
       <c r="G18">
         <v>3645</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J18" s="2">
-        <f>AVERAGE(B149:B158)</f>
+      <c r="J18" s="21">
+        <f t="shared" ref="J18:O18" si="24">AVERAGE(B149:B158)</f>
         <v>945117.3</v>
       </c>
-      <c r="K18" s="2">
-        <f>AVERAGE(C149:C158)</f>
+      <c r="K18" s="21">
+        <f t="shared" si="24"/>
         <v>11.7</v>
       </c>
-      <c r="L18" s="2">
-        <f>AVERAGE(D149:D158)</f>
+      <c r="L18" s="21">
+        <f t="shared" si="24"/>
         <v>665377.19999999995</v>
       </c>
-      <c r="M18" s="2">
-        <f>AVERAGE(E149:E158)</f>
+      <c r="M18" s="21">
+        <f t="shared" si="24"/>
         <v>13.9</v>
       </c>
-      <c r="N18" s="2">
-        <f>AVERAGE(F149:F158)</f>
+      <c r="N18" s="21">
+        <f t="shared" si="24"/>
         <v>2807340.3</v>
       </c>
-      <c r="O18" s="2">
-        <f>AVERAGE(G149:G158)</f>
+      <c r="O18" s="21">
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="12">
         <v>10</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="R18" s="1" t="str">
+      <c r="R18" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="12">
         <f t="shared" si="3"/>
         <v>945.1173</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="12">
         <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="12">
         <f t="shared" si="5"/>
         <v>0.94511730000000005</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="12">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="12">
         <f t="shared" si="7"/>
         <v>66.537719999999993</v>
       </c>
-      <c r="X18" s="1" t="str">
+      <c r="X18" s="12" t="str">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="12">
         <f t="shared" si="9"/>
         <v>2807.3402999999998</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="12">
         <f t="shared" si="10"/>
         <v>1000000</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="12">
         <f t="shared" si="11"/>
         <v>2.8073402999999999</v>
       </c>
@@ -3744,76 +4989,76 @@
       <c r="G19">
         <v>4150</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="J19" s="2">
-        <f>AVERAGE(B160:B169)</f>
+      <c r="J19" s="21">
+        <f t="shared" ref="J19:O19" si="25">AVERAGE(B160:B169)</f>
         <v>12165247.300000001</v>
       </c>
-      <c r="K19" s="2">
-        <f>AVERAGE(C160:C169)</f>
+      <c r="K19" s="21">
+        <f t="shared" si="25"/>
         <v>13751.8</v>
       </c>
-      <c r="L19" s="2">
-        <f>AVERAGE(D160:D169)</f>
+      <c r="L19" s="21">
+        <f t="shared" si="25"/>
         <v>309694953.39999998</v>
       </c>
-      <c r="M19" s="2">
-        <f>AVERAGE(E160:E169)</f>
+      <c r="M19" s="21">
+        <f t="shared" si="25"/>
         <v>18027.2</v>
       </c>
-      <c r="N19" s="2">
-        <f>AVERAGE(F160:F169)</f>
+      <c r="N19" s="21">
+        <f t="shared" si="25"/>
         <v>114938772</v>
       </c>
-      <c r="O19" s="2">
-        <f>AVERAGE(G160:G169)</f>
+      <c r="O19" s="21">
+        <f t="shared" si="25"/>
         <v>16239.8</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="12">
         <v>10</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="R19" s="1" t="str">
+      <c r="R19" s="12" t="str">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="12">
         <f t="shared" si="3"/>
         <v>24330.494600000002</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="12">
         <f t="shared" si="4"/>
         <v>250000</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="12">
         <f t="shared" si="5"/>
         <v>48.660989200000003</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="12">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="12">
         <f t="shared" si="7"/>
         <v>61938.990679999995</v>
       </c>
-      <c r="X19" s="1" t="str">
+      <c r="X19" s="12" t="str">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="12">
         <f t="shared" si="9"/>
         <v>229877.54399999999</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="12">
         <f t="shared" si="10"/>
         <v>250000</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19" s="12">
         <f t="shared" si="11"/>
         <v>459.755088</v>
       </c>
@@ -3840,76 +5085,76 @@
       <c r="G20">
         <v>4927</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J20" s="2">
-        <f>AVERAGE(B171:B180)</f>
+      <c r="J20" s="21">
+        <f t="shared" ref="J20:O20" si="26">AVERAGE(B171:B180)</f>
         <v>11623733.800000001</v>
       </c>
-      <c r="K20" s="2">
-        <f>AVERAGE(C171:C180)</f>
+      <c r="K20" s="21">
+        <f t="shared" si="26"/>
         <v>1429.5</v>
       </c>
-      <c r="L20" s="2">
-        <f>AVERAGE(D171:D180)</f>
+      <c r="L20" s="21">
+        <f t="shared" si="26"/>
         <v>64749464.799999997</v>
       </c>
-      <c r="M20" s="2">
-        <f>AVERAGE(E171:E180)</f>
+      <c r="M20" s="21">
+        <f t="shared" si="26"/>
         <v>1858.8</v>
       </c>
-      <c r="N20" s="2">
-        <f>AVERAGE(F171:F180)</f>
+      <c r="N20" s="21">
+        <f t="shared" si="26"/>
         <v>104298181.7</v>
       </c>
-      <c r="O20" s="2">
-        <f>AVERAGE(G171:G180)</f>
+      <c r="O20" s="21">
+        <f t="shared" si="26"/>
         <v>1676</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="12">
         <v>10</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="R20" s="1" t="str">
+      <c r="R20" s="12" t="str">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="12">
         <f t="shared" si="3"/>
         <v>58118.669000000002</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="12">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="12">
         <f t="shared" si="5"/>
         <v>290.593345</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="12">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="12">
         <f t="shared" si="7"/>
         <v>32374.732399999997</v>
       </c>
-      <c r="X20" s="1" t="str">
+      <c r="X20" s="12" t="str">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="12">
         <f t="shared" si="9"/>
         <v>521490.90850000002</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="12">
         <f t="shared" si="10"/>
         <v>40000</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20" s="12">
         <f t="shared" si="11"/>
         <v>2607.4545425000001</v>
       </c>
@@ -3936,76 +5181,76 @@
       <c r="G21">
         <v>5469</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="2">
-        <f>AVERAGE(B182:B191)</f>
+      <c r="J21" s="21">
+        <f t="shared" ref="J21:O21" si="27">AVERAGE(B182:B191)</f>
         <v>10681418.4</v>
       </c>
-      <c r="K21" s="2">
-        <f>AVERAGE(C182:C191)</f>
+      <c r="K21" s="21">
+        <f t="shared" si="27"/>
         <v>153.80000000000001</v>
       </c>
-      <c r="L21" s="2">
-        <f>AVERAGE(D182:D191)</f>
+      <c r="L21" s="21">
+        <f t="shared" si="27"/>
         <v>34899595.200000003</v>
       </c>
-      <c r="M21" s="2">
-        <f>AVERAGE(E182:E191)</f>
+      <c r="M21" s="21">
+        <f t="shared" si="27"/>
         <v>209.5</v>
       </c>
-      <c r="N21" s="2">
-        <f>AVERAGE(F182:F191)</f>
+      <c r="N21" s="21">
+        <f t="shared" si="27"/>
         <v>98601858.200000003</v>
       </c>
-      <c r="O21" s="2">
-        <f>AVERAGE(G182:G191)</f>
+      <c r="O21" s="21">
+        <f t="shared" si="27"/>
         <v>181.6</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="12">
         <v>10</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="R21" s="1" t="str">
+      <c r="R21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="12">
         <f t="shared" si="3"/>
         <v>106814.18400000001</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="12">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="12">
         <f t="shared" si="5"/>
         <v>1068.14184</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="12">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="12">
         <f t="shared" si="7"/>
         <v>34899.595200000003</v>
       </c>
-      <c r="X21" s="1" t="str">
+      <c r="X21" s="12" t="str">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="12">
         <f t="shared" si="9"/>
         <v>986018.58200000005</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="12">
         <f t="shared" si="10"/>
         <v>10000</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="12">
         <f t="shared" si="11"/>
         <v>9860.1858200000006</v>
       </c>
@@ -4032,76 +5277,76 @@
       <c r="G22">
         <v>6014</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="2">
-        <f>AVERAGE(B193:B202)</f>
+      <c r="J22" s="21">
+        <f t="shared" ref="J22:O22" si="28">AVERAGE(B193:B202)</f>
         <v>1434623</v>
       </c>
-      <c r="K22" s="2">
-        <f>AVERAGE(C193:C202)</f>
+      <c r="K22" s="21">
+        <f t="shared" si="28"/>
         <v>1629.1</v>
       </c>
-      <c r="L22" s="2">
-        <f>AVERAGE(D193:D202)</f>
+      <c r="L22" s="21">
+        <f t="shared" si="28"/>
         <v>34640787.899999999</v>
       </c>
-      <c r="M22" s="2">
-        <f>AVERAGE(E193:E202)</f>
+      <c r="M22" s="21">
+        <f t="shared" si="28"/>
         <v>1967.6</v>
       </c>
-      <c r="N22" s="2">
-        <f>AVERAGE(F193:F202)</f>
+      <c r="N22" s="21">
+        <f t="shared" si="28"/>
         <v>8918489.3000000007</v>
       </c>
-      <c r="O22" s="2">
-        <f>AVERAGE(G193:G202)</f>
+      <c r="O22" s="21">
+        <f t="shared" si="28"/>
         <v>1772.1</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="12">
         <v>10</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="R22" s="1" t="str">
+      <c r="R22" s="12" t="str">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="12">
         <f t="shared" si="3"/>
         <v>28692.46</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="12">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="12">
         <f t="shared" si="5"/>
         <v>573.8492</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="12">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="12">
         <f t="shared" si="7"/>
         <v>69281.575799999991</v>
       </c>
-      <c r="X22" s="1" t="str">
+      <c r="X22" s="12" t="str">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="12">
         <f t="shared" si="9"/>
         <v>178369.78600000002</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="12">
         <f t="shared" si="10"/>
         <v>2500</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="12">
         <f t="shared" si="11"/>
         <v>3567.3957200000004</v>
       </c>
@@ -4109,76 +5354,76 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="F23"/>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J23" s="2">
-        <f>AVERAGE(B204:B213)</f>
+      <c r="J23" s="21">
+        <f t="shared" ref="J23:O23" si="29">AVERAGE(B204:B213)</f>
         <v>1391121.4</v>
       </c>
-      <c r="K23" s="2">
-        <f>AVERAGE(C204:C213)</f>
+      <c r="K23" s="21">
+        <f t="shared" si="29"/>
         <v>162.80000000000001</v>
       </c>
-      <c r="L23" s="2">
-        <f>AVERAGE(D204:D213)</f>
+      <c r="L23" s="21">
+        <f t="shared" si="29"/>
         <v>5370102.2000000002</v>
       </c>
-      <c r="M23" s="2">
-        <f>AVERAGE(E204:E213)</f>
+      <c r="M23" s="21">
+        <f t="shared" si="29"/>
         <v>203.6</v>
       </c>
-      <c r="N23" s="2">
-        <f>AVERAGE(F204:F213)</f>
+      <c r="N23" s="21">
+        <f t="shared" si="29"/>
         <v>8974565.3000000007</v>
       </c>
-      <c r="O23" s="2">
-        <f>AVERAGE(G204:G213)</f>
+      <c r="O23" s="21">
+        <f t="shared" si="29"/>
         <v>188.2</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="12">
         <v>10</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="R23" s="1" t="str">
+      <c r="R23" s="12" t="str">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="12">
         <f t="shared" si="3"/>
         <v>69556.069999999992</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="12">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="12">
         <f t="shared" si="5"/>
         <v>3477.8035</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="12">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="12">
         <f t="shared" si="7"/>
         <v>26850.511000000002</v>
       </c>
-      <c r="X23" s="1" t="str">
+      <c r="X23" s="12" t="str">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="12">
         <f t="shared" si="9"/>
         <v>448728.26500000001</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="12">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA23" s="12">
         <f t="shared" si="11"/>
         <v>22436.413250000001</v>
       </c>
@@ -4205,76 +5450,76 @@
       <c r="G24">
         <v>67</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="2">
-        <f>AVERAGE(B215:B224)</f>
+      <c r="J24" s="21">
+        <f t="shared" ref="J24:O24" si="30">AVERAGE(B215:B224)</f>
         <v>1271427.5</v>
       </c>
-      <c r="K24" s="2">
-        <f>AVERAGE(C215:C224)</f>
+      <c r="K24" s="21">
+        <f t="shared" si="30"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="L24" s="2">
-        <f>AVERAGE(D215:D224)</f>
+      <c r="L24" s="21">
+        <f t="shared" si="30"/>
         <v>994701.6</v>
       </c>
-      <c r="M24" s="2">
-        <f>AVERAGE(E215:E224)</f>
+      <c r="M24" s="21">
+        <f t="shared" si="30"/>
         <v>22.6</v>
       </c>
-      <c r="N24" s="2">
-        <f>AVERAGE(F215:F224)</f>
+      <c r="N24" s="21">
+        <f t="shared" si="30"/>
         <v>7236047.0999999996</v>
       </c>
-      <c r="O24" s="2">
-        <f>AVERAGE(G215:G224)</f>
+      <c r="O24" s="21">
+        <f t="shared" si="30"/>
         <v>20.6</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="12">
         <v>10</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="R24" s="1" t="str">
+      <c r="R24" s="12" t="str">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="12">
         <f t="shared" si="3"/>
         <v>127142.75</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="12">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="12">
         <f t="shared" si="5"/>
         <v>12714.275</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="12">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="12">
         <f t="shared" si="7"/>
         <v>9947.0159999999996</v>
       </c>
-      <c r="X24" s="1" t="str">
+      <c r="X24" s="12" t="str">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="12">
         <f t="shared" si="9"/>
         <v>723604.71</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24" s="12">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="12">
         <f t="shared" si="11"/>
         <v>72360.47099999999</v>
       </c>
@@ -4393,19 +5638,19 @@
       <c r="G29">
         <v>386</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="14" t="s">
+      <c r="I29" s="7"/>
+      <c r="J29" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="14" t="s">
+      <c r="K29" s="14"/>
+      <c r="L29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14" t="s">
+      <c r="M29" s="14"/>
+      <c r="N29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="15"/>
+      <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4429,21 +5674,21 @@
       <c r="G30">
         <v>448</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12" t="s">
+      <c r="K30" s="18"/>
+      <c r="L30" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="12" t="s">
+      <c r="M30" s="18"/>
+      <c r="N30" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="O30" s="13"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4467,24 +5712,24 @@
       <c r="G31">
         <v>531</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>1000</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="15">
         <f>AVERAGE(J4:J6)</f>
         <v>18607470.766666666</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="10">
+      <c r="K31" s="16"/>
+      <c r="L31" s="15">
         <f>AVERAGE(L4:L6)</f>
         <v>435678570.76666665</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="10">
+      <c r="M31" s="16"/>
+      <c r="N31" s="15">
         <f>AVERAGE(N4:N6)</f>
         <v>204068117.66666666</v>
       </c>
-      <c r="O31" s="11"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4508,24 +5753,24 @@
       <c r="G32">
         <v>592</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>100</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="15">
         <f>AVERAGE(J7:J9)</f>
         <v>1873579.3703703703</v>
       </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="10">
+      <c r="K32" s="16"/>
+      <c r="L32" s="15">
         <f>AVERAGE(L7:L9)</f>
         <v>24024105.551851854</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="10">
+      <c r="M32" s="16"/>
+      <c r="N32" s="15">
         <f>AVERAGE(N7:N9)</f>
         <v>22307362.577777777</v>
       </c>
-      <c r="O32" s="11"/>
+      <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4549,46 +5794,46 @@
       <c r="G33">
         <v>660</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>10</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="15">
         <f>AVERAGE(J10:J12)</f>
         <v>926885.85092592577</v>
       </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="10">
+      <c r="K33" s="16"/>
+      <c r="L33" s="15">
         <f>AVERAGE(L10:L12)</f>
         <v>3676263.9259259258</v>
       </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="10">
+      <c r="M33" s="16"/>
+      <c r="N33" s="15">
         <f>AVERAGE(N10:N12)</f>
         <v>1929087.8018518519</v>
       </c>
-      <c r="O33" s="11"/>
+      <c r="O33" s="16"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="F34"/>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>20</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="15">
         <f>AVERAGE(J16:J18)</f>
         <v>985226.5925925927</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="10">
+      <c r="K34" s="16"/>
+      <c r="L34" s="15">
         <f>AVERAGE(L16:L18)</f>
         <v>4894519.833333333</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="10">
+      <c r="M34" s="16"/>
+      <c r="N34" s="15">
         <f>AVERAGE(N16:N18)</f>
         <v>2888619.7148148143</v>
       </c>
-      <c r="O34" s="11"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4612,24 +5857,24 @@
       <c r="G35">
         <v>1420</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>200</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="15">
         <f>AVERAGE(J13:J15)</f>
         <v>2919206.5185185187</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="10">
+      <c r="K35" s="16"/>
+      <c r="L35" s="15">
         <f>AVERAGE(L13:L15)</f>
         <v>43000643.77407407</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="10">
+      <c r="M35" s="16"/>
+      <c r="N35" s="15">
         <f>AVERAGE(N13:N15)</f>
         <v>43521172.05555556</v>
       </c>
-      <c r="O35" s="11"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4653,24 +5898,24 @@
       <c r="G36">
         <v>1453</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>50</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="15">
         <f>AVERAGE(J22:J24)</f>
         <v>1365723.9666666666</v>
       </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="10">
+      <c r="K36" s="16"/>
+      <c r="L36" s="15">
         <f>AVERAGE(L22:L24)</f>
         <v>13668530.566666668</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="10">
+      <c r="M36" s="16"/>
+      <c r="N36" s="15">
         <f>AVERAGE(N22:N24)</f>
         <v>8376367.2333333343</v>
       </c>
-      <c r="O36" s="11"/>
+      <c r="O36" s="16"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4694,24 +5939,24 @@
       <c r="G37">
         <v>1932</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>500</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="15">
         <f>AVERAGE(J19:J21)</f>
         <v>11490133.166666666</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="10">
+      <c r="K37" s="16"/>
+      <c r="L37" s="15">
         <f>AVERAGE(L19:L21)</f>
         <v>136448004.46666667</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="10">
+      <c r="M37" s="16"/>
+      <c r="N37" s="15">
         <f>AVERAGE(N19:N21)</f>
         <v>105946270.63333333</v>
       </c>
-      <c r="O37" s="11"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8692,140 +9937,154 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
@@ -8842,20 +10101,6 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8866,7 +10111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RapportVoraceMeilleurCas" sheetId="4" r:id="rId1"/>
     <sheet name="RapportDynamiqueMeilleurMoyenPi" sheetId="6" r:id="rId2"/>
     <sheet name="RapportLocalMeilleur" sheetId="7" r:id="rId3"/>
     <sheet name="RapportLocalPire" sheetId="8" r:id="rId4"/>
-    <sheet name="données" sheetId="1" r:id="rId5"/>
-    <sheet name="RapportVoracePireCas" sheetId="5" r:id="rId6"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId7"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId8"/>
+    <sheet name="PuissannCasceVoraceMoye" sheetId="9" r:id="rId5"/>
+    <sheet name="PuissanceLocalMoyenCas" sheetId="10" r:id="rId6"/>
+    <sheet name="données" sheetId="1" r:id="rId7"/>
+    <sheet name="RapportVoracePireCas" sheetId="5" r:id="rId8"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId9"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="analyse_1" localSheetId="4">données!$A$1:$G$224</definedName>
+    <definedName name="analyse_1" localSheetId="6">données!$A$1:$G$224</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="252">
   <si>
     <t>Nom du fichier</t>
   </si>
@@ -792,6 +794,12 @@
   </si>
   <si>
     <t>y/f(x)</t>
+  </si>
+  <si>
+    <t>vorace moyen</t>
+  </si>
+  <si>
+    <t>local moyen</t>
   </si>
 </sst>
 </file>
@@ -937,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -964,12 +972,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,20 +985,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,7 +1049,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1062,7 +1066,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000,00</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1105,7 +1109,7 @@
             <c:numRef>
               <c:f>données!$S$4:$S$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19172.238100000002</c:v>
@@ -1142,7 +1146,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100,00</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1185,7 +1189,7 @@
             <c:numRef>
               <c:f>données!$S$11:$S$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>955.87689999999998</c:v>
@@ -1222,7 +1226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10,00</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,7 +1269,7 @@
             <c:numRef>
               <c:f>données!$S$18:$S$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>945.1173</c:v>
@@ -1301,11 +1305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116701440"/>
-        <c:axId val="116711808"/>
+        <c:axId val="124322560"/>
+        <c:axId val="124324480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116701440"/>
+        <c:axId val="124322560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,18 +1333,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116711808"/>
+        <c:crossAx val="124324480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116711808"/>
+        <c:axId val="124324480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,21 +1367,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116701440"/>
+        <c:crossAx val="124322560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1436,7 +1437,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000,00</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1479,7 +1480,7 @@
             <c:numRef>
               <c:f>données!$W$4:$W$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1109.4751162999999</c:v>
@@ -1516,7 +1517,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100,00</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1559,7 +1560,7 @@
             <c:numRef>
               <c:f>données!$W$11:$W$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.1811950000000007</c:v>
@@ -1596,7 +1597,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10,00</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1639,7 +1640,7 @@
             <c:numRef>
               <c:f>données!$W$18:$W$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>66.537719999999993</c:v>
@@ -1675,11 +1676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127594496"/>
-        <c:axId val="127596032"/>
+        <c:axId val="125636992"/>
+        <c:axId val="125638912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127594496"/>
+        <c:axId val="125636992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,12 +1710,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127596032"/>
+        <c:crossAx val="125638912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127596032"/>
+        <c:axId val="125638912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,11 +1742,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127594496"/>
+        <c:crossAx val="125636992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1792,7 +1793,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1810,7 +1810,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000,00</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1853,7 +1853,7 @@
             <c:numRef>
               <c:f>données!$Y$4:$Y$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>220425.56890000001</c:v>
@@ -1890,7 +1890,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100,00</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1933,7 +1933,7 @@
             <c:numRef>
               <c:f>données!$Y$11:$Y$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1929.6491000000001</c:v>
@@ -1970,7 +1970,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10,00</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2013,7 +2013,7 @@
             <c:numRef>
               <c:f>données!$Y$18:$Y$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2807.3402999999998</c:v>
@@ -2049,11 +2049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130226048"/>
-        <c:axId val="130227584"/>
+        <c:axId val="127469824"/>
+        <c:axId val="127508864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130226048"/>
+        <c:axId val="127469824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,18 +2077,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130227584"/>
+        <c:crossAx val="127508864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130227584"/>
+        <c:axId val="127508864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,21 +2112,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130226048"/>
+        <c:crossAx val="127469824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2167,7 +2164,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2185,7 +2181,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000,00</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2228,7 +2224,7 @@
             <c:numRef>
               <c:f>données!$AA$4:$AA$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>220.4255689</c:v>
@@ -2265,7 +2261,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100,00</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2308,7 +2304,7 @@
             <c:numRef>
               <c:f>données!$AA$11:$AA$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.9296491</c:v>
@@ -2345,7 +2341,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10,00</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2388,7 +2384,7 @@
             <c:numRef>
               <c:f>données!$AA$18:$AA$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.8073402999999999</c:v>
@@ -2424,12 +2420,473 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116872320"/>
-        <c:axId val="116873856"/>
+        <c:axId val="130120320"/>
+        <c:axId val="130163456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116872320"/>
+        <c:axId val="130120320"/>
         <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taille de l'échantillon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130163456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130163456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution sur la fonction y/f(x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130120320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Test de puissance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> pour l'algorithme vorace avec différentes capacités maximales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.44280430881411603"/>
+                  <c:y val="0.21705679227181976"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$28:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$S$28:$S$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>19172238.100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12165247.300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3114161.5555555555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1929205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1434623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1002141.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>910659.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19197514701386931"/>
+                  <c:y val="0.23052659199427664"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$35:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$S$35:$S$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17082813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11623733.800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2918555.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>955876.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1391121.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1008420.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>955876.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.27249116889744E-3"/>
+                  <c:y val="0.16324060626669504"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$42:$R$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$S$42:$S$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19567361.199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10681418.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2724902.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1748640.888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1271427.5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>945117.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>914120.77777777775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="129751680"/>
+        <c:axId val="129757568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="129751680"/>
+        <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2455,16 +2912,18 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116873856"/>
+        <c:crossAx val="129757568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116873856"/>
+        <c:axId val="129757568"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2482,7 +2941,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Temps d'exécution sur la fonction y/f(x)</a:t>
+                  <a:t>Temps d'exécution de l'algorithme (en ns)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2494,7 +2953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116872320"/>
+        <c:crossAx val="129751680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2511,7 +2970,468 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test de puissance pour l'algorithme d'amélioration locale avec différentes capacités maximales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47669524800076257"/>
+                  <c:y val="0.25581926377082148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$28:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$T$28:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>220425568.90000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114938772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46580486.666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24649228.399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8918489.3000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3018903.4444444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1939351.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23321576993562768"/>
+                  <c:y val="0.28118513233262721"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$35:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$T$35:$T$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>204205342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104298181.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45450803.700000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25056521.111111112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8974565.3000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2839615.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1929649.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9367905273204789E-3"/>
+                  <c:y val="0.18716959010914119"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$42:$R$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$T$42:$T$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>187573442.09999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98601858.200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38532225.799999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17216338.222222224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7236047.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2807340.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1918262.5555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="136685440"/>
+        <c:axId val="136686976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="136685440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taille de l'échantillon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136686976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="136686976"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution de l'algorithme (en ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136685440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-CA"/>
@@ -2559,7 +3479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000,00</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2602,7 +3522,7 @@
             <c:numRef>
               <c:f>données!$T$4:$T$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
@@ -2639,7 +3559,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100,00</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2682,7 +3602,7 @@
             <c:numRef>
               <c:f>données!$U$11:$U$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.95587690000000003</c:v>
@@ -2719,7 +3639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10,00</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2762,7 +3682,7 @@
             <c:numRef>
               <c:f>données!$U$18:$U$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.94511730000000005</c:v>
@@ -2798,11 +3718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117189632"/>
-        <c:axId val="117191808"/>
+        <c:axId val="51253632"/>
+        <c:axId val="51255552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117189632"/>
+        <c:axId val="51253632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,12 +3752,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117191808"/>
+        <c:crossAx val="51255552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117191808"/>
+        <c:axId val="51255552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,11 +3784,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117189632"/>
+        <c:crossAx val="51253632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2889,7 +3809,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2940,6 +3860,28 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
@@ -2971,7 +3913,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3052,7 +3994,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671034" cy="6295259"/>
+    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3368,8 +4364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA250"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,18 +4435,18 @@
       <c r="I2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="14"/>
+      <c r="O2" s="18"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9" t="s">
         <v>1</v>
@@ -3571,34 +4567,34 @@
       <c r="I4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="14">
         <f>AVERAGE(B2:B11)</f>
         <v>19172238.100000001</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="14">
         <f>AVERAGE(C2:C11)</f>
         <v>27813.4</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="14">
         <f t="shared" ref="L4:O4" si="0">AVERAGE(D2:D11)</f>
         <v>1109475116.3</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="14">
         <f t="shared" si="0"/>
         <v>36469.1</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="14">
         <f t="shared" si="0"/>
         <v>220425568.90000001</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="14">
         <f t="shared" si="0"/>
         <v>32469.3</v>
       </c>
       <c r="P4" s="12">
         <v>1000</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="13" t="s">
         <v>240</v>
       </c>
       <c r="R4" s="12" t="str">
@@ -3667,34 +4663,34 @@
       <c r="I5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="14">
         <f>AVERAGE(B13:B22)</f>
         <v>17082813</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="14">
         <f t="shared" ref="K5:O5" si="1">AVERAGE(C13:C22)</f>
         <v>2878.4</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="14">
         <f t="shared" si="1"/>
         <v>147733924.90000001</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="14">
         <f t="shared" si="1"/>
         <v>3724.7</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="14">
         <f t="shared" si="1"/>
         <v>204205342</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="14">
         <f t="shared" si="1"/>
         <v>3335.7</v>
       </c>
       <c r="P5" s="12">
         <v>1000</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="8" t="s">
         <v>241</v>
       </c>
       <c r="R5" s="12" t="str">
@@ -3763,34 +4759,34 @@
       <c r="I6" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="14">
         <f>AVERAGE(B24:B33)</f>
         <v>19567361.199999999</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="14">
         <f t="shared" ref="K6:O6" si="12">AVERAGE(C24:C33)</f>
         <v>313.89999999999998</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="14">
         <f t="shared" si="12"/>
         <v>49826671.100000001</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="14">
         <f t="shared" si="12"/>
         <v>421</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="14">
         <f t="shared" si="12"/>
         <v>187573442.09999999</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="14">
         <f t="shared" si="12"/>
         <v>360.3</v>
       </c>
       <c r="P6" s="12">
         <v>1000</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="8" t="s">
         <v>242</v>
       </c>
       <c r="R6" s="12" t="str">
@@ -3859,34 +4855,34 @@
       <c r="I7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="14">
         <f>AVERAGE(B35:B44)</f>
         <v>1929205</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="14">
         <f t="shared" ref="K7:O7" si="13">AVERAGE(C35:C44)</f>
         <v>2859.5</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="14">
         <f t="shared" si="13"/>
         <v>52673413.100000001</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="14">
         <f t="shared" si="13"/>
         <v>3675.7</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="14">
         <f t="shared" si="13"/>
         <v>24649228.399999999</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="14">
         <f t="shared" si="13"/>
         <v>3420.8</v>
       </c>
       <c r="P7" s="12">
         <v>1000</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="8" t="s">
         <v>243</v>
       </c>
       <c r="R7" s="12" t="str">
@@ -3955,34 +4951,34 @@
       <c r="I8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="14">
         <f>AVERAGE(B46:B54)</f>
         <v>1942892.2222222222</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="14">
         <f t="shared" ref="K8:O8" si="14">AVERAGE(C46:C54)</f>
         <v>315.66666666666669</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="14">
         <f t="shared" si="14"/>
         <v>17472890.666666668</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="14">
         <f t="shared" si="14"/>
         <v>403.66666666666669</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="14">
         <f t="shared" si="14"/>
         <v>25056521.111111112</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="14">
         <f t="shared" si="14"/>
         <v>369.88888888888891</v>
       </c>
       <c r="P8" s="12">
         <v>1000</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="8" t="s">
         <v>244</v>
       </c>
       <c r="R8" s="12" t="str">
@@ -4051,34 +5047,34 @@
       <c r="I9" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="14">
         <f>AVERAGE(B56:B64)</f>
         <v>1748640.888888889</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="14">
         <f t="shared" ref="K9:O9" si="15">AVERAGE(C56:C64)</f>
         <v>32.666666666666664</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="14">
         <f t="shared" si="15"/>
         <v>1926012.888888889</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="14">
         <f t="shared" si="15"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="14">
         <f t="shared" si="15"/>
         <v>17216338.222222224</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="14">
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="P9" s="12">
         <v>1000</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="8" t="s">
         <v>245</v>
       </c>
       <c r="R9" s="12" t="str">
@@ -4147,34 +5143,34 @@
       <c r="I10" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="14">
         <f>AVERAGE(B66:B73)</f>
         <v>910659.875</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="14">
         <f t="shared" ref="K10:O10" si="16">AVERAGE(C66:C73)</f>
         <v>1004.75</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="14">
         <f t="shared" si="16"/>
         <v>9498412.5</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="14">
         <f t="shared" si="16"/>
         <v>1106.125</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="14">
         <f t="shared" si="16"/>
         <v>1939351.75</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="14">
         <f t="shared" si="16"/>
         <v>1069.375</v>
       </c>
       <c r="P10" s="12">
         <v>1000</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="8" t="s">
         <v>246</v>
       </c>
       <c r="R10" s="12" t="str">
@@ -4243,34 +5239,34 @@
       <c r="I11" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="14">
         <f>AVERAGE(B75:B84)</f>
         <v>955876.9</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="14">
         <f t="shared" ref="K11:O11" si="17">AVERAGE(C75:C84)</f>
         <v>89.1</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="14">
         <f t="shared" si="17"/>
         <v>918119.5</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="14">
         <f t="shared" si="17"/>
         <v>108.2</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="14">
         <f t="shared" si="17"/>
         <v>1929649.1</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="14">
         <f t="shared" si="17"/>
         <v>99.6</v>
       </c>
       <c r="P11" s="12">
         <v>100</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="8" t="s">
         <v>240</v>
       </c>
       <c r="R11" s="12" t="str">
@@ -4320,34 +5316,34 @@
       <c r="I12" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="14">
         <f t="shared" ref="J12:O12" si="18">AVERAGE(B86:B94)</f>
         <v>914120.77777777775</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="14">
         <f t="shared" si="18"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="14">
         <f t="shared" si="18"/>
         <v>612259.77777777775</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="14">
         <f t="shared" si="18"/>
         <v>13.111111111111111</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="14">
         <f t="shared" si="18"/>
         <v>1918262.5555555555</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="14">
         <f t="shared" si="18"/>
         <v>11.333333333333334</v>
       </c>
       <c r="P12" s="12">
         <v>100</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="8" t="s">
         <v>241</v>
       </c>
       <c r="R12" s="12" t="str">
@@ -4416,34 +5412,34 @@
       <c r="I13" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="14">
         <f t="shared" ref="J13:O13" si="19">AVERAGE(B96:B104)</f>
         <v>3114161.5555555555</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="14">
         <f t="shared" si="19"/>
         <v>5891.1111111111113</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="14">
         <f t="shared" si="19"/>
         <v>77868910.222222224</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="14">
         <f t="shared" si="19"/>
         <v>7610.7777777777774</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="14">
         <f t="shared" si="19"/>
         <v>46580486.666666664</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="14">
         <f t="shared" si="19"/>
         <v>6884.2222222222226</v>
       </c>
       <c r="P13" s="12">
         <v>100</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="8" t="s">
         <v>242</v>
       </c>
       <c r="R13" s="12" t="str">
@@ -4512,34 +5508,34 @@
       <c r="I14" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="14">
         <f t="shared" ref="J14:O14" si="20">AVERAGE(B106:B115)</f>
         <v>2918555.8</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="14">
         <f t="shared" si="20"/>
         <v>574.9</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="14">
         <f t="shared" si="20"/>
         <v>41854789.799999997</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="14">
         <f t="shared" si="20"/>
         <v>741</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="14">
         <f t="shared" si="20"/>
         <v>45450803.700000003</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="14">
         <f t="shared" si="20"/>
         <v>678.5</v>
       </c>
       <c r="P14" s="12">
         <v>100</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="8" t="s">
         <v>243</v>
       </c>
       <c r="R14" s="12" t="str">
@@ -4608,34 +5604,34 @@
       <c r="I15" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="14">
         <f t="shared" ref="J15:O15" si="21">AVERAGE(B117:B126)</f>
         <v>2724902.2</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="14">
         <f t="shared" si="21"/>
         <v>62.5</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="14">
         <f t="shared" si="21"/>
         <v>9278231.3000000007</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="14">
         <f t="shared" si="21"/>
         <v>83.8</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="14">
         <f t="shared" si="21"/>
         <v>38532225.799999997</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="14">
         <f t="shared" si="21"/>
         <v>73.8</v>
       </c>
       <c r="P15" s="12">
         <v>100</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="8" t="s">
         <v>244</v>
       </c>
       <c r="R15" s="12" t="str">
@@ -4704,34 +5700,34 @@
       <c r="I16" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="14">
         <f t="shared" ref="J16:O16" si="22">AVERAGE(B128:B136)</f>
         <v>1002141.7777777778</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="14">
         <f t="shared" si="22"/>
         <v>967.11111111111109</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="14">
         <f t="shared" si="22"/>
         <v>12751036</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="14">
         <f t="shared" si="22"/>
         <v>1235.5555555555557</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="14">
         <f t="shared" si="22"/>
         <v>3018903.4444444445</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="14">
         <f t="shared" si="22"/>
         <v>1101.7777777777778</v>
       </c>
       <c r="P16" s="12">
         <v>100</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="8" t="s">
         <v>245</v>
       </c>
       <c r="R16" s="12" t="str">
@@ -4800,34 +5796,34 @@
       <c r="I17" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="14">
         <f t="shared" ref="J17:O17" si="23">AVERAGE(B138:B147)</f>
         <v>1008420.7</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="14">
         <f t="shared" si="23"/>
         <v>99.2</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="14">
         <f t="shared" si="23"/>
         <v>1267146.3</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="14">
         <f t="shared" si="23"/>
         <v>119.9</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="14">
         <f t="shared" si="23"/>
         <v>2839615.4</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="14">
         <f t="shared" si="23"/>
         <v>111.1</v>
       </c>
       <c r="P17" s="12">
         <v>100</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="8" t="s">
         <v>246</v>
       </c>
       <c r="R17" s="12" t="str">
@@ -4896,34 +5892,34 @@
       <c r="I18" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="14">
         <f t="shared" ref="J18:O18" si="24">AVERAGE(B149:B158)</f>
         <v>945117.3</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="14">
         <f t="shared" si="24"/>
         <v>11.7</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="14">
         <f t="shared" si="24"/>
         <v>665377.19999999995</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="14">
         <f t="shared" si="24"/>
         <v>13.9</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="14">
         <f t="shared" si="24"/>
         <v>2807340.3</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="14">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="P18" s="12">
         <v>10</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="8" t="s">
         <v>240</v>
       </c>
       <c r="R18" s="12" t="str">
@@ -4992,34 +5988,34 @@
       <c r="I19" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="14">
         <f t="shared" ref="J19:O19" si="25">AVERAGE(B160:B169)</f>
         <v>12165247.300000001</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="14">
         <f t="shared" si="25"/>
         <v>13751.8</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="14">
         <f t="shared" si="25"/>
         <v>309694953.39999998</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="14">
         <f t="shared" si="25"/>
         <v>18027.2</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="14">
         <f t="shared" si="25"/>
         <v>114938772</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="14">
         <f t="shared" si="25"/>
         <v>16239.8</v>
       </c>
       <c r="P19" s="12">
         <v>10</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="8" t="s">
         <v>241</v>
       </c>
       <c r="R19" s="12" t="str">
@@ -5088,34 +6084,34 @@
       <c r="I20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="14">
         <f t="shared" ref="J20:O20" si="26">AVERAGE(B171:B180)</f>
         <v>11623733.800000001</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="14">
         <f t="shared" si="26"/>
         <v>1429.5</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="14">
         <f t="shared" si="26"/>
         <v>64749464.799999997</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="14">
         <f t="shared" si="26"/>
         <v>1858.8</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="14">
         <f t="shared" si="26"/>
         <v>104298181.7</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="14">
         <f t="shared" si="26"/>
         <v>1676</v>
       </c>
       <c r="P20" s="12">
         <v>10</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="8" t="s">
         <v>242</v>
       </c>
       <c r="R20" s="12" t="str">
@@ -5184,34 +6180,34 @@
       <c r="I21" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="14">
         <f t="shared" ref="J21:O21" si="27">AVERAGE(B182:B191)</f>
         <v>10681418.4</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="14">
         <f t="shared" si="27"/>
         <v>153.80000000000001</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="14">
         <f t="shared" si="27"/>
         <v>34899595.200000003</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="14">
         <f t="shared" si="27"/>
         <v>209.5</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="14">
         <f t="shared" si="27"/>
         <v>98601858.200000003</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="14">
         <f t="shared" si="27"/>
         <v>181.6</v>
       </c>
       <c r="P21" s="12">
         <v>10</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="8" t="s">
         <v>243</v>
       </c>
       <c r="R21" s="12" t="str">
@@ -5280,34 +6276,34 @@
       <c r="I22" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="14">
         <f t="shared" ref="J22:O22" si="28">AVERAGE(B193:B202)</f>
         <v>1434623</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="14">
         <f t="shared" si="28"/>
         <v>1629.1</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="14">
         <f t="shared" si="28"/>
         <v>34640787.899999999</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="14">
         <f t="shared" si="28"/>
         <v>1967.6</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="14">
         <f t="shared" si="28"/>
         <v>8918489.3000000007</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="14">
         <f t="shared" si="28"/>
         <v>1772.1</v>
       </c>
       <c r="P22" s="12">
         <v>10</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="8" t="s">
         <v>244</v>
       </c>
       <c r="R22" s="12" t="str">
@@ -5357,34 +6353,34 @@
       <c r="I23" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="14">
         <f t="shared" ref="J23:O23" si="29">AVERAGE(B204:B213)</f>
         <v>1391121.4</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="14">
         <f t="shared" si="29"/>
         <v>162.80000000000001</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="14">
         <f t="shared" si="29"/>
         <v>5370102.2000000002</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="14">
         <f t="shared" si="29"/>
         <v>203.6</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="14">
         <f t="shared" si="29"/>
         <v>8974565.3000000007</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="14">
         <f t="shared" si="29"/>
         <v>188.2</v>
       </c>
       <c r="P23" s="12">
         <v>10</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="8" t="s">
         <v>245</v>
       </c>
       <c r="R23" s="12" t="str">
@@ -5453,34 +6449,34 @@
       <c r="I24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="14">
         <f t="shared" ref="J24:O24" si="30">AVERAGE(B215:B224)</f>
         <v>1271427.5</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="14">
         <f t="shared" si="30"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="14">
         <f t="shared" si="30"/>
         <v>994701.6</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="14">
         <f t="shared" si="30"/>
         <v>22.6</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="14">
         <f t="shared" si="30"/>
         <v>7236047.0999999996</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="14">
         <f t="shared" si="30"/>
         <v>20.6</v>
       </c>
       <c r="P24" s="12">
         <v>10</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="8" t="s">
         <v>246</v>
       </c>
       <c r="R24" s="12" t="str">
@@ -5592,6 +6588,12 @@
       <c r="G27">
         <v>261</v>
       </c>
+      <c r="S27" t="s">
+        <v>250</v>
+      </c>
+      <c r="T27" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5615,6 +6617,18 @@
       <c r="G28">
         <v>335</v>
       </c>
+      <c r="Q28">
+        <v>1000</v>
+      </c>
+      <c r="R28">
+        <v>1000</v>
+      </c>
+      <c r="S28" s="14">
+        <v>19172238.100000001</v>
+      </c>
+      <c r="T28">
+        <v>220425568.90000001</v>
+      </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5639,18 +6653,27 @@
         <v>386</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="13" t="s">
+      <c r="K29" s="18"/>
+      <c r="L29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13" t="s">
+      <c r="M29" s="18"/>
+      <c r="N29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="14"/>
+      <c r="O29" s="18"/>
+      <c r="R29">
+        <v>500</v>
+      </c>
+      <c r="S29">
+        <v>12165247.300000001</v>
+      </c>
+      <c r="T29">
+        <v>114938772</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5677,18 +6700,27 @@
       <c r="I30" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="17" t="s">
+      <c r="K30" s="20"/>
+      <c r="L30" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17" t="s">
+      <c r="M30" s="20"/>
+      <c r="N30" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="O30" s="18"/>
+      <c r="O30" s="20"/>
+      <c r="R30">
+        <v>200</v>
+      </c>
+      <c r="S30">
+        <v>3114161.5555555555</v>
+      </c>
+      <c r="T30">
+        <v>46580486.666666664</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5730,6 +6762,15 @@
         <v>204068117.66666666</v>
       </c>
       <c r="O31" s="16"/>
+      <c r="R31">
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <v>1929205</v>
+      </c>
+      <c r="T31">
+        <v>24649228.399999999</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5771,8 +6812,17 @@
         <v>22307362.577777777</v>
       </c>
       <c r="O32" s="16"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>50</v>
+      </c>
+      <c r="S32">
+        <v>1434623</v>
+      </c>
+      <c r="T32">
+        <v>8918489.3000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -5812,8 +6862,17 @@
         <v>1929087.8018518519</v>
       </c>
       <c r="O33" s="16"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>20</v>
+      </c>
+      <c r="S33">
+        <v>1002141.7777777778</v>
+      </c>
+      <c r="T33">
+        <v>3018903.4444444445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="F34"/>
       <c r="I34" s="8">
@@ -5834,8 +6893,17 @@
         <v>2888619.7148148143</v>
       </c>
       <c r="O34" s="16"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>910659.875</v>
+      </c>
+      <c r="T34">
+        <v>1939351.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5875,8 +6943,20 @@
         <v>43521172.05555556</v>
       </c>
       <c r="O35" s="16"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>100</v>
+      </c>
+      <c r="R35">
+        <v>1000</v>
+      </c>
+      <c r="S35">
+        <v>17082813</v>
+      </c>
+      <c r="T35">
+        <v>204205342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5916,8 +6996,17 @@
         <v>8376367.2333333343</v>
       </c>
       <c r="O36" s="16"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>500</v>
+      </c>
+      <c r="S36">
+        <v>11623733.800000001</v>
+      </c>
+      <c r="T36">
+        <v>104298181.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5957,8 +7046,17 @@
         <v>105946270.63333333</v>
       </c>
       <c r="O37" s="16"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>200</v>
+      </c>
+      <c r="S37">
+        <v>2918555.8</v>
+      </c>
+      <c r="T37">
+        <v>45450803.700000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5980,8 +7078,17 @@
       <c r="G38">
         <v>2778</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>100</v>
+      </c>
+      <c r="S38">
+        <v>955876.9</v>
+      </c>
+      <c r="T38">
+        <v>25056521.111111112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6003,8 +7110,17 @@
       <c r="G39">
         <v>2855</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>50</v>
+      </c>
+      <c r="S39">
+        <v>1391121.4</v>
+      </c>
+      <c r="T39">
+        <v>8974565.3000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -6026,8 +7142,17 @@
       <c r="G40">
         <v>3677</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>20</v>
+      </c>
+      <c r="S40">
+        <v>1008420.7</v>
+      </c>
+      <c r="T40">
+        <v>2839615.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6049,8 +7174,17 @@
       <c r="G41">
         <v>3884</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>955876.9</v>
+      </c>
+      <c r="T41">
+        <v>1929649.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6072,8 +7206,20 @@
       <c r="G42">
         <v>4504</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>1000</v>
+      </c>
+      <c r="S42">
+        <v>19567361.199999999</v>
+      </c>
+      <c r="T42">
+        <v>187573442.09999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6095,8 +7241,17 @@
       <c r="G43">
         <v>5713</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>500</v>
+      </c>
+      <c r="S43">
+        <v>10681418.4</v>
+      </c>
+      <c r="T43">
+        <v>98601858.200000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6118,12 +7273,30 @@
       <c r="G44">
         <v>5992</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>200</v>
+      </c>
+      <c r="S44">
+        <v>2724902.2</v>
+      </c>
+      <c r="T44">
+        <v>38532225.799999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="F45"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>100</v>
+      </c>
+      <c r="S45">
+        <v>1748640.888888889</v>
+      </c>
+      <c r="T45">
+        <v>17216338.222222224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -6145,8 +7318,17 @@
       <c r="G46">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>50</v>
+      </c>
+      <c r="S46">
+        <v>1271427.5</v>
+      </c>
+      <c r="T46">
+        <v>7236047.0999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6168,8 +7350,17 @@
       <c r="G47">
         <v>196</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>20</v>
+      </c>
+      <c r="S47" s="14">
+        <v>945117.3</v>
+      </c>
+      <c r="T47">
+        <v>2807340.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6190,6 +7381,15 @@
       </c>
       <c r="G48">
         <v>204</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>914120.77777777775</v>
+      </c>
+      <c r="T48">
+        <v>1918262.5555555555</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10071,20 +11271,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
@@ -10101,6 +11287,20 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gravu_000\Documents\GitHub\INF4705\tp2\logs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9270" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="RapportVoraceMeilleurCas" sheetId="4" r:id="rId1"/>
@@ -21,7 +26,7 @@
   <definedNames>
     <definedName name="analyse_1" localSheetId="6">données!$A$1:$G$224</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="245">
   <si>
     <t>Nom du fichier</t>
   </si>
@@ -764,27 +769,6 @@
   </si>
   <si>
     <t>pire</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>capacité</t>
@@ -979,17 +963,17 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,7 +1001,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1049,6 +1033,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1077,9 +1062,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1102,8 +1088,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1157,9 +1143,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1182,8 +1169,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1237,9 +1224,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1262,8 +1250,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1305,11 +1293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124322560"/>
-        <c:axId val="124324480"/>
+        <c:axId val="-1341383920"/>
+        <c:axId val="-1341381200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124322560"/>
+        <c:axId val="-1341383920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,17 +1321,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124324480"/>
+        <c:crossAx val="-1341381200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124324480"/>
+        <c:axId val="-1341381200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,19 +1357,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124322560"/>
+        <c:crossAx val="-1341383920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1392,7 +1384,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1448,9 +1440,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1473,8 +1466,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1528,9 +1521,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$11:$Q$17</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1553,8 +1547,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1608,9 +1602,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1633,8 +1628,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1676,11 +1671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125636992"/>
-        <c:axId val="125638912"/>
+        <c:axId val="-1341381744"/>
+        <c:axId val="-1321498752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125636992"/>
+        <c:axId val="-1341381744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,15 +1702,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125638912"/>
+        <c:crossAx val="-1321498752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125638912"/>
+        <c:axId val="-1321498752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125636992"/>
+        <c:crossAx val="-1341381744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,7 +1762,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1793,6 +1789,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1821,9 +1818,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1846,8 +1844,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1901,9 +1899,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -1926,8 +1925,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1981,9 +1980,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -2006,8 +2006,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2049,11 +2049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127469824"/>
-        <c:axId val="127508864"/>
+        <c:axId val="-1338811808"/>
+        <c:axId val="-1338813984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127469824"/>
+        <c:axId val="-1338811808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,17 +2077,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127508864"/>
+        <c:crossAx val="-1338813984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127508864"/>
+        <c:axId val="-1338813984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,19 +2113,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127469824"/>
+        <c:crossAx val="-1338811808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2137,7 +2140,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2164,6 +2167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2192,9 +2196,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -2217,8 +2222,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2272,9 +2277,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$11:$Q$17</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -2297,8 +2303,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2352,9 +2358,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -2377,8 +2384,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2420,11 +2427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130120320"/>
-        <c:axId val="130163456"/>
+        <c:axId val="-1338810720"/>
+        <c:axId val="-1338812352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130120320"/>
+        <c:axId val="-1338810720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,18 +2455,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130163456"/>
+        <c:crossAx val="-1338812352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130163456"/>
+        <c:axId val="-1338812352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,19 +2491,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130120320"/>
+        <c:crossAx val="-1338810720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2508,7 +2518,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2880,11 +2890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129751680"/>
-        <c:axId val="129757568"/>
+        <c:axId val="-1338810176"/>
+        <c:axId val="-1338816160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129751680"/>
+        <c:axId val="-1338810176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2916,12 +2926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129757568"/>
+        <c:crossAx val="-1338816160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129757568"/>
+        <c:axId val="-1338816160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2953,7 +2963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129751680"/>
+        <c:crossAx val="-1338810176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2973,7 +2983,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3341,11 +3351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136685440"/>
-        <c:axId val="136686976"/>
+        <c:axId val="-1338814528"/>
+        <c:axId val="-1338819424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136685440"/>
+        <c:axId val="-1338814528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3377,12 +3387,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136686976"/>
+        <c:crossAx val="-1338819424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136686976"/>
+        <c:axId val="-1338819424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3414,7 +3424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136685440"/>
+        <c:crossAx val="-1338814528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3434,7 +3444,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3490,9 +3500,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -3515,8 +3526,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3570,9 +3581,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$11:$Q$17</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -3595,8 +3607,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3650,9 +3662,10 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -3675,8 +3688,8 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3718,11 +3731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51253632"/>
-        <c:axId val="51255552"/>
+        <c:axId val="-1338825952"/>
+        <c:axId val="-1338811264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51253632"/>
+        <c:axId val="-1338825952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,15 +3762,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51255552"/>
+        <c:crossAx val="-1338811264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51255552"/>
+        <c:axId val="-1338811264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51253632"/>
+        <c:crossAx val="-1338825952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3809,7 +3823,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3820,7 +3834,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3831,7 +3845,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3842,7 +3856,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3853,7 +3867,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3864,7 +3878,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3875,7 +3889,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3886,7 +3900,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671034" cy="6295259"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3913,7 +3927,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8655326" cy="6284429"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3940,7 +3954,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3967,7 +3981,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3994,7 +4008,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -4021,7 +4035,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -4048,7 +4062,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8655326" cy="6284429"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -4076,7 +4090,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4118,7 +4132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4153,7 +4167,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4364,11 +4378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA250"/>
   <sheetViews>
-    <sheetView topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -4435,18 +4449,18 @@
       <c r="I2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="16"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9" t="s">
         <v>1</v>
@@ -4506,40 +4520,40 @@
         <v>230</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>238</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>239</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>238</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>238</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>239</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -4594,10 +4608,10 @@
       <c r="P4" s="12">
         <v>1000</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="R4" s="12" t="str">
+      <c r="Q4" s="13">
+        <v>1000</v>
+      </c>
+      <c r="R4" s="12">
         <f>Q4</f>
         <v>1000</v>
       </c>
@@ -4621,7 +4635,7 @@
         <f>L4/(V4)</f>
         <v>1109.4751162999999</v>
       </c>
-      <c r="X4" s="12" t="str">
+      <c r="X4" s="12">
         <f>Q4</f>
         <v>1000</v>
       </c>
@@ -4690,10 +4704,10 @@
       <c r="P5" s="12">
         <v>1000</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="R5" s="12" t="str">
+      <c r="Q5" s="8">
+        <v>500</v>
+      </c>
+      <c r="R5" s="12">
         <f t="shared" ref="R5:R24" si="2">Q5</f>
         <v>500</v>
       </c>
@@ -4717,7 +4731,7 @@
         <f t="shared" ref="W5:W24" si="7">L5/(V5)</f>
         <v>295.46784980000001</v>
       </c>
-      <c r="X5" s="12" t="str">
+      <c r="X5" s="12">
         <f t="shared" ref="X5:X24" si="8">Q5</f>
         <v>500</v>
       </c>
@@ -4786,10 +4800,10 @@
       <c r="P6" s="12">
         <v>1000</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="R6" s="12" t="str">
+      <c r="Q6" s="8">
+        <v>200</v>
+      </c>
+      <c r="R6" s="12">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -4813,7 +4827,7 @@
         <f t="shared" si="7"/>
         <v>249.13335549999999</v>
       </c>
-      <c r="X6" s="12" t="str">
+      <c r="X6" s="12">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
@@ -4882,10 +4896,10 @@
       <c r="P7" s="12">
         <v>1000</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="R7" s="12" t="str">
+      <c r="Q7" s="8">
+        <v>100</v>
+      </c>
+      <c r="R7" s="12">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -4909,7 +4923,7 @@
         <f t="shared" si="7"/>
         <v>526.73413100000005</v>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="12">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -4978,10 +4992,10 @@
       <c r="P8" s="12">
         <v>1000</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="R8" s="12" t="str">
+      <c r="Q8" s="8">
+        <v>50</v>
+      </c>
+      <c r="R8" s="12">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -5005,7 +5019,7 @@
         <f t="shared" si="7"/>
         <v>349.45781333333338</v>
       </c>
-      <c r="X8" s="12" t="str">
+      <c r="X8" s="12">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -5074,10 +5088,10 @@
       <c r="P9" s="12">
         <v>1000</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="R9" s="12" t="str">
+      <c r="Q9" s="8">
+        <v>20</v>
+      </c>
+      <c r="R9" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -5101,7 +5115,7 @@
         <f t="shared" si="7"/>
         <v>96.300644444444444</v>
       </c>
-      <c r="X9" s="12" t="str">
+      <c r="X9" s="12">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
@@ -5170,10 +5184,10 @@
       <c r="P10" s="12">
         <v>1000</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="R10" s="12" t="str">
+      <c r="Q10" s="8">
+        <v>10</v>
+      </c>
+      <c r="R10" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -5197,7 +5211,7 @@
         <f t="shared" si="7"/>
         <v>949.84124999999995</v>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="12">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -5266,10 +5280,10 @@
       <c r="P11" s="12">
         <v>100</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="R11" s="12" t="str">
+      <c r="Q11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R11" s="12">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -5293,7 +5307,7 @@
         <f t="shared" si="7"/>
         <v>9.1811950000000007</v>
       </c>
-      <c r="X11" s="12" t="str">
+      <c r="X11" s="12">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
@@ -5343,10 +5357,10 @@
       <c r="P12" s="12">
         <v>100</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="R12" s="12" t="str">
+      <c r="Q12" s="8">
+        <v>500</v>
+      </c>
+      <c r="R12" s="12">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
@@ -5370,7 +5384,7 @@
         <f t="shared" si="7"/>
         <v>12.245195555555554</v>
       </c>
-      <c r="X12" s="12" t="str">
+      <c r="X12" s="12">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
@@ -5439,10 +5453,10 @@
       <c r="P13" s="12">
         <v>100</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="R13" s="12" t="str">
+      <c r="Q13" s="8">
+        <v>200</v>
+      </c>
+      <c r="R13" s="12">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -5466,7 +5480,7 @@
         <f t="shared" si="7"/>
         <v>3893.445511111111</v>
       </c>
-      <c r="X13" s="12" t="str">
+      <c r="X13" s="12">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
@@ -5535,10 +5549,10 @@
       <c r="P14" s="12">
         <v>100</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="R14" s="12" t="str">
+      <c r="Q14" s="8">
+        <v>100</v>
+      </c>
+      <c r="R14" s="12">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -5562,7 +5576,7 @@
         <f t="shared" si="7"/>
         <v>4185.4789799999999</v>
       </c>
-      <c r="X14" s="12" t="str">
+      <c r="X14" s="12">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -5631,10 +5645,10 @@
       <c r="P15" s="12">
         <v>100</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="R15" s="12" t="str">
+      <c r="Q15" s="8">
+        <v>50</v>
+      </c>
+      <c r="R15" s="12">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -5658,7 +5672,7 @@
         <f t="shared" si="7"/>
         <v>1855.6462600000002</v>
       </c>
-      <c r="X15" s="12" t="str">
+      <c r="X15" s="12">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -5727,10 +5741,10 @@
       <c r="P16" s="12">
         <v>100</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="R16" s="12" t="str">
+      <c r="Q16" s="8">
+        <v>20</v>
+      </c>
+      <c r="R16" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -5754,7 +5768,7 @@
         <f t="shared" si="7"/>
         <v>6375.518</v>
       </c>
-      <c r="X16" s="12" t="str">
+      <c r="X16" s="12">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
@@ -5823,10 +5837,10 @@
       <c r="P17" s="12">
         <v>100</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="R17" s="12" t="str">
+      <c r="Q17" s="8">
+        <v>10</v>
+      </c>
+      <c r="R17" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -5850,7 +5864,7 @@
         <f t="shared" si="7"/>
         <v>1267.1463000000001</v>
       </c>
-      <c r="X17" s="12" t="str">
+      <c r="X17" s="12">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -5919,10 +5933,10 @@
       <c r="P18" s="12">
         <v>10</v>
       </c>
-      <c r="Q18" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="R18" s="12" t="str">
+      <c r="Q18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="12">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -5946,7 +5960,7 @@
         <f t="shared" si="7"/>
         <v>66.537719999999993</v>
       </c>
-      <c r="X18" s="12" t="str">
+      <c r="X18" s="12">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
@@ -6015,10 +6029,10 @@
       <c r="P19" s="12">
         <v>10</v>
       </c>
-      <c r="Q19" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="R19" s="12" t="str">
+      <c r="Q19" s="8">
+        <v>500</v>
+      </c>
+      <c r="R19" s="12">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
@@ -6042,7 +6056,7 @@
         <f t="shared" si="7"/>
         <v>61938.990679999995</v>
       </c>
-      <c r="X19" s="12" t="str">
+      <c r="X19" s="12">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
@@ -6111,10 +6125,10 @@
       <c r="P20" s="12">
         <v>10</v>
       </c>
-      <c r="Q20" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="R20" s="12" t="str">
+      <c r="Q20" s="8">
+        <v>200</v>
+      </c>
+      <c r="R20" s="12">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -6138,7 +6152,7 @@
         <f t="shared" si="7"/>
         <v>32374.732399999997</v>
       </c>
-      <c r="X20" s="12" t="str">
+      <c r="X20" s="12">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
@@ -6207,10 +6221,10 @@
       <c r="P21" s="12">
         <v>10</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="R21" s="12" t="str">
+      <c r="Q21" s="8">
+        <v>100</v>
+      </c>
+      <c r="R21" s="12">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6234,7 +6248,7 @@
         <f t="shared" si="7"/>
         <v>34899.595200000003</v>
       </c>
-      <c r="X21" s="12" t="str">
+      <c r="X21" s="12">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -6303,10 +6317,10 @@
       <c r="P22" s="12">
         <v>10</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="R22" s="12" t="str">
+      <c r="Q22" s="8">
+        <v>50</v>
+      </c>
+      <c r="R22" s="12">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -6330,7 +6344,7 @@
         <f t="shared" si="7"/>
         <v>69281.575799999991</v>
       </c>
-      <c r="X22" s="12" t="str">
+      <c r="X22" s="12">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -6380,10 +6394,10 @@
       <c r="P23" s="12">
         <v>10</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="R23" s="12" t="str">
+      <c r="Q23" s="8">
+        <v>20</v>
+      </c>
+      <c r="R23" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -6407,7 +6421,7 @@
         <f t="shared" si="7"/>
         <v>26850.511000000002</v>
       </c>
-      <c r="X23" s="12" t="str">
+      <c r="X23" s="12">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
@@ -6476,10 +6490,10 @@
       <c r="P24" s="12">
         <v>10</v>
       </c>
-      <c r="Q24" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="R24" s="12" t="str">
+      <c r="Q24" s="8">
+        <v>10</v>
+      </c>
+      <c r="R24" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -6503,7 +6517,7 @@
         <f t="shared" si="7"/>
         <v>9947.0159999999996</v>
       </c>
-      <c r="X24" s="12" t="str">
+      <c r="X24" s="12">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -6589,10 +6603,10 @@
         <v>261</v>
       </c>
       <c r="S27" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="T27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -6653,18 +6667,18 @@
         <v>386</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="17" t="s">
+      <c r="K29" s="16"/>
+      <c r="L29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="18"/>
+      <c r="O29" s="16"/>
       <c r="R29">
         <v>500</v>
       </c>
@@ -6747,21 +6761,21 @@
       <c r="I31" s="8">
         <v>1000</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="17">
         <f>AVERAGE(J4:J6)</f>
         <v>18607470.766666666</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="15">
+      <c r="K31" s="18"/>
+      <c r="L31" s="17">
         <f>AVERAGE(L4:L6)</f>
         <v>435678570.76666665</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="15">
+      <c r="M31" s="18"/>
+      <c r="N31" s="17">
         <f>AVERAGE(N4:N6)</f>
         <v>204068117.66666666</v>
       </c>
-      <c r="O31" s="16"/>
+      <c r="O31" s="18"/>
       <c r="R31">
         <v>100</v>
       </c>
@@ -6797,21 +6811,21 @@
       <c r="I32" s="8">
         <v>100</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="17">
         <f>AVERAGE(J7:J9)</f>
         <v>1873579.3703703703</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="15">
+      <c r="K32" s="18"/>
+      <c r="L32" s="17">
         <f>AVERAGE(L7:L9)</f>
         <v>24024105.551851854</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="15">
+      <c r="M32" s="18"/>
+      <c r="N32" s="17">
         <f>AVERAGE(N7:N9)</f>
         <v>22307362.577777777</v>
       </c>
-      <c r="O32" s="16"/>
+      <c r="O32" s="18"/>
       <c r="R32">
         <v>50</v>
       </c>
@@ -6847,21 +6861,21 @@
       <c r="I33" s="8">
         <v>10</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="17">
         <f>AVERAGE(J10:J12)</f>
         <v>926885.85092592577</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="15">
+      <c r="K33" s="18"/>
+      <c r="L33" s="17">
         <f>AVERAGE(L10:L12)</f>
         <v>3676263.9259259258</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="15">
+      <c r="M33" s="18"/>
+      <c r="N33" s="17">
         <f>AVERAGE(N10:N12)</f>
         <v>1929087.8018518519</v>
       </c>
-      <c r="O33" s="16"/>
+      <c r="O33" s="18"/>
       <c r="R33">
         <v>20</v>
       </c>
@@ -6878,21 +6892,21 @@
       <c r="I34" s="8">
         <v>20</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="17">
         <f>AVERAGE(J16:J18)</f>
         <v>985226.5925925927</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="15">
+      <c r="K34" s="18"/>
+      <c r="L34" s="17">
         <f>AVERAGE(L16:L18)</f>
         <v>4894519.833333333</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="15">
+      <c r="M34" s="18"/>
+      <c r="N34" s="17">
         <f>AVERAGE(N16:N18)</f>
         <v>2888619.7148148143</v>
       </c>
-      <c r="O34" s="16"/>
+      <c r="O34" s="18"/>
       <c r="R34">
         <v>10</v>
       </c>
@@ -6928,21 +6942,21 @@
       <c r="I35" s="8">
         <v>200</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="17">
         <f>AVERAGE(J13:J15)</f>
         <v>2919206.5185185187</v>
       </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="15">
+      <c r="K35" s="18"/>
+      <c r="L35" s="17">
         <f>AVERAGE(L13:L15)</f>
         <v>43000643.77407407</v>
       </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="15">
+      <c r="M35" s="18"/>
+      <c r="N35" s="17">
         <f>AVERAGE(N13:N15)</f>
         <v>43521172.05555556</v>
       </c>
-      <c r="O35" s="16"/>
+      <c r="O35" s="18"/>
       <c r="Q35">
         <v>100</v>
       </c>
@@ -6981,21 +6995,21 @@
       <c r="I36" s="8">
         <v>50</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="17">
         <f>AVERAGE(J22:J24)</f>
         <v>1365723.9666666666</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="15">
+      <c r="K36" s="18"/>
+      <c r="L36" s="17">
         <f>AVERAGE(L22:L24)</f>
         <v>13668530.566666668</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="15">
+      <c r="M36" s="18"/>
+      <c r="N36" s="17">
         <f>AVERAGE(N22:N24)</f>
         <v>8376367.2333333343</v>
       </c>
-      <c r="O36" s="16"/>
+      <c r="O36" s="18"/>
       <c r="R36">
         <v>500</v>
       </c>
@@ -7031,21 +7045,21 @@
       <c r="I37" s="8">
         <v>500</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="17">
         <f>AVERAGE(J19:J21)</f>
         <v>11490133.166666666</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="15">
+      <c r="K37" s="18"/>
+      <c r="L37" s="17">
         <f>AVERAGE(L19:L21)</f>
         <v>136448004.46666667</v>
       </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="15">
+      <c r="M37" s="18"/>
+      <c r="N37" s="17">
         <f>AVERAGE(N19:N21)</f>
         <v>105946270.63333333</v>
       </c>
-      <c r="O37" s="16"/>
+      <c r="O37" s="18"/>
       <c r="R37">
         <v>200</v>
       </c>
@@ -11271,6 +11285,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
@@ -11287,20 +11315,6 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11315,7 +11329,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11327,7 +11341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tp2/logs/donnees.xlsx
+++ b/tp2/logs/donnees.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gravu_000\Documents\GitHub\INF4705\tp2\logs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="838"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="838" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RapportVoraceMeilleurCas" sheetId="4" r:id="rId1"/>
@@ -18,15 +13,16 @@
     <sheet name="RapportLocalPire" sheetId="8" r:id="rId4"/>
     <sheet name="PuissannCasceVoraceMoye" sheetId="9" r:id="rId5"/>
     <sheet name="PuissanceLocalMoyenCas" sheetId="10" r:id="rId6"/>
-    <sheet name="données" sheetId="1" r:id="rId7"/>
-    <sheet name="RapportVoracePireCas" sheetId="5" r:id="rId8"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId9"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId10"/>
+    <sheet name="puissanceDynamique" sheetId="11" r:id="rId7"/>
+    <sheet name="données" sheetId="1" r:id="rId8"/>
+    <sheet name="RapportVoracePireCas" sheetId="5" r:id="rId9"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId10"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="analyse_1" localSheetId="6">données!$A$1:$G$224</definedName>
+    <definedName name="analyse_1" localSheetId="7">données!$A$1:$G$224</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
   <si>
     <t>Nom du fichier</t>
   </si>
@@ -963,17 +959,17 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,7 +997,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1061,6 +1057,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1576414337253155"/>
+                  <c:y val="-7.5044208471445857E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -1101,19 +1123,19 @@
                   <c:v>19172.238100000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34165.625999999997</c:v>
+                  <c:v>24330.494600000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97836.805999999997</c:v>
+                  <c:v>15570.807777777778</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19292.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38857.844444444447</c:v>
+                  <c:v>28692.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87432.044444444444</c:v>
+                  <c:v>50107.088888888888</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>91065.987500000003</c:v>
@@ -1142,6 +1164,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14686402337705132"/>
+                  <c:y val="-6.4066281916781934E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -1179,25 +1227,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>955.87689999999998</c:v>
+                  <c:v>17082.812999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1828.2415555555556</c:v>
+                  <c:v>23247.4676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15570.807777777778</c:v>
+                  <c:v>14592.778999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29185.557999999997</c:v>
+                  <c:v>9558.7690000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54498.044000000002</c:v>
+                  <c:v>27822.428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50107.088888888888</c:v>
+                  <c:v>50421.034999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100842.06999999999</c:v>
+                  <c:v>95587.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,6 +1271,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10481846668744771"/>
+                  <c:y val="-0.16807604955040467"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
@@ -1260,25 +1334,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>945.1173</c:v>
+                  <c:v>19567.361199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24330.494600000002</c:v>
+                  <c:v>21362.836800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58118.669000000002</c:v>
+                  <c:v>13624.511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106814.18400000001</c:v>
+                  <c:v>17486.408888888891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28692.46</c:v>
+                  <c:v>25428.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69556.069999999992</c:v>
+                  <c:v>47255.865000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127142.75</c:v>
+                  <c:v>91412.077777777769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,11 +1367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1341383920"/>
-        <c:axId val="-1341381200"/>
+        <c:axId val="125636608"/>
+        <c:axId val="125638528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1341383920"/>
+        <c:axId val="125636608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,12 +1402,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1341381200"/>
+        <c:crossAx val="125638528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1341381200"/>
+        <c:axId val="125638528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1341383920"/>
+        <c:crossAx val="125636608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1384,7 +1458,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1406,7 +1480,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Test du rapport pour l'algorithme vorace en meilleur cas pour différentes capacités maximales</a:t>
+              <a:t>Test du rapport pour l'algorithme dynamique en meilleur, pire et moyen cas pour différentes capacités maximales</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1439,6 +1513,33 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22933151218105477"/>
+                  <c:y val="-3.2677909162471243E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -1479,19 +1580,19 @@
                   <c:v>1109.4751162999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295.46784980000001</c:v>
+                  <c:v>619.38990679999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.13335549999999</c:v>
+                  <c:v>389.34455111111112</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>526.73413100000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>349.45781333333338</c:v>
+                  <c:v>692.81575799999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.300644444444444</c:v>
+                  <c:v>637.55179999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>949.84124999999995</c:v>
@@ -1520,6 +1621,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4607623098194108E-2"/>
+                  <c:y val="-7.9157867803105103E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$11:$Q$17</c:f>
@@ -1557,25 +1684,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.1811950000000007</c:v>
+                  <c:v>1477.3392490000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.245195555555554</c:v>
+                  <c:v>1294.989296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3893.445511111111</c:v>
+                  <c:v>2092.7394899999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4185.4789799999999</c:v>
+                  <c:v>1747.2890666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1855.6462600000002</c:v>
+                  <c:v>1074.02044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6375.518</c:v>
+                  <c:v>633.57315000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1267.1463000000001</c:v>
+                  <c:v>918.11950000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,6 +1728,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22112373352546166"/>
+                  <c:y val="-0.17818038838532507"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
@@ -1638,25 +1791,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66.537719999999993</c:v>
+                  <c:v>4982.6671100000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61938.990679999995</c:v>
+                  <c:v>6979.9190400000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32374.732399999997</c:v>
+                  <c:v>4639.1156500000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34899.595200000003</c:v>
+                  <c:v>1926.0128888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69281.575799999991</c:v>
+                  <c:v>1989.4032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26850.511000000002</c:v>
+                  <c:v>3326.886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9947.0159999999996</c:v>
+                  <c:v>6122.5977777777771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,11 +1824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1341381744"/>
-        <c:axId val="-1321498752"/>
+        <c:axId val="127469440"/>
+        <c:axId val="127508480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1341381744"/>
+        <c:axId val="127469440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,12 +1859,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1321498752"/>
+        <c:crossAx val="127508480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1321498752"/>
+        <c:axId val="127508480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1341381744"/>
+        <c:crossAx val="127469440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,7 +1915,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1817,6 +1970,47 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5827701925958658E-2"/>
+                  <c:y val="-0.17077351021071285"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -1857,19 +2051,19 @@
                   <c:v>220425.56890000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>408410.68400000001</c:v>
+                  <c:v>229877.54399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>937867.21049999993</c:v>
+                  <c:v>232902.43333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>246492.28399999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>501130.42222222226</c:v>
+                  <c:v>178369.78600000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>860816.91111111117</c:v>
+                  <c:v>150945.17222222223</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>193935.17499999999</c:v>
@@ -1898,6 +2092,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15207919378195575"/>
+                  <c:y val="-8.4274959586622747E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -1935,25 +2155,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1929.6491000000001</c:v>
+                  <c:v>204205.342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3836.5251111111111</c:v>
+                  <c:v>208596.3634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232902.43333333332</c:v>
+                  <c:v>227254.01850000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>454508.03700000001</c:v>
+                  <c:v>250565.21111111113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>770644.51599999995</c:v>
+                  <c:v>179491.30600000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150945.17222222223</c:v>
+                  <c:v>141980.76999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>283961.53999999998</c:v>
+                  <c:v>192964.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,6 +2199,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7091462528390035E-2"/>
+                  <c:y val="-5.2886586832312052E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -2016,25 +2262,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2807.3402999999998</c:v>
+                  <c:v>187573.44209999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>229877.54399999999</c:v>
+                  <c:v>197203.7164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>521490.90850000002</c:v>
+                  <c:v>192661.12899999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>986018.58200000005</c:v>
+                  <c:v>172163.38222222225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>178369.78600000002</c:v>
+                  <c:v>144720.94199999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>448728.26500000001</c:v>
+                  <c:v>140367.01499999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>723604.71</c:v>
+                  <c:v>191826.25555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,11 +2295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338811808"/>
-        <c:axId val="-1338813984"/>
+        <c:axId val="129895808"/>
+        <c:axId val="133081344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338811808"/>
+        <c:axId val="129895808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,15 +2326,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338813984"/>
+        <c:crossAx val="133081344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338813984"/>
+        <c:axId val="133081344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338811808"/>
+        <c:crossAx val="129895808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2140,7 +2387,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2195,6 +2442,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1515448407142608"/>
+                  <c:y val="-1.8531834793582679E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -2235,19 +2508,19 @@
                   <c:v>220.4255689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>816.82136800000001</c:v>
+                  <c:v>459.755088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4689.3360524999998</c:v>
+                  <c:v>1164.5121666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2464.9228399999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10022.608444444444</c:v>
+                  <c:v>3567.3957200000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43040.845555555563</c:v>
+                  <c:v>7547.2586111111113</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19393.517500000002</c:v>
@@ -2276,6 +2549,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2984717155656524E-4"/>
+                  <c:y val="-4.8844851298343893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$11:$Q$17</c:f>
@@ -2313,25 +2612,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.9296491</c:v>
+                  <c:v>204.205342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6730502222222219</c:v>
+                  <c:v>417.1927268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1164.5121666666666</c:v>
+                  <c:v>1136.2700925000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4545.0803700000006</c:v>
+                  <c:v>2505.652111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15412.890319999999</c:v>
+                  <c:v>3589.8261200000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7547.2586111111113</c:v>
+                  <c:v>7099.0384999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28396.153999999999</c:v>
+                  <c:v>19296.491000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,6 +2656,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14564304105934311"/>
+                  <c:y val="-7.713700003612102E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
@@ -2394,25 +2719,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.8073402999999999</c:v>
+                  <c:v>187.57344209999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>459.755088</c:v>
+                  <c:v>394.40743280000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2607.4545425000001</c:v>
+                  <c:v>963.30564499999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9860.1858200000006</c:v>
+                  <c:v>1721.6338222222223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3567.3957200000004</c:v>
+                  <c:v>2894.4188399999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22436.413250000001</c:v>
+                  <c:v>7018.3507499999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72360.47099999999</c:v>
+                  <c:v>19182.625555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,11 +2752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338810720"/>
-        <c:axId val="-1338812352"/>
+        <c:axId val="134897664"/>
+        <c:axId val="134900352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338810720"/>
+        <c:axId val="134897664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,12 +2787,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338812352"/>
+        <c:crossAx val="134900352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338812352"/>
+        <c:axId val="134900352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,7 +2823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338810720"/>
+        <c:crossAx val="134897664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2518,7 +2843,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2890,11 +3215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338810176"/>
-        <c:axId val="-1338816160"/>
+        <c:axId val="135505792"/>
+        <c:axId val="136689536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338810176"/>
+        <c:axId val="135505792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2926,12 +3251,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338816160"/>
+        <c:crossAx val="136689536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338816160"/>
+        <c:axId val="136689536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2963,7 +3288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338810176"/>
+        <c:crossAx val="135505792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2983,7 +3308,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3351,11 +3676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338814528"/>
-        <c:axId val="-1338819424"/>
+        <c:axId val="136884992"/>
+        <c:axId val="136887296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338814528"/>
+        <c:axId val="136884992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3387,12 +3712,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338819424"/>
+        <c:crossAx val="136887296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338819424"/>
+        <c:axId val="136887296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3424,7 +3749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338814528"/>
+        <c:crossAx val="136884992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3444,7 +3769,473 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test de puissance pour l'algorithme dynamique avec différentes capacités maximales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51826165952339265"/>
+                  <c:y val="0.12678176032099514"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$28:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$U$28:$U$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1109475116.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>309694953.39999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77868910.222222224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52673413.100000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34640787.899999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12751036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9498412.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51815900307438767"/>
+                  <c:y val="0.17020840131517431"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$35:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>147733924.90000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64749464.799999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41854789.799999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17472890.666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5370102.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1267146.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>918119.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>données!$Q$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.4185476442421151"/>
+                  <c:y val="0.32321699930857301"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>données!$R$42:$R$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>données!$U$42:$U$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>49826671.100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34899595.200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9278231.3000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1926012.888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>994701.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>665377.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>612259.77777777775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116993408"/>
+        <c:axId val="117064832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116993408"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taille de l'exemplaire</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117064832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="117064832"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution de l'algorithme (en ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116993408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3499,6 +4290,28 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$4:$Q$10</c:f>
@@ -3580,6 +4393,46 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12902358491545377"/>
+                  <c:y val="-3.3295517937346662E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$11:$Q$17</c:f>
@@ -3617,25 +4470,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.95587690000000003</c:v>
+                  <c:v>17.082813000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6564831111111111</c:v>
+                  <c:v>46.4949352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.854038888888894</c:v>
+                  <c:v>72.963894999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>291.85557999999997</c:v>
+                  <c:v>95.587690000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.9608800000001</c:v>
+                  <c:v>556.44855999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2505.3544444444442</c:v>
+                  <c:v>2521.0517500000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10084.207</c:v>
+                  <c:v>9558.7690000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,6 +4514,32 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3137847771789866E-2"/>
+                  <c:y val="-3.1275940439320124E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>données!$Q$18:$Q$24</c:f>
@@ -3698,25 +4577,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.94511730000000005</c:v>
+                  <c:v>19.567361200000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.660989200000003</c:v>
+                  <c:v>42.7256736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>290.593345</c:v>
+                  <c:v>68.122555000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1068.14184</c:v>
+                  <c:v>174.86408888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>573.8492</c:v>
+                  <c:v>508.57100000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3477.8035</c:v>
+                  <c:v>2362.7932500000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12714.275</c:v>
+                  <c:v>9141.2077777777777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,11 +4610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1338825952"/>
-        <c:axId val="-1338811264"/>
+        <c:axId val="144025088"/>
+        <c:axId val="146077952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1338825952"/>
+        <c:axId val="144025088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,12 +4645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338811264"/>
+        <c:crossAx val="146077952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1338811264"/>
+        <c:axId val="146077952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +4681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1338825952"/>
+        <c:crossAx val="144025088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3823,7 +4702,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3834,7 +4713,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3845,7 +4724,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3856,7 +4735,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3867,7 +4746,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3878,7 +4757,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3889,7 +4768,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3900,7 +4790,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3927,7 +4817,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3954,7 +4844,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -3981,7 +4871,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -4008,7 +4898,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -4035,7 +4925,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -4062,7 +4952,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8669694" cy="6288444"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669694" cy="6288444"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -4090,7 +5007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4132,7 +5049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4167,7 +5084,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4378,11 +5295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA250"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -4449,18 +5366,18 @@
       <c r="I2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="O2" s="18"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9" t="s">
         <v>1</v>
@@ -4616,7 +5533,7 @@
         <v>1000</v>
       </c>
       <c r="S4" s="12">
-        <f>J4/R4</f>
+        <f>S28/R4</f>
         <v>19172.238100000002</v>
       </c>
       <c r="T4" s="12">
@@ -4624,7 +5541,7 @@
         <v>1000000</v>
       </c>
       <c r="U4" s="12">
-        <f>J4/T4</f>
+        <f>S28/T4</f>
         <v>19.172238100000001</v>
       </c>
       <c r="V4" s="12">
@@ -4632,7 +5549,7 @@
         <v>1000000</v>
       </c>
       <c r="W4" s="12">
-        <f>L4/(V4)</f>
+        <f>U28/V4</f>
         <v>1109.4751162999999</v>
       </c>
       <c r="X4" s="12">
@@ -4640,7 +5557,7 @@
         <v>1000</v>
       </c>
       <c r="Y4" s="12">
-        <f>N4/X4</f>
+        <f>T28/X4</f>
         <v>220425.56890000001</v>
       </c>
       <c r="Z4" s="12">
@@ -4648,7 +5565,7 @@
         <v>1000000</v>
       </c>
       <c r="AA4" s="12">
-        <f>N4/Z4</f>
+        <f>T28/Z4</f>
         <v>220.4255689</v>
       </c>
     </row>
@@ -4712,40 +5629,40 @@
         <v>500</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S24" si="3">J5/R5</f>
-        <v>34165.625999999997</v>
+        <f t="shared" ref="S5:S24" si="3">S29/R5</f>
+        <v>24330.494600000002</v>
       </c>
       <c r="T5" s="12">
         <f t="shared" ref="T5:T24" si="4">Q5^2</f>
         <v>250000</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" ref="U5:U24" si="5">J5/T5</f>
-        <v>68.331252000000006</v>
+        <f t="shared" ref="U5:U24" si="5">S29/T5</f>
+        <v>48.660989200000003</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ref="V5:V24" si="6">Q5*P5</f>
         <v>500000</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W24" si="7">L5/(V5)</f>
-        <v>295.46784980000001</v>
+        <f t="shared" ref="W5:W24" si="7">U29/V5</f>
+        <v>619.38990679999995</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" ref="X5:X24" si="8">Q5</f>
         <v>500</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" ref="Y5:Y24" si="9">N5/X5</f>
-        <v>408410.68400000001</v>
+        <f t="shared" ref="Y5:Y24" si="9">T29/X5</f>
+        <v>229877.54399999999</v>
       </c>
       <c r="Z5" s="12">
         <f t="shared" ref="Z5:Z24" si="10">Q5^2</f>
         <v>250000</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA24" si="11">N5/Z5</f>
-        <v>816.82136800000001</v>
+        <f t="shared" ref="AA5:AA24" si="11">T29/Z5</f>
+        <v>459.755088</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -4809,7 +5726,7 @@
       </c>
       <c r="S6" s="12">
         <f t="shared" si="3"/>
-        <v>97836.805999999997</v>
+        <v>15570.807777777778</v>
       </c>
       <c r="T6" s="12">
         <f t="shared" si="4"/>
@@ -4817,7 +5734,7 @@
       </c>
       <c r="U6" s="12">
         <f t="shared" si="5"/>
-        <v>489.18403000000001</v>
+        <v>77.854038888888894</v>
       </c>
       <c r="V6" s="12">
         <f t="shared" si="6"/>
@@ -4825,7 +5742,7 @@
       </c>
       <c r="W6" s="12">
         <f t="shared" si="7"/>
-        <v>249.13335549999999</v>
+        <v>389.34455111111112</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="8"/>
@@ -4833,7 +5750,7 @@
       </c>
       <c r="Y6" s="12">
         <f t="shared" si="9"/>
-        <v>937867.21049999993</v>
+        <v>232902.43333333332</v>
       </c>
       <c r="Z6" s="12">
         <f t="shared" si="10"/>
@@ -4841,7 +5758,7 @@
       </c>
       <c r="AA6" s="12">
         <f t="shared" si="11"/>
-        <v>4689.3360524999998</v>
+        <v>1164.5121666666666</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -5001,7 +5918,7 @@
       </c>
       <c r="S8" s="12">
         <f t="shared" si="3"/>
-        <v>38857.844444444447</v>
+        <v>28692.46</v>
       </c>
       <c r="T8" s="12">
         <f t="shared" si="4"/>
@@ -5009,7 +5926,7 @@
       </c>
       <c r="U8" s="12">
         <f t="shared" si="5"/>
-        <v>777.15688888888894</v>
+        <v>573.8492</v>
       </c>
       <c r="V8" s="12">
         <f t="shared" si="6"/>
@@ -5017,7 +5934,7 @@
       </c>
       <c r="W8" s="12">
         <f t="shared" si="7"/>
-        <v>349.45781333333338</v>
+        <v>692.81575799999996</v>
       </c>
       <c r="X8" s="12">
         <f t="shared" si="8"/>
@@ -5025,7 +5942,7 @@
       </c>
       <c r="Y8" s="12">
         <f t="shared" si="9"/>
-        <v>501130.42222222226</v>
+        <v>178369.78600000002</v>
       </c>
       <c r="Z8" s="12">
         <f t="shared" si="10"/>
@@ -5033,7 +5950,7 @@
       </c>
       <c r="AA8" s="12">
         <f t="shared" si="11"/>
-        <v>10022.608444444444</v>
+        <v>3567.3957200000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -5097,7 +6014,7 @@
       </c>
       <c r="S9" s="12">
         <f t="shared" si="3"/>
-        <v>87432.044444444444</v>
+        <v>50107.088888888888</v>
       </c>
       <c r="T9" s="12">
         <f t="shared" si="4"/>
@@ -5105,7 +6022,7 @@
       </c>
       <c r="U9" s="12">
         <f t="shared" si="5"/>
-        <v>4371.6022222222227</v>
+        <v>2505.3544444444442</v>
       </c>
       <c r="V9" s="12">
         <f t="shared" si="6"/>
@@ -5113,7 +6030,7 @@
       </c>
       <c r="W9" s="12">
         <f t="shared" si="7"/>
-        <v>96.300644444444444</v>
+        <v>637.55179999999996</v>
       </c>
       <c r="X9" s="12">
         <f t="shared" si="8"/>
@@ -5121,7 +6038,7 @@
       </c>
       <c r="Y9" s="12">
         <f t="shared" si="9"/>
-        <v>860816.91111111117</v>
+        <v>150945.17222222223</v>
       </c>
       <c r="Z9" s="12">
         <f t="shared" si="10"/>
@@ -5129,7 +6046,7 @@
       </c>
       <c r="AA9" s="12">
         <f t="shared" si="11"/>
-        <v>43040.845555555563</v>
+        <v>7547.2586111111113</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -5289,7 +6206,7 @@
       </c>
       <c r="S11" s="12">
         <f t="shared" si="3"/>
-        <v>955.87689999999998</v>
+        <v>17082.812999999998</v>
       </c>
       <c r="T11" s="12">
         <f t="shared" si="4"/>
@@ -5297,7 +6214,7 @@
       </c>
       <c r="U11" s="12">
         <f t="shared" si="5"/>
-        <v>0.95587690000000003</v>
+        <v>17.082813000000002</v>
       </c>
       <c r="V11" s="12">
         <f t="shared" si="6"/>
@@ -5305,7 +6222,7 @@
       </c>
       <c r="W11" s="12">
         <f t="shared" si="7"/>
-        <v>9.1811950000000007</v>
+        <v>1477.3392490000001</v>
       </c>
       <c r="X11" s="12">
         <f t="shared" si="8"/>
@@ -5313,7 +6230,7 @@
       </c>
       <c r="Y11" s="12">
         <f t="shared" si="9"/>
-        <v>1929.6491000000001</v>
+        <v>204205.342</v>
       </c>
       <c r="Z11" s="12">
         <f t="shared" si="10"/>
@@ -5321,7 +6238,7 @@
       </c>
       <c r="AA11" s="12">
         <f t="shared" si="11"/>
-        <v>1.9296491</v>
+        <v>204.205342</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -5366,7 +6283,7 @@
       </c>
       <c r="S12" s="12">
         <f t="shared" si="3"/>
-        <v>1828.2415555555556</v>
+        <v>23247.4676</v>
       </c>
       <c r="T12" s="12">
         <f t="shared" si="4"/>
@@ -5374,7 +6291,7 @@
       </c>
       <c r="U12" s="12">
         <f t="shared" si="5"/>
-        <v>3.6564831111111111</v>
+        <v>46.4949352</v>
       </c>
       <c r="V12" s="12">
         <f t="shared" si="6"/>
@@ -5382,7 +6299,7 @@
       </c>
       <c r="W12" s="12">
         <f t="shared" si="7"/>
-        <v>12.245195555555554</v>
+        <v>1294.989296</v>
       </c>
       <c r="X12" s="12">
         <f t="shared" si="8"/>
@@ -5390,7 +6307,7 @@
       </c>
       <c r="Y12" s="12">
         <f t="shared" si="9"/>
-        <v>3836.5251111111111</v>
+        <v>208596.3634</v>
       </c>
       <c r="Z12" s="12">
         <f t="shared" si="10"/>
@@ -5398,7 +6315,7 @@
       </c>
       <c r="AA12" s="12">
         <f t="shared" si="11"/>
-        <v>7.6730502222222219</v>
+        <v>417.1927268</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -5462,7 +6379,7 @@
       </c>
       <c r="S13" s="12">
         <f t="shared" si="3"/>
-        <v>15570.807777777778</v>
+        <v>14592.778999999999</v>
       </c>
       <c r="T13" s="12">
         <f t="shared" si="4"/>
@@ -5470,7 +6387,7 @@
       </c>
       <c r="U13" s="12">
         <f t="shared" si="5"/>
-        <v>77.854038888888894</v>
+        <v>72.963894999999994</v>
       </c>
       <c r="V13" s="12">
         <f t="shared" si="6"/>
@@ -5478,7 +6395,7 @@
       </c>
       <c r="W13" s="12">
         <f t="shared" si="7"/>
-        <v>3893.445511111111</v>
+        <v>2092.7394899999999</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="8"/>
@@ -5486,7 +6403,7 @@
       </c>
       <c r="Y13" s="12">
         <f t="shared" si="9"/>
-        <v>232902.43333333332</v>
+        <v>227254.01850000001</v>
       </c>
       <c r="Z13" s="12">
         <f t="shared" si="10"/>
@@ -5494,7 +6411,7 @@
       </c>
       <c r="AA13" s="12">
         <f t="shared" si="11"/>
-        <v>1164.5121666666666</v>
+        <v>1136.2700925000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -5558,7 +6475,7 @@
       </c>
       <c r="S14" s="12">
         <f t="shared" si="3"/>
-        <v>29185.557999999997</v>
+        <v>9558.7690000000002</v>
       </c>
       <c r="T14" s="12">
         <f t="shared" si="4"/>
@@ -5566,7 +6483,7 @@
       </c>
       <c r="U14" s="12">
         <f t="shared" si="5"/>
-        <v>291.85557999999997</v>
+        <v>95.587690000000009</v>
       </c>
       <c r="V14" s="12">
         <f t="shared" si="6"/>
@@ -5574,7 +6491,7 @@
       </c>
       <c r="W14" s="12">
         <f t="shared" si="7"/>
-        <v>4185.4789799999999</v>
+        <v>1747.2890666666667</v>
       </c>
       <c r="X14" s="12">
         <f t="shared" si="8"/>
@@ -5582,7 +6499,7 @@
       </c>
       <c r="Y14" s="12">
         <f t="shared" si="9"/>
-        <v>454508.03700000001</v>
+        <v>250565.21111111113</v>
       </c>
       <c r="Z14" s="12">
         <f t="shared" si="10"/>
@@ -5590,7 +6507,7 @@
       </c>
       <c r="AA14" s="12">
         <f t="shared" si="11"/>
-        <v>4545.0803700000006</v>
+        <v>2505.652111111111</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -5654,7 +6571,7 @@
       </c>
       <c r="S15" s="12">
         <f t="shared" si="3"/>
-        <v>54498.044000000002</v>
+        <v>27822.428</v>
       </c>
       <c r="T15" s="12">
         <f t="shared" si="4"/>
@@ -5662,7 +6579,7 @@
       </c>
       <c r="U15" s="12">
         <f t="shared" si="5"/>
-        <v>1089.9608800000001</v>
+        <v>556.44855999999993</v>
       </c>
       <c r="V15" s="12">
         <f t="shared" si="6"/>
@@ -5670,7 +6587,7 @@
       </c>
       <c r="W15" s="12">
         <f t="shared" si="7"/>
-        <v>1855.6462600000002</v>
+        <v>1074.02044</v>
       </c>
       <c r="X15" s="12">
         <f t="shared" si="8"/>
@@ -5678,7 +6595,7 @@
       </c>
       <c r="Y15" s="12">
         <f t="shared" si="9"/>
-        <v>770644.51599999995</v>
+        <v>179491.30600000001</v>
       </c>
       <c r="Z15" s="12">
         <f t="shared" si="10"/>
@@ -5686,7 +6603,7 @@
       </c>
       <c r="AA15" s="12">
         <f t="shared" si="11"/>
-        <v>15412.890319999999</v>
+        <v>3589.8261200000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -5750,7 +6667,7 @@
       </c>
       <c r="S16" s="12">
         <f t="shared" si="3"/>
-        <v>50107.088888888888</v>
+        <v>50421.034999999996</v>
       </c>
       <c r="T16" s="12">
         <f t="shared" si="4"/>
@@ -5758,7 +6675,7 @@
       </c>
       <c r="U16" s="12">
         <f t="shared" si="5"/>
-        <v>2505.3544444444442</v>
+        <v>2521.0517500000001</v>
       </c>
       <c r="V16" s="12">
         <f t="shared" si="6"/>
@@ -5766,7 +6683,7 @@
       </c>
       <c r="W16" s="12">
         <f t="shared" si="7"/>
-        <v>6375.518</v>
+        <v>633.57315000000006</v>
       </c>
       <c r="X16" s="12">
         <f t="shared" si="8"/>
@@ -5774,7 +6691,7 @@
       </c>
       <c r="Y16" s="12">
         <f t="shared" si="9"/>
-        <v>150945.17222222223</v>
+        <v>141980.76999999999</v>
       </c>
       <c r="Z16" s="12">
         <f t="shared" si="10"/>
@@ -5782,7 +6699,7 @@
       </c>
       <c r="AA16" s="12">
         <f t="shared" si="11"/>
-        <v>7547.2586111111113</v>
+        <v>7099.0384999999997</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -5846,7 +6763,7 @@
       </c>
       <c r="S17" s="12">
         <f t="shared" si="3"/>
-        <v>100842.06999999999</v>
+        <v>95587.69</v>
       </c>
       <c r="T17" s="12">
         <f t="shared" si="4"/>
@@ -5854,7 +6771,7 @@
       </c>
       <c r="U17" s="12">
         <f t="shared" si="5"/>
-        <v>10084.207</v>
+        <v>9558.7690000000002</v>
       </c>
       <c r="V17" s="12">
         <f t="shared" si="6"/>
@@ -5862,7 +6779,7 @@
       </c>
       <c r="W17" s="12">
         <f t="shared" si="7"/>
-        <v>1267.1463000000001</v>
+        <v>918.11950000000002</v>
       </c>
       <c r="X17" s="12">
         <f t="shared" si="8"/>
@@ -5870,7 +6787,7 @@
       </c>
       <c r="Y17" s="12">
         <f t="shared" si="9"/>
-        <v>283961.53999999998</v>
+        <v>192964.91</v>
       </c>
       <c r="Z17" s="12">
         <f t="shared" si="10"/>
@@ -5878,7 +6795,7 @@
       </c>
       <c r="AA17" s="12">
         <f t="shared" si="11"/>
-        <v>28396.153999999999</v>
+        <v>19296.491000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -5942,7 +6859,7 @@
       </c>
       <c r="S18" s="12">
         <f t="shared" si="3"/>
-        <v>945.1173</v>
+        <v>19567.361199999999</v>
       </c>
       <c r="T18" s="12">
         <f t="shared" si="4"/>
@@ -5950,7 +6867,7 @@
       </c>
       <c r="U18" s="12">
         <f t="shared" si="5"/>
-        <v>0.94511730000000005</v>
+        <v>19.567361200000001</v>
       </c>
       <c r="V18" s="12">
         <f t="shared" si="6"/>
@@ -5958,7 +6875,7 @@
       </c>
       <c r="W18" s="12">
         <f t="shared" si="7"/>
-        <v>66.537719999999993</v>
+        <v>4982.6671100000003</v>
       </c>
       <c r="X18" s="12">
         <f t="shared" si="8"/>
@@ -5966,7 +6883,7 @@
       </c>
       <c r="Y18" s="12">
         <f t="shared" si="9"/>
-        <v>2807.3402999999998</v>
+        <v>187573.44209999999</v>
       </c>
       <c r="Z18" s="12">
         <f t="shared" si="10"/>
@@ -5974,7 +6891,7 @@
       </c>
       <c r="AA18" s="12">
         <f t="shared" si="11"/>
-        <v>2.8073402999999999</v>
+        <v>187.57344209999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -6038,7 +6955,7 @@
       </c>
       <c r="S19" s="12">
         <f t="shared" si="3"/>
-        <v>24330.494600000002</v>
+        <v>21362.836800000001</v>
       </c>
       <c r="T19" s="12">
         <f t="shared" si="4"/>
@@ -6046,7 +6963,7 @@
       </c>
       <c r="U19" s="12">
         <f t="shared" si="5"/>
-        <v>48.660989200000003</v>
+        <v>42.7256736</v>
       </c>
       <c r="V19" s="12">
         <f t="shared" si="6"/>
@@ -6054,7 +6971,7 @@
       </c>
       <c r="W19" s="12">
         <f t="shared" si="7"/>
-        <v>61938.990679999995</v>
+        <v>6979.9190400000007</v>
       </c>
       <c r="X19" s="12">
         <f t="shared" si="8"/>
@@ -6062,7 +6979,7 @@
       </c>
       <c r="Y19" s="12">
         <f t="shared" si="9"/>
-        <v>229877.54399999999</v>
+        <v>197203.7164</v>
       </c>
       <c r="Z19" s="12">
         <f t="shared" si="10"/>
@@ -6070,7 +6987,7 @@
       </c>
       <c r="AA19" s="12">
         <f t="shared" si="11"/>
-        <v>459.755088</v>
+        <v>394.40743280000004</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -6134,7 +7051,7 @@
       </c>
       <c r="S20" s="12">
         <f t="shared" si="3"/>
-        <v>58118.669000000002</v>
+        <v>13624.511</v>
       </c>
       <c r="T20" s="12">
         <f t="shared" si="4"/>
@@ -6142,7 +7059,7 @@
       </c>
       <c r="U20" s="12">
         <f t="shared" si="5"/>
-        <v>290.593345</v>
+        <v>68.122555000000006</v>
       </c>
       <c r="V20" s="12">
         <f t="shared" si="6"/>
@@ -6150,7 +7067,7 @@
       </c>
       <c r="W20" s="12">
         <f t="shared" si="7"/>
-        <v>32374.732399999997</v>
+        <v>4639.1156500000006</v>
       </c>
       <c r="X20" s="12">
         <f t="shared" si="8"/>
@@ -6158,7 +7075,7 @@
       </c>
       <c r="Y20" s="12">
         <f t="shared" si="9"/>
-        <v>521490.90850000002</v>
+        <v>192661.12899999999</v>
       </c>
       <c r="Z20" s="12">
         <f t="shared" si="10"/>
@@ -6166,7 +7083,7 @@
       </c>
       <c r="AA20" s="12">
         <f t="shared" si="11"/>
-        <v>2607.4545425000001</v>
+        <v>963.30564499999991</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -6230,7 +7147,7 @@
       </c>
       <c r="S21" s="12">
         <f t="shared" si="3"/>
-        <v>106814.18400000001</v>
+        <v>17486.408888888891</v>
       </c>
       <c r="T21" s="12">
         <f t="shared" si="4"/>
@@ -6238,7 +7155,7 @@
       </c>
       <c r="U21" s="12">
         <f t="shared" si="5"/>
-        <v>1068.14184</v>
+        <v>174.86408888888889</v>
       </c>
       <c r="V21" s="12">
         <f t="shared" si="6"/>
@@ -6246,7 +7163,7 @@
       </c>
       <c r="W21" s="12">
         <f t="shared" si="7"/>
-        <v>34899.595200000003</v>
+        <v>1926.0128888888889</v>
       </c>
       <c r="X21" s="12">
         <f t="shared" si="8"/>
@@ -6254,7 +7171,7 @@
       </c>
       <c r="Y21" s="12">
         <f t="shared" si="9"/>
-        <v>986018.58200000005</v>
+        <v>172163.38222222225</v>
       </c>
       <c r="Z21" s="12">
         <f t="shared" si="10"/>
@@ -6262,7 +7179,7 @@
       </c>
       <c r="AA21" s="12">
         <f t="shared" si="11"/>
-        <v>9860.1858200000006</v>
+        <v>1721.6338222222223</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -6326,7 +7243,7 @@
       </c>
       <c r="S22" s="12">
         <f t="shared" si="3"/>
-        <v>28692.46</v>
+        <v>25428.55</v>
       </c>
       <c r="T22" s="12">
         <f t="shared" si="4"/>
@@ -6334,7 +7251,7 @@
       </c>
       <c r="U22" s="12">
         <f t="shared" si="5"/>
-        <v>573.8492</v>
+        <v>508.57100000000003</v>
       </c>
       <c r="V22" s="12">
         <f t="shared" si="6"/>
@@ -6342,7 +7259,7 @@
       </c>
       <c r="W22" s="12">
         <f t="shared" si="7"/>
-        <v>69281.575799999991</v>
+        <v>1989.4032</v>
       </c>
       <c r="X22" s="12">
         <f t="shared" si="8"/>
@@ -6350,7 +7267,7 @@
       </c>
       <c r="Y22" s="12">
         <f t="shared" si="9"/>
-        <v>178369.78600000002</v>
+        <v>144720.94199999998</v>
       </c>
       <c r="Z22" s="12">
         <f t="shared" si="10"/>
@@ -6358,7 +7275,7 @@
       </c>
       <c r="AA22" s="12">
         <f t="shared" si="11"/>
-        <v>3567.3957200000004</v>
+        <v>2894.4188399999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -6403,7 +7320,7 @@
       </c>
       <c r="S23" s="12">
         <f t="shared" si="3"/>
-        <v>69556.069999999992</v>
+        <v>47255.865000000005</v>
       </c>
       <c r="T23" s="12">
         <f t="shared" si="4"/>
@@ -6411,7 +7328,7 @@
       </c>
       <c r="U23" s="12">
         <f t="shared" si="5"/>
-        <v>3477.8035</v>
+        <v>2362.7932500000002</v>
       </c>
       <c r="V23" s="12">
         <f t="shared" si="6"/>
@@ -6419,7 +7336,7 @@
       </c>
       <c r="W23" s="12">
         <f t="shared" si="7"/>
-        <v>26850.511000000002</v>
+        <v>3326.886</v>
       </c>
       <c r="X23" s="12">
         <f t="shared" si="8"/>
@@ -6427,7 +7344,7 @@
       </c>
       <c r="Y23" s="12">
         <f t="shared" si="9"/>
-        <v>448728.26500000001</v>
+        <v>140367.01499999998</v>
       </c>
       <c r="Z23" s="12">
         <f t="shared" si="10"/>
@@ -6435,7 +7352,7 @@
       </c>
       <c r="AA23" s="12">
         <f t="shared" si="11"/>
-        <v>22436.413250000001</v>
+        <v>7018.3507499999996</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -6499,7 +7416,7 @@
       </c>
       <c r="S24" s="12">
         <f t="shared" si="3"/>
-        <v>127142.75</v>
+        <v>91412.077777777769</v>
       </c>
       <c r="T24" s="12">
         <f t="shared" si="4"/>
@@ -6507,7 +7424,7 @@
       </c>
       <c r="U24" s="12">
         <f t="shared" si="5"/>
-        <v>12714.275</v>
+        <v>9141.2077777777777</v>
       </c>
       <c r="V24" s="12">
         <f t="shared" si="6"/>
@@ -6515,7 +7432,7 @@
       </c>
       <c r="W24" s="12">
         <f t="shared" si="7"/>
-        <v>9947.0159999999996</v>
+        <v>6122.5977777777771</v>
       </c>
       <c r="X24" s="12">
         <f t="shared" si="8"/>
@@ -6523,7 +7440,7 @@
       </c>
       <c r="Y24" s="12">
         <f t="shared" si="9"/>
-        <v>723604.71</v>
+        <v>191826.25555555554</v>
       </c>
       <c r="Z24" s="12">
         <f t="shared" si="10"/>
@@ -6531,7 +7448,7 @@
       </c>
       <c r="AA24" s="12">
         <f t="shared" si="11"/>
-        <v>72360.47099999999</v>
+        <v>19182.625555555554</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -6608,6 +7525,9 @@
       <c r="T27" t="s">
         <v>244</v>
       </c>
+      <c r="U27" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6643,6 +7563,9 @@
       <c r="T28">
         <v>220425568.90000001</v>
       </c>
+      <c r="U28">
+        <v>1109475116.3</v>
+      </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6667,18 +7590,18 @@
         <v>386</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="15" t="s">
+      <c r="K29" s="18"/>
+      <c r="L29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="15" t="s">
+      <c r="M29" s="18"/>
+      <c r="N29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="16"/>
+      <c r="O29" s="18"/>
       <c r="R29">
         <v>500</v>
       </c>
@@ -6687,6 +7610,9 @@
       </c>
       <c r="T29">
         <v>114938772</v>
+      </c>
+      <c r="U29">
+        <v>309694953.39999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -6735,6 +7661,9 @@
       <c r="T30">
         <v>46580486.666666664</v>
       </c>
+      <c r="U30">
+        <v>77868910.222222224</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6761,21 +7690,21 @@
       <c r="I31" s="8">
         <v>1000</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <f>AVERAGE(J4:J6)</f>
         <v>18607470.766666666</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="17">
+      <c r="K31" s="16"/>
+      <c r="L31" s="15">
         <f>AVERAGE(L4:L6)</f>
         <v>435678570.76666665</v>
       </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17">
+      <c r="M31" s="16"/>
+      <c r="N31" s="15">
         <f>AVERAGE(N4:N6)</f>
         <v>204068117.66666666</v>
       </c>
-      <c r="O31" s="18"/>
+      <c r="O31" s="16"/>
       <c r="R31">
         <v>100</v>
       </c>
@@ -6784,6 +7713,9 @@
       </c>
       <c r="T31">
         <v>24649228.399999999</v>
+      </c>
+      <c r="U31">
+        <v>52673413.100000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -6811,21 +7743,21 @@
       <c r="I32" s="8">
         <v>100</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="15">
         <f>AVERAGE(J7:J9)</f>
         <v>1873579.3703703703</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="17">
+      <c r="K32" s="16"/>
+      <c r="L32" s="15">
         <f>AVERAGE(L7:L9)</f>
         <v>24024105.551851854</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17">
+      <c r="M32" s="16"/>
+      <c r="N32" s="15">
         <f>AVERAGE(N7:N9)</f>
         <v>22307362.577777777</v>
       </c>
-      <c r="O32" s="18"/>
+      <c r="O32" s="16"/>
       <c r="R32">
         <v>50</v>
       </c>
@@ -6835,8 +7767,11 @@
       <c r="T32">
         <v>8918489.3000000007</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>34640787.899999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6861,21 +7796,21 @@
       <c r="I33" s="8">
         <v>10</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="15">
         <f>AVERAGE(J10:J12)</f>
         <v>926885.85092592577</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="17">
+      <c r="K33" s="16"/>
+      <c r="L33" s="15">
         <f>AVERAGE(L10:L12)</f>
         <v>3676263.9259259258</v>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17">
+      <c r="M33" s="16"/>
+      <c r="N33" s="15">
         <f>AVERAGE(N10:N12)</f>
         <v>1929087.8018518519</v>
       </c>
-      <c r="O33" s="18"/>
+      <c r="O33" s="16"/>
       <c r="R33">
         <v>20</v>
       </c>
@@ -6885,28 +7820,31 @@
       <c r="T33">
         <v>3018903.4444444445</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>12751036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="F34"/>
       <c r="I34" s="8">
         <v>20</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <f>AVERAGE(J16:J18)</f>
         <v>985226.5925925927</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="17">
+      <c r="K34" s="16"/>
+      <c r="L34" s="15">
         <f>AVERAGE(L16:L18)</f>
         <v>4894519.833333333</v>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17">
+      <c r="M34" s="16"/>
+      <c r="N34" s="15">
         <f>AVERAGE(N16:N18)</f>
         <v>2888619.7148148143</v>
       </c>
-      <c r="O34" s="18"/>
+      <c r="O34" s="16"/>
       <c r="R34">
         <v>10</v>
       </c>
@@ -6916,8 +7854,11 @@
       <c r="T34">
         <v>1939351.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>9498412.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6942,21 +7883,21 @@
       <c r="I35" s="8">
         <v>200</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="15">
         <f>AVERAGE(J13:J15)</f>
         <v>2919206.5185185187</v>
       </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="17">
+      <c r="K35" s="16"/>
+      <c r="L35" s="15">
         <f>AVERAGE(L13:L15)</f>
         <v>43000643.77407407</v>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17">
+      <c r="M35" s="16"/>
+      <c r="N35" s="15">
         <f>AVERAGE(N13:N15)</f>
         <v>43521172.05555556</v>
       </c>
-      <c r="O35" s="18"/>
+      <c r="O35" s="16"/>
       <c r="Q35">
         <v>100</v>
       </c>
@@ -6969,8 +7910,11 @@
       <c r="T35">
         <v>204205342</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>147733924.90000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -6995,21 +7939,21 @@
       <c r="I36" s="8">
         <v>50</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="15">
         <f>AVERAGE(J22:J24)</f>
         <v>1365723.9666666666</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="17">
+      <c r="K36" s="16"/>
+      <c r="L36" s="15">
         <f>AVERAGE(L22:L24)</f>
         <v>13668530.566666668</v>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17">
+      <c r="M36" s="16"/>
+      <c r="N36" s="15">
         <f>AVERAGE(N22:N24)</f>
         <v>8376367.2333333343</v>
       </c>
-      <c r="O36" s="18"/>
+      <c r="O36" s="16"/>
       <c r="R36">
         <v>500</v>
       </c>
@@ -7019,8 +7963,11 @@
       <c r="T36">
         <v>104298181.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>64749464.799999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -7045,21 +7992,21 @@
       <c r="I37" s="8">
         <v>500</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="15">
         <f>AVERAGE(J19:J21)</f>
         <v>11490133.166666666</v>
       </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="17">
+      <c r="K37" s="16"/>
+      <c r="L37" s="15">
         <f>AVERAGE(L19:L21)</f>
         <v>136448004.46666667</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17">
+      <c r="M37" s="16"/>
+      <c r="N37" s="15">
         <f>AVERAGE(N19:N21)</f>
         <v>105946270.63333333</v>
       </c>
-      <c r="O37" s="18"/>
+      <c r="O37" s="16"/>
       <c r="R37">
         <v>200</v>
       </c>
@@ -7069,8 +8016,11 @@
       <c r="T37">
         <v>45450803.700000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>41854789.799999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -7101,8 +8051,11 @@
       <c r="T38">
         <v>25056521.111111112</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>17472890.666666668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -7133,8 +8086,11 @@
       <c r="T39">
         <v>8974565.3000000007</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>5370102.2000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -7165,8 +8121,11 @@
       <c r="T40">
         <v>2839615.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>1267146.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -7197,8 +8156,11 @@
       <c r="T41">
         <v>1929649.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>918119.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -7232,8 +8194,11 @@
       <c r="T42">
         <v>187573442.09999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>49826671.100000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -7264,8 +8229,11 @@
       <c r="T43">
         <v>98601858.200000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>34899595.200000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7296,8 +8264,11 @@
       <c r="T44">
         <v>38532225.799999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>9278231.3000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="F45"/>
       <c r="R45">
@@ -7309,8 +8280,11 @@
       <c r="T45">
         <v>17216338.222222224</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>1926012.888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -7341,8 +8315,11 @@
       <c r="T46">
         <v>7236047.0999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>994701.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -7373,8 +8350,11 @@
       <c r="T47">
         <v>2807340.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>665377.19999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7404,6 +8384,9 @@
       </c>
       <c r="T48">
         <v>1918262.5555555555</v>
+      </c>
+      <c r="U48" s="14">
+        <v>612259.77777777775</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -11285,20 +12268,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
@@ -11315,6 +12284,20 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11329,7 +12312,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11341,7 +12324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
